--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="583">
   <si>
     <t>Date</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>https://sites.google.com/site/ploverdoc/lesson-1-fingers-and-keys</t>
-  </si>
-  <si>
-    <t>Where am I within that website?</t>
   </si>
   <si>
     <t>Exercise: One-syllable words; third row (starting with 'car')</t>
@@ -3805,6 +3802,15 @@
   </si>
   <si>
     <t>Tried to study while watching Eat, Pray, Love with family in Santa Fe. It did not go very well :D</t>
+  </si>
+  <si>
+    <t>Where am I within that website?/notes</t>
+  </si>
+  <si>
+    <t>Additional notes column</t>
+  </si>
+  <si>
+    <t>Made about 8 outline changes today.</t>
   </si>
 </sst>
 </file>
@@ -4092,7 +4098,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5199,11 +5204,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="30895856"/>
-        <c:axId val="30896248"/>
+        <c:axId val="245286376"/>
+        <c:axId val="245287160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30895856"/>
+        <c:axId val="245286376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5245,7 +5250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30896248"/>
+        <c:crossAx val="245287160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5253,7 +5258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30896248"/>
+        <c:axId val="245287160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5304,7 +5309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30895856"/>
+        <c:crossAx val="245286376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5398,7 +5403,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5854,11 +5858,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="418133152"/>
-        <c:axId val="418137464"/>
+        <c:axId val="429173600"/>
+        <c:axId val="429173208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="418133152"/>
+        <c:axId val="429173600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5900,7 +5904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418137464"/>
+        <c:crossAx val="429173208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5908,7 +5912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418137464"/>
+        <c:axId val="429173208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5959,7 +5963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418133152"/>
+        <c:crossAx val="429173600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6101,10 +6105,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$594</c:f>
+              <c:f>Sheet1!$M$576:$M$595</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6161,6 +6165,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6176,11 +6183,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="418134720"/>
-        <c:axId val="418136680"/>
+        <c:axId val="429173992"/>
+        <c:axId val="429176344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="418134720"/>
+        <c:axId val="429173992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6222,7 +6229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418136680"/>
+        <c:crossAx val="429176344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6230,7 +6237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418136680"/>
+        <c:axId val="429176344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6283,7 +6290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418134720"/>
+        <c:crossAx val="429173992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6430,10 +6437,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$594</c:f>
+              <c:f>Sheet1!$T$577:$T$595</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6487,6 +6494,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2579</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6502,11 +6512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="418137072"/>
-        <c:axId val="418133544"/>
+        <c:axId val="429176736"/>
+        <c:axId val="429171640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="418137072"/>
+        <c:axId val="429176736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6548,7 +6558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418133544"/>
+        <c:crossAx val="429171640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6556,7 +6566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418133544"/>
+        <c:axId val="429171640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6608,7 +6618,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418137072"/>
+        <c:crossAx val="429176736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9030,7 +9040,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -9338,11 +9348,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF594"/>
+  <dimension ref="A1:AF595"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT598" sqref="AT598"/>
+      <pane ySplit="17" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA588" sqref="AA588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9371,18 +9381,18 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -9392,20 +9402,20 @@
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="17"/>
       <c r="V6" t="s">
@@ -9414,13 +9424,13 @@
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="23"/>
@@ -9433,18 +9443,18 @@
       <c r="N7" s="50"/>
       <c r="O7" s="34"/>
       <c r="V7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="23"/>
@@ -9457,20 +9467,20 @@
       <c r="N8" s="50"/>
       <c r="O8" s="34"/>
       <c r="V8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="36">
         <v>3</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="24"/>
@@ -9485,13 +9495,13 @@
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="10">
         <v>4</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="23"/>
@@ -9506,13 +9516,13 @@
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10">
         <v>5</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="23"/>
@@ -9531,12 +9541,12 @@
         <v>6</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z13" s="41"/>
     </row>
@@ -9546,14 +9556,14 @@
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="48"/>
       <c r="E15" s="2"/>
       <c r="F15" s="61">
         <f>SUM(B18:B1000032)</f>
-        <v>1574.3799999999974</v>
+        <v>1580.5799999999974</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9561,7 +9571,7 @@
       <c r="J15" s="40"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="48"/>
@@ -9575,11 +9585,11 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="60">
         <f>SUM(C45:D1000031)</f>
-        <v>107789</v>
+        <v>108885</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -9587,70 +9597,70 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D17" s="47" t="s">
         <v>489</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="E17" t="s">
         <v>490</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" t="s">
+        <v>282</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="K17" t="s">
+        <v>283</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" t="s">
-        <v>283</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="K17" t="s">
-        <v>284</v>
-      </c>
-      <c r="L17" s="47" t="s">
-        <v>494</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>493</v>
-      </c>
       <c r="N17" s="47" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O17" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="P17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>418</v>
+      </c>
+      <c r="R17" t="s">
+        <v>512</v>
+      </c>
+      <c r="S17" s="53" t="s">
+        <v>545</v>
+      </c>
+      <c r="T17" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="P17" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>419</v>
-      </c>
-      <c r="R17" t="s">
-        <v>513</v>
-      </c>
-      <c r="S17" s="53" t="s">
-        <v>546</v>
-      </c>
-      <c r="T17" s="10" t="s">
+      <c r="U17" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="U17" s="37" t="s">
-        <v>487</v>
-      </c>
       <c r="V17" t="s">
-        <v>5</v>
+        <v>580</v>
       </c>
       <c r="W17" t="s">
-        <v>1</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -9670,7 +9680,7 @@
         <v>4201</v>
       </c>
       <c r="V18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W18" t="s">
         <v>2</v>
@@ -9687,7 +9697,7 @@
         <v>4</v>
       </c>
       <c r="V19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -9698,10 +9708,10 @@
         <v>1.6</v>
       </c>
       <c r="P20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" t="s">
         <v>18</v>
-      </c>
-      <c r="V20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -9712,10 +9722,10 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" t="s">
         <v>20</v>
-      </c>
-      <c r="V21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -9726,10 +9736,10 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" t="s">
         <v>22</v>
-      </c>
-      <c r="V22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -9740,13 +9750,13 @@
         <v>1.4</v>
       </c>
       <c r="P23" t="s">
+        <v>23</v>
+      </c>
+      <c r="V23" t="s">
         <v>24</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>25</v>
-      </c>
-      <c r="W23" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -9757,13 +9767,13 @@
         <v>1.4</v>
       </c>
       <c r="P24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V24" t="s">
+        <v>26</v>
+      </c>
+      <c r="W24" t="s">
         <v>27</v>
-      </c>
-      <c r="W24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -9774,13 +9784,13 @@
         <v>1.6</v>
       </c>
       <c r="P25" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" t="s">
         <v>30</v>
       </c>
-      <c r="V25" t="s">
-        <v>31</v>
-      </c>
       <c r="W25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -9791,13 +9801,13 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" t="s">
         <v>32</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -9808,10 +9818,10 @@
         <v>1.75</v>
       </c>
       <c r="P27" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" t="s">
         <v>35</v>
-      </c>
-      <c r="V27" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -9822,13 +9832,13 @@
         <v>4.25</v>
       </c>
       <c r="P28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V28" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" t="s">
         <v>37</v>
-      </c>
-      <c r="W28" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -9839,13 +9849,13 @@
         <v>5.6</v>
       </c>
       <c r="P29" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" t="s">
         <v>40</v>
       </c>
-      <c r="V29" t="s">
-        <v>41</v>
-      </c>
       <c r="W29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -9856,10 +9866,10 @@
         <v>2.9</v>
       </c>
       <c r="V30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -9870,7 +9880,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="V31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -9881,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="V32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -9892,7 +9902,7 @@
         <v>1.4</v>
       </c>
       <c r="V33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -9903,7 +9913,7 @@
         <v>3</v>
       </c>
       <c r="V34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -9914,7 +9924,7 @@
         <v>4.3</v>
       </c>
       <c r="V35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -9925,7 +9935,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="V36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -9936,7 +9946,7 @@
         <v>3.6</v>
       </c>
       <c r="V37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -9947,7 +9957,7 @@
         <v>3.2</v>
       </c>
       <c r="V38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -9958,7 +9968,7 @@
         <v>3</v>
       </c>
       <c r="V39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -9969,7 +9979,7 @@
         <v>4.8</v>
       </c>
       <c r="V40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -9980,7 +9990,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="V41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -9991,7 +10001,7 @@
         <v>2.25</v>
       </c>
       <c r="V42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -10002,7 +10012,7 @@
         <v>1.9</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -10013,10 +10023,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -10030,7 +10040,7 @@
         <v>357</v>
       </c>
       <c r="V45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -10044,7 +10054,7 @@
         <v>289</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -10058,7 +10068,7 @@
         <v>173</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -10072,7 +10082,7 @@
         <v>378</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -10086,7 +10096,7 @@
         <v>237</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -10100,7 +10110,7 @@
         <v>359</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W50" s="3"/>
     </row>
@@ -10115,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W51" s="3"/>
     </row>
@@ -10130,7 +10140,7 @@
         <v>130</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -10144,7 +10154,7 @@
         <v>373</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -10158,7 +10168,7 @@
         <v>216</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -10172,7 +10182,7 @@
         <v>357</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -10186,7 +10196,7 @@
         <v>342</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -10200,7 +10210,7 @@
         <v>377</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -10214,7 +10224,7 @@
         <v>167</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -10228,7 +10238,7 @@
         <v>146</v>
       </c>
       <c r="V59" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -10253,7 +10263,7 @@
         <v>157</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -10267,7 +10277,7 @@
         <v>154</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -10284,7 +10294,7 @@
         <v>80.2</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -10298,7 +10308,7 @@
         <v>140</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -10312,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -10326,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
@@ -10340,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -10354,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
@@ -10368,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -10382,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -10408,7 +10418,7 @@
       <c r="N71" s="48"/>
       <c r="O71" s="36"/>
       <c r="V71" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -10422,7 +10432,7 @@
         <v>218</v>
       </c>
       <c r="V72" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -10439,7 +10449,7 @@
         <v>62.8</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -10453,7 +10463,7 @@
         <v>313</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -10470,7 +10480,7 @@
         <v>70</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -10487,7 +10497,7 @@
         <v>70</v>
       </c>
       <c r="V76" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
@@ -10501,7 +10511,7 @@
         <v>384</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -10515,7 +10525,7 @@
         <v>371</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
@@ -10529,7 +10539,7 @@
         <v>415</v>
       </c>
       <c r="V79" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
@@ -10546,7 +10556,7 @@
         <v>73.5</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
@@ -10563,7 +10573,7 @@
         <v>73.7</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
@@ -10577,7 +10587,7 @@
         <v>349</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
@@ -10591,7 +10601,7 @@
         <v>361</v>
       </c>
       <c r="V83" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
@@ -10605,7 +10615,7 @@
         <v>333</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
@@ -10622,7 +10632,7 @@
         <v>76.900000000000006</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
@@ -10636,7 +10646,7 @@
         <v>349</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
@@ -10650,7 +10660,7 @@
         <v>355</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
@@ -10664,7 +10674,7 @@
         <v>165</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -10678,7 +10688,7 @@
         <v>342</v>
       </c>
       <c r="V89" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
@@ -10692,7 +10702,7 @@
         <v>336</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
@@ -10706,7 +10716,7 @@
         <v>336</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
@@ -10726,7 +10736,7 @@
         <v>30</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
@@ -10746,7 +10756,7 @@
         <v>78.599999999999994</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
@@ -10763,7 +10773,7 @@
         <v>76.5</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
@@ -10783,7 +10793,7 @@
         <v>83.3</v>
       </c>
       <c r="V95" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -10800,7 +10810,7 @@
         <v>75.900000000000006</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
@@ -10820,7 +10830,7 @@
         <v>77.3</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
@@ -10840,7 +10850,7 @@
         <v>78.5</v>
       </c>
       <c r="V98" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
@@ -10860,7 +10870,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="V99" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
@@ -10880,7 +10890,7 @@
         <v>76.900000000000006</v>
       </c>
       <c r="V100" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
@@ -10904,7 +10914,7 @@
         <v>3090</v>
       </c>
       <c r="V101" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
@@ -10924,7 +10934,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="V102" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
@@ -10954,7 +10964,7 @@
         <v>2954</v>
       </c>
       <c r="V103" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
@@ -10971,7 +10981,7 @@
         <v>75.3</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
@@ -10988,7 +10998,7 @@
         <v>77.099999999999994</v>
       </c>
       <c r="V105" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
@@ -11014,7 +11024,7 @@
         <v>11</v>
       </c>
       <c r="V106" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
@@ -11034,7 +11044,7 @@
         <v>80.3</v>
       </c>
       <c r="V107" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
@@ -11054,7 +11064,7 @@
         <v>76.099999999999994</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
@@ -11077,7 +11087,7 @@
         <v>17</v>
       </c>
       <c r="V109" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
@@ -11103,7 +11113,7 @@
         <v>21</v>
       </c>
       <c r="V110" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
@@ -11129,7 +11139,7 @@
         <v>18</v>
       </c>
       <c r="V111" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
@@ -11155,7 +11165,7 @@
         <v>19.3</v>
       </c>
       <c r="V112" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
@@ -11181,7 +11191,7 @@
         <v>22</v>
       </c>
       <c r="V113" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
@@ -11207,7 +11217,7 @@
         <v>27.13</v>
       </c>
       <c r="V114" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
@@ -11226,12 +11236,12 @@
       <c r="I115" s="21"/>
       <c r="K115" s="21"/>
       <c r="P115" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q115" s="21"/>
       <c r="R115" s="21"/>
       <c r="V115" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
@@ -11260,7 +11270,7 @@
       <c r="Q116" s="10"/>
       <c r="R116" s="10"/>
       <c r="V116" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
@@ -11283,7 +11293,7 @@
         <v>1235</v>
       </c>
       <c r="V117" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
@@ -11306,7 +11316,7 @@
         <v>1240</v>
       </c>
       <c r="V118" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
@@ -11329,7 +11339,7 @@
         <v>1250</v>
       </c>
       <c r="V119" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
@@ -11352,7 +11362,7 @@
         <v>1265</v>
       </c>
       <c r="V120" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
@@ -11375,7 +11385,7 @@
         <v>1277</v>
       </c>
       <c r="V121" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
@@ -11398,7 +11408,7 @@
         <v>1305</v>
       </c>
       <c r="V122" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
@@ -11412,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="V123" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
@@ -11432,7 +11442,7 @@
         <v>1331</v>
       </c>
       <c r="V124" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
@@ -11449,7 +11459,7 @@
         <v>1338</v>
       </c>
       <c r="V125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
@@ -11466,7 +11476,7 @@
         <v>1345</v>
       </c>
       <c r="V126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
@@ -11480,7 +11490,7 @@
         <v>1353</v>
       </c>
       <c r="V127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
@@ -11491,7 +11501,7 @@
         <v>5.8</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
@@ -11499,7 +11509,7 @@
       <c r="T128" s="36"/>
       <c r="U128" s="40"/>
       <c r="V128" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W128" s="15"/>
       <c r="X128" s="15"/>
@@ -11520,7 +11530,7 @@
       <c r="T129" s="36"/>
       <c r="U129" s="40"/>
       <c r="V129" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W129" s="15"/>
       <c r="X129" s="15"/>
@@ -11536,7 +11546,7 @@
         <v>1290</v>
       </c>
       <c r="V130" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.25">
@@ -11550,7 +11560,7 @@
         <v>1300</v>
       </c>
       <c r="V131" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.25">
@@ -11564,7 +11574,7 @@
         <v>1327</v>
       </c>
       <c r="V132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.25">
@@ -11578,7 +11588,7 @@
         <v>1337</v>
       </c>
       <c r="V133" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.25">
@@ -11592,7 +11602,7 @@
         <v>1337</v>
       </c>
       <c r="V134" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.25">
@@ -11606,7 +11616,7 @@
         <v>1351</v>
       </c>
       <c r="V135" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.25">
@@ -11620,7 +11630,7 @@
         <v>1365</v>
       </c>
       <c r="V136" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.25">
@@ -11637,7 +11647,7 @@
         <v>1402</v>
       </c>
       <c r="V137" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.25">
@@ -11654,7 +11664,7 @@
         <v>1425</v>
       </c>
       <c r="V138" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:32" x14ac:dyDescent="0.25">
@@ -11673,7 +11683,7 @@
       <c r="T139" s="36"/>
       <c r="U139" s="40"/>
       <c r="V139" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.25">
@@ -11698,7 +11708,7 @@
       <c r="T140" s="46"/>
       <c r="U140" s="45"/>
       <c r="V140" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.25">
@@ -11715,7 +11725,7 @@
         <v>68.599999999999994</v>
       </c>
       <c r="V141" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.25">
@@ -11729,7 +11739,7 @@
         <v>1423</v>
       </c>
       <c r="V142" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:32" x14ac:dyDescent="0.25">
@@ -11745,7 +11755,7 @@
       <c r="I143" s="21"/>
       <c r="K143" s="21"/>
       <c r="O143" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P143" s="21">
         <v>1481</v>
@@ -11753,7 +11763,7 @@
       <c r="Q143" s="21"/>
       <c r="R143" s="21"/>
       <c r="V143" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W143" s="21"/>
       <c r="X143" s="21"/>
@@ -11777,7 +11787,7 @@
         <v>1489</v>
       </c>
       <c r="V144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
@@ -11791,7 +11801,7 @@
         <v>421</v>
       </c>
       <c r="V145" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.25">
@@ -11805,7 +11815,7 @@
         <v>150</v>
       </c>
       <c r="V146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.25">
@@ -11816,7 +11826,7 @@
         <v>2.1</v>
       </c>
       <c r="V147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
@@ -11830,7 +11840,7 @@
         <v>1489</v>
       </c>
       <c r="V148" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.25">
@@ -11850,7 +11860,7 @@
         <v>1496</v>
       </c>
       <c r="V149" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.25">
@@ -11876,7 +11886,7 @@
         <v>1500</v>
       </c>
       <c r="V150" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
@@ -11919,7 +11929,7 @@
         <v>1504</v>
       </c>
       <c r="V152" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.25">
@@ -11962,7 +11972,7 @@
         <v>1509</v>
       </c>
       <c r="V154" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
@@ -11988,7 +11998,7 @@
         <v>1511</v>
       </c>
       <c r="V155" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.25">
@@ -12011,7 +12021,7 @@
         <v>1514</v>
       </c>
       <c r="V156" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.25">
@@ -12034,7 +12044,7 @@
         <v>1517</v>
       </c>
       <c r="V157" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.25">
@@ -12060,7 +12070,7 @@
         <v>1522</v>
       </c>
       <c r="V158" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.25">
@@ -12086,7 +12096,7 @@
         <v>1522</v>
       </c>
       <c r="V159" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.25">
@@ -12112,7 +12122,7 @@
         <v>1529</v>
       </c>
       <c r="V160" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.25">
@@ -12138,7 +12148,7 @@
         <v>1535</v>
       </c>
       <c r="V161" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.25">
@@ -12187,7 +12197,7 @@
         <v>1542</v>
       </c>
       <c r="V163" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.25">
@@ -12325,7 +12335,7 @@
         <v>1567</v>
       </c>
       <c r="V169" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.25">
@@ -12348,7 +12358,7 @@
         <v>1582</v>
       </c>
       <c r="V170" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.25">
@@ -12371,7 +12381,7 @@
         <v>1605</v>
       </c>
       <c r="V171" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.25">
@@ -12394,7 +12404,7 @@
         <v>1617</v>
       </c>
       <c r="V172" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.25">
@@ -12417,7 +12427,7 @@
         <v>1637</v>
       </c>
       <c r="V173" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.25">
@@ -12440,7 +12450,7 @@
         <v>1657</v>
       </c>
       <c r="V174" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.25">
@@ -12463,7 +12473,7 @@
         <v>1674</v>
       </c>
       <c r="V175" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.25">
@@ -12480,7 +12490,7 @@
         <v>1758</v>
       </c>
       <c r="V176" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.25">
@@ -12504,7 +12514,7 @@
       <c r="Q177" s="21"/>
       <c r="R177" s="21"/>
       <c r="V177" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.25">
@@ -12521,7 +12531,7 @@
         <v>1793</v>
       </c>
       <c r="V178" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.25">
@@ -12544,7 +12554,7 @@
         <v>1797</v>
       </c>
       <c r="V179" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.25">
@@ -12567,7 +12577,7 @@
         <v>1801</v>
       </c>
       <c r="V180" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.25">
@@ -12616,7 +12626,7 @@
         <v>1802</v>
       </c>
       <c r="V182" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.25">
@@ -12642,7 +12652,7 @@
         <v>1802</v>
       </c>
       <c r="V183" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.25">
@@ -12662,7 +12672,7 @@
         <v>1802</v>
       </c>
       <c r="V184" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.25">
@@ -12685,7 +12695,7 @@
         <v>1802</v>
       </c>
       <c r="V185" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.25">
@@ -12734,7 +12744,7 @@
         <v>1805</v>
       </c>
       <c r="V187" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.25">
@@ -12780,7 +12790,7 @@
         <v>1810</v>
       </c>
       <c r="V189" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.25">
@@ -12806,7 +12816,7 @@
         <v>1813</v>
       </c>
       <c r="V190" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.25">
@@ -12829,7 +12839,7 @@
         <v>1815</v>
       </c>
       <c r="V191" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.25">
@@ -12855,7 +12865,7 @@
         <v>1817</v>
       </c>
       <c r="V192" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.25">
@@ -12881,7 +12891,7 @@
         <v>1821</v>
       </c>
       <c r="V193" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.25">
@@ -12930,7 +12940,7 @@
         <v>1823</v>
       </c>
       <c r="V195" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.25">
@@ -12999,7 +13009,7 @@
         <v>1826</v>
       </c>
       <c r="V198" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.25">
@@ -13025,7 +13035,7 @@
         <v>1828</v>
       </c>
       <c r="V199" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.25">
@@ -13157,7 +13167,7 @@
         <v>1833</v>
       </c>
       <c r="V205" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.25">
@@ -13183,7 +13193,7 @@
         <v>1834</v>
       </c>
       <c r="V206" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.25">
@@ -13209,7 +13219,7 @@
         <v>1834</v>
       </c>
       <c r="V207" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.25">
@@ -13258,7 +13268,7 @@
         <v>1840</v>
       </c>
       <c r="V209" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.25">
@@ -13284,7 +13294,7 @@
         <v>1839</v>
       </c>
       <c r="V210" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.25">
@@ -13310,7 +13320,7 @@
         <v>1841</v>
       </c>
       <c r="V211" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.25">
@@ -13336,7 +13346,7 @@
         <v>1853</v>
       </c>
       <c r="V212" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.25">
@@ -13382,7 +13392,7 @@
         <v>1857</v>
       </c>
       <c r="V214" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.25">
@@ -13408,7 +13418,7 @@
         <v>1861</v>
       </c>
       <c r="V215" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.25">
@@ -13480,7 +13490,7 @@
         <v>1870</v>
       </c>
       <c r="V218" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.25">
@@ -13514,7 +13524,7 @@
         <v>1</v>
       </c>
       <c r="V220" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.25">
@@ -13595,7 +13605,7 @@
         <v>1899</v>
       </c>
       <c r="V229" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.25">
@@ -13612,7 +13622,7 @@
         <v>1905</v>
       </c>
       <c r="V230" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.25">
@@ -13623,7 +13633,7 @@
         <v>2.9</v>
       </c>
       <c r="V231" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.25">
@@ -13640,7 +13650,7 @@
         <v>1994</v>
       </c>
       <c r="V232" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.25">
@@ -13657,7 +13667,7 @@
         <v>2024</v>
       </c>
       <c r="V233" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.25">
@@ -13674,7 +13684,7 @@
         <v>2040</v>
       </c>
       <c r="V234" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.25">
@@ -13707,7 +13717,7 @@
         <v>2085</v>
       </c>
       <c r="V237" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:22" x14ac:dyDescent="0.25">
@@ -13724,7 +13734,7 @@
         <v>2107</v>
       </c>
       <c r="V238" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="239" spans="1:22" x14ac:dyDescent="0.25">
@@ -13741,7 +13751,7 @@
         <v>2122</v>
       </c>
       <c r="V239" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.25">
@@ -13764,7 +13774,7 @@
         <v>2122</v>
       </c>
       <c r="V240" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.25">
@@ -13790,7 +13800,7 @@
         <v>2126</v>
       </c>
       <c r="V241" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.25">
@@ -13807,7 +13817,7 @@
         <v>2126</v>
       </c>
       <c r="V242" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.25">
@@ -13824,7 +13834,7 @@
         <v>2127</v>
       </c>
       <c r="V243" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.25">
@@ -13841,7 +13851,7 @@
         <v>2132</v>
       </c>
       <c r="V244" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.25">
@@ -13858,7 +13868,7 @@
         <v>2129</v>
       </c>
       <c r="V245" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.25">
@@ -13875,7 +13885,7 @@
         <v>2130</v>
       </c>
       <c r="V246" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.25">
@@ -13892,7 +13902,7 @@
         <v>2130</v>
       </c>
       <c r="V247" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.25">
@@ -13917,7 +13927,7 @@
         <v>2130</v>
       </c>
       <c r="V249" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.25">
@@ -13934,7 +13944,7 @@
         <v>2128</v>
       </c>
       <c r="V250" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.25">
@@ -13951,7 +13961,7 @@
         <v>2135</v>
       </c>
       <c r="V251" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.25">
@@ -13962,7 +13972,7 @@
         <v>0.5</v>
       </c>
       <c r="V252" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="253" spans="1:22" x14ac:dyDescent="0.25">
@@ -13979,7 +13989,7 @@
         <v>2152</v>
       </c>
       <c r="V253" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.25">
@@ -13996,7 +14006,7 @@
         <v>2219</v>
       </c>
       <c r="V254" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.25">
@@ -14018,7 +14028,7 @@
       <c r="T255" s="36"/>
       <c r="U255" s="40"/>
       <c r="V255" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.25">
@@ -14035,7 +14045,7 @@
         <v>2124</v>
       </c>
       <c r="V256" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.25">
@@ -14052,7 +14062,7 @@
         <v>2183</v>
       </c>
       <c r="V257" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.25">
@@ -14069,7 +14079,7 @@
         <v>2313</v>
       </c>
       <c r="V258" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.25">
@@ -14086,7 +14096,7 @@
         <v>2460</v>
       </c>
       <c r="V259" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.25">
@@ -14103,7 +14113,7 @@
         <v>2490</v>
       </c>
       <c r="V260" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
@@ -14120,7 +14130,7 @@
         <v>2649</v>
       </c>
       <c r="V261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.25">
@@ -14137,7 +14147,7 @@
         <v>2779</v>
       </c>
       <c r="V262" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.25">
@@ -14148,7 +14158,7 @@
         <v>8.25</v>
       </c>
       <c r="V263" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
@@ -14169,7 +14179,7 @@
         <v>2972</v>
       </c>
       <c r="V264" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.25">
@@ -14193,7 +14203,7 @@
       </c>
       <c r="R265" s="37"/>
       <c r="V265" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="266" spans="1:22" x14ac:dyDescent="0.25">
@@ -14216,7 +14226,7 @@
         <v>2980</v>
       </c>
       <c r="V266" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.25">
@@ -14242,7 +14252,7 @@
         <v>2982</v>
       </c>
       <c r="V267" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.25">
@@ -14268,7 +14278,7 @@
         <v>2982</v>
       </c>
       <c r="V268" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.25">
@@ -14291,7 +14301,7 @@
         <v>2984</v>
       </c>
       <c r="V269" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.25">
@@ -14317,7 +14327,7 @@
         <v>2988</v>
       </c>
       <c r="V270" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.25">
@@ -14345,7 +14355,7 @@
       <c r="T271" s="36"/>
       <c r="U271" s="40"/>
       <c r="V271" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.25">
@@ -14368,7 +14378,7 @@
         <v>2989</v>
       </c>
       <c r="V272" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.25">
@@ -14394,7 +14404,7 @@
         <v>2988</v>
       </c>
       <c r="V273" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.25">
@@ -14420,7 +14430,7 @@
         <v>2987</v>
       </c>
       <c r="V274" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.25">
@@ -14446,7 +14456,7 @@
         <v>2987</v>
       </c>
       <c r="V275" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
@@ -14472,7 +14482,7 @@
         <v>2968</v>
       </c>
       <c r="V276" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.25">
@@ -14498,7 +14508,7 @@
         <v>2965</v>
       </c>
       <c r="V277" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.25">
@@ -14521,7 +14531,7 @@
         <v>2964</v>
       </c>
       <c r="V278" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
@@ -14547,7 +14557,7 @@
         <v>2961</v>
       </c>
       <c r="V279" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
@@ -14570,7 +14580,7 @@
         <v>3023</v>
       </c>
       <c r="V280" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
@@ -14596,7 +14606,7 @@
         <v>2957</v>
       </c>
       <c r="V281" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
@@ -14622,7 +14632,7 @@
         <v>2956</v>
       </c>
       <c r="V282" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
@@ -14639,7 +14649,7 @@
         <v>2957</v>
       </c>
       <c r="V283" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.25">
@@ -14659,7 +14669,7 @@
         <v>2957</v>
       </c>
       <c r="V284" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
@@ -14685,7 +14695,7 @@
         <v>2958</v>
       </c>
       <c r="V285" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
@@ -14708,7 +14718,7 @@
         <v>2955</v>
       </c>
       <c r="V286" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
@@ -14731,7 +14741,7 @@
         <v>2955</v>
       </c>
       <c r="V287" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
@@ -14760,7 +14770,7 @@
         <v>2952</v>
       </c>
       <c r="V288" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.25">
@@ -14786,7 +14796,7 @@
         <v>2952</v>
       </c>
       <c r="V289" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.25">
@@ -14812,7 +14822,7 @@
         <v>2950</v>
       </c>
       <c r="V290" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.25">
@@ -14838,7 +14848,7 @@
         <v>2952</v>
       </c>
       <c r="V291" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.25">
@@ -14861,7 +14871,7 @@
         <v>2952</v>
       </c>
       <c r="V292" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.25">
@@ -14884,7 +14894,7 @@
         <v>2949</v>
       </c>
       <c r="V293" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.25">
@@ -14927,7 +14937,7 @@
         <v>2950</v>
       </c>
       <c r="V295" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.25">
@@ -14950,7 +14960,7 @@
         <v>2950</v>
       </c>
       <c r="V296" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.25">
@@ -15013,7 +15023,7 @@
         <v>2947</v>
       </c>
       <c r="V299" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="300" spans="1:22" x14ac:dyDescent="0.25">
@@ -15059,7 +15069,7 @@
         <v>2945</v>
       </c>
       <c r="V301" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="302" spans="1:22" x14ac:dyDescent="0.25">
@@ -15085,7 +15095,7 @@
         <v>2940</v>
       </c>
       <c r="V302" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="303" spans="1:22" x14ac:dyDescent="0.25">
@@ -15155,7 +15165,7 @@
         <v>2937</v>
       </c>
       <c r="V305" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="306" spans="1:22" x14ac:dyDescent="0.25">
@@ -15222,7 +15232,7 @@
         <v>2099</v>
       </c>
       <c r="V308" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.25">
@@ -15248,7 +15258,7 @@
         <v>2926</v>
       </c>
       <c r="V309" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="310" spans="1:22" x14ac:dyDescent="0.25">
@@ -15271,7 +15281,7 @@
         <v>2923</v>
       </c>
       <c r="V310" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.25">
@@ -15320,7 +15330,7 @@
         <v>2919</v>
       </c>
       <c r="V312" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="313" spans="1:22" x14ac:dyDescent="0.25">
@@ -15340,7 +15350,7 @@
         <v>1903</v>
       </c>
       <c r="V313" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.25">
@@ -15366,7 +15376,7 @@
         <v>2918</v>
       </c>
       <c r="V314" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="315" spans="1:22" x14ac:dyDescent="0.25">
@@ -15392,7 +15402,7 @@
         <v>2073</v>
       </c>
       <c r="V315" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.25">
@@ -15418,7 +15428,7 @@
         <v>2914</v>
       </c>
       <c r="V316" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.25">
@@ -15444,7 +15454,7 @@
         <v>2912</v>
       </c>
       <c r="V317" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="318" spans="1:22" x14ac:dyDescent="0.25">
@@ -15455,7 +15465,7 @@
         <v>1</v>
       </c>
       <c r="V318" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="319" spans="1:22" x14ac:dyDescent="0.25">
@@ -15481,7 +15491,7 @@
         <v>2911</v>
       </c>
       <c r="V319" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="320" spans="1:22" x14ac:dyDescent="0.25">
@@ -15613,7 +15623,7 @@
         <v>2904</v>
       </c>
       <c r="V325" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="326" spans="1:22" x14ac:dyDescent="0.25">
@@ -15705,7 +15715,7 @@
         <v>2904</v>
       </c>
       <c r="V329" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="330" spans="1:22" x14ac:dyDescent="0.25">
@@ -15754,7 +15764,7 @@
         <v>2901</v>
       </c>
       <c r="V331" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="332" spans="1:22" x14ac:dyDescent="0.25">
@@ -15780,7 +15790,7 @@
         <v>2894</v>
       </c>
       <c r="V332" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="333" spans="1:22" x14ac:dyDescent="0.25">
@@ -15806,7 +15816,7 @@
         <v>2892</v>
       </c>
       <c r="V333" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="334" spans="1:22" x14ac:dyDescent="0.25">
@@ -15857,7 +15867,7 @@
         <v>2889</v>
       </c>
       <c r="V335" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="336" spans="1:22" x14ac:dyDescent="0.25">
@@ -15884,7 +15894,7 @@
         <v>2889</v>
       </c>
       <c r="V336" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="337" spans="1:22" x14ac:dyDescent="0.25">
@@ -15939,7 +15949,7 @@
         <v>2050</v>
       </c>
       <c r="V338" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="339" spans="1:22" x14ac:dyDescent="0.25">
@@ -16014,7 +16024,7 @@
         <v>2878</v>
       </c>
       <c r="V341" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="342" spans="1:22" x14ac:dyDescent="0.25">
@@ -16025,7 +16035,7 @@
         <v>6.8</v>
       </c>
       <c r="V342" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="343" spans="1:22" x14ac:dyDescent="0.25">
@@ -16052,7 +16062,7 @@
         <v>2875</v>
       </c>
       <c r="V343" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="344" spans="1:22" x14ac:dyDescent="0.25">
@@ -16079,7 +16089,7 @@
         <v>2872</v>
       </c>
       <c r="V344" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="345" spans="1:22" x14ac:dyDescent="0.25">
@@ -16106,7 +16116,7 @@
         <v>2872</v>
       </c>
       <c r="V345" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="346" spans="1:22" x14ac:dyDescent="0.25">
@@ -16133,7 +16143,7 @@
         <v>2871</v>
       </c>
       <c r="V346" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="347" spans="1:22" x14ac:dyDescent="0.25">
@@ -16160,7 +16170,7 @@
         <v>2869</v>
       </c>
       <c r="V347" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="348" spans="1:22" x14ac:dyDescent="0.25">
@@ -16187,7 +16197,7 @@
         <v>2867</v>
       </c>
       <c r="V348" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="349" spans="1:22" x14ac:dyDescent="0.25">
@@ -16214,7 +16224,7 @@
         <v>2865</v>
       </c>
       <c r="V349" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="350" spans="1:22" x14ac:dyDescent="0.25">
@@ -16241,7 +16251,7 @@
         <v>2866</v>
       </c>
       <c r="V350" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="351" spans="1:22" x14ac:dyDescent="0.25">
@@ -16292,7 +16302,7 @@
         <v>2865</v>
       </c>
       <c r="V352" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="353" spans="1:22" x14ac:dyDescent="0.25">
@@ -16439,7 +16449,7 @@
         <v>2857</v>
       </c>
       <c r="V358" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="359" spans="1:22" x14ac:dyDescent="0.25">
@@ -16466,7 +16476,7 @@
         <v>2855</v>
       </c>
       <c r="V359" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="360" spans="1:22" x14ac:dyDescent="0.25">
@@ -16517,7 +16527,7 @@
         <v>2857</v>
       </c>
       <c r="V361" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="362" spans="1:22" x14ac:dyDescent="0.25">
@@ -16528,7 +16538,7 @@
         <v>1.2</v>
       </c>
       <c r="V362" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="363" spans="1:22" x14ac:dyDescent="0.25">
@@ -16555,7 +16565,7 @@
         <v>2857</v>
       </c>
       <c r="V363" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="364" spans="1:22" x14ac:dyDescent="0.25">
@@ -16582,7 +16592,7 @@
         <v>2855</v>
       </c>
       <c r="V364" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="365" spans="1:22" x14ac:dyDescent="0.25">
@@ -16599,7 +16609,7 @@
         <v>2855</v>
       </c>
       <c r="V365" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="366" spans="1:22" x14ac:dyDescent="0.25">
@@ -16624,7 +16634,7 @@
         <v>2071</v>
       </c>
       <c r="V366" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="367" spans="1:22" x14ac:dyDescent="0.25">
@@ -16655,7 +16665,7 @@
         <v>1807</v>
       </c>
       <c r="V367" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="368" spans="1:22" x14ac:dyDescent="0.25">
@@ -16682,7 +16692,7 @@
         <v>2850</v>
       </c>
       <c r="V368" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="369" spans="1:22" x14ac:dyDescent="0.25">
@@ -16709,7 +16719,7 @@
         <v>2847</v>
       </c>
       <c r="V369" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="370" spans="1:22" x14ac:dyDescent="0.25">
@@ -16740,7 +16750,7 @@
         <v>1615</v>
       </c>
       <c r="V370" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="371" spans="1:22" x14ac:dyDescent="0.25">
@@ -16767,7 +16777,7 @@
         <v>2842</v>
       </c>
       <c r="V371" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="372" spans="1:22" x14ac:dyDescent="0.25">
@@ -16794,7 +16804,7 @@
         <v>2842</v>
       </c>
       <c r="V372" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="373" spans="1:22" x14ac:dyDescent="0.25">
@@ -16821,7 +16831,7 @@
         <v>2842</v>
       </c>
       <c r="V373" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="374" spans="1:22" x14ac:dyDescent="0.25">
@@ -16848,7 +16858,7 @@
         <v>2838</v>
       </c>
       <c r="V374" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="375" spans="1:22" x14ac:dyDescent="0.25">
@@ -16875,7 +16885,7 @@
         <v>2831</v>
       </c>
       <c r="V375" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="376" spans="1:22" x14ac:dyDescent="0.25">
@@ -16902,7 +16912,7 @@
         <v>2827</v>
       </c>
       <c r="V376" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="377" spans="1:22" x14ac:dyDescent="0.25">
@@ -16953,7 +16963,7 @@
         <v>2825</v>
       </c>
       <c r="V378" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="379" spans="1:22" x14ac:dyDescent="0.25">
@@ -16980,7 +16990,7 @@
         <v>2825</v>
       </c>
       <c r="V379" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="380" spans="1:22" x14ac:dyDescent="0.25">
@@ -17007,7 +17017,7 @@
         <v>2824</v>
       </c>
       <c r="V380" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="381" spans="1:22" x14ac:dyDescent="0.25">
@@ -17038,7 +17048,7 @@
         <v>1135</v>
       </c>
       <c r="V381" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="382" spans="1:22" x14ac:dyDescent="0.25">
@@ -17065,7 +17075,7 @@
         <v>2818</v>
       </c>
       <c r="V382" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="383" spans="1:22" x14ac:dyDescent="0.25">
@@ -17082,7 +17092,7 @@
         <v>77.010000000000005</v>
       </c>
       <c r="M383" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N383" s="48"/>
       <c r="O383" s="10">
@@ -17100,7 +17110,7 @@
       </c>
       <c r="U383" s="40"/>
       <c r="V383" s="21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="384" spans="1:22" x14ac:dyDescent="0.25">
@@ -17117,7 +17127,7 @@
         <v>78.8</v>
       </c>
       <c r="M384" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N384" s="48"/>
       <c r="O384" s="10">
@@ -17127,7 +17137,7 @@
         <v>2809</v>
       </c>
       <c r="V384" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="385" spans="1:22" x14ac:dyDescent="0.25">
@@ -17144,7 +17154,7 @@
         <v>86</v>
       </c>
       <c r="M385" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N385" s="48"/>
       <c r="O385" s="10">
@@ -17154,7 +17164,7 @@
         <v>2809</v>
       </c>
       <c r="V385" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="386" spans="1:22" x14ac:dyDescent="0.25">
@@ -17171,7 +17181,7 @@
         <v>83.6</v>
       </c>
       <c r="M386" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N386" s="48"/>
       <c r="O386" s="10">
@@ -17185,7 +17195,7 @@
         <v>940</v>
       </c>
       <c r="V386" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="387" spans="1:22" x14ac:dyDescent="0.25">
@@ -17202,7 +17212,7 @@
         <v>85.4</v>
       </c>
       <c r="M387" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N387" s="48"/>
       <c r="O387" s="10">
@@ -17216,7 +17226,7 @@
         <v>895</v>
       </c>
       <c r="V387" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="388" spans="1:22" x14ac:dyDescent="0.25">
@@ -17233,7 +17243,7 @@
         <v>89.4</v>
       </c>
       <c r="M388" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N388" s="48"/>
       <c r="O388" s="10">
@@ -17243,7 +17253,7 @@
         <v>2810</v>
       </c>
       <c r="V388" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="389" spans="1:22" x14ac:dyDescent="0.25">
@@ -17260,7 +17270,7 @@
         <v>88.5</v>
       </c>
       <c r="M389" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N389" s="48"/>
       <c r="O389" s="10">
@@ -17275,7 +17285,7 @@
       <c r="T389" s="46"/>
       <c r="U389" s="45"/>
       <c r="V389" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="390" spans="1:22" x14ac:dyDescent="0.25">
@@ -17292,7 +17302,7 @@
         <v>91.7</v>
       </c>
       <c r="M390" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N390" s="48"/>
       <c r="O390" s="10">
@@ -17307,7 +17317,7 @@
       <c r="T390" s="36"/>
       <c r="U390" s="40"/>
       <c r="V390" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="391" spans="1:22" x14ac:dyDescent="0.25">
@@ -17324,7 +17334,7 @@
         <v>92.5</v>
       </c>
       <c r="M391" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N391" s="48"/>
       <c r="O391" s="10">
@@ -17334,7 +17344,7 @@
         <v>2810</v>
       </c>
       <c r="V391" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="392" spans="1:22" x14ac:dyDescent="0.25">
@@ -17351,7 +17361,7 @@
         <v>84.5</v>
       </c>
       <c r="M392" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N392" s="48"/>
       <c r="O392" s="10">
@@ -17361,7 +17371,7 @@
         <v>2812</v>
       </c>
       <c r="V392" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="393" spans="1:22" x14ac:dyDescent="0.25">
@@ -17378,7 +17388,7 @@
         <v>91.7</v>
       </c>
       <c r="M393" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N393" s="48"/>
       <c r="O393" s="10">
@@ -17388,7 +17398,7 @@
         <v>2812</v>
       </c>
       <c r="V393" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="394" spans="1:22" x14ac:dyDescent="0.25">
@@ -17405,7 +17415,7 @@
         <v>90.4</v>
       </c>
       <c r="M394" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N394" s="48"/>
       <c r="O394" s="10">
@@ -17429,7 +17439,7 @@
         <v>91.1</v>
       </c>
       <c r="M395" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N395" s="48"/>
       <c r="O395" s="10">
@@ -17439,7 +17449,7 @@
         <v>2812</v>
       </c>
       <c r="V395" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="396" spans="1:22" x14ac:dyDescent="0.25">
@@ -17465,7 +17475,7 @@
         <v>2813</v>
       </c>
       <c r="V396" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="397" spans="1:22" x14ac:dyDescent="0.25">
@@ -17482,7 +17492,7 @@
         <v>84.8</v>
       </c>
       <c r="M397" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N397" s="48"/>
       <c r="O397" s="10">
@@ -17492,7 +17502,7 @@
         <v>2813</v>
       </c>
       <c r="V397" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="398" spans="1:22" x14ac:dyDescent="0.25">
@@ -17509,7 +17519,7 @@
         <v>88.6</v>
       </c>
       <c r="M398" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N398" s="48"/>
       <c r="O398" s="10">
@@ -17522,7 +17532,7 @@
         <v>470</v>
       </c>
       <c r="V398" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="399" spans="1:22" x14ac:dyDescent="0.25">
@@ -17539,7 +17549,7 @@
         <v>90.2</v>
       </c>
       <c r="M399" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N399" s="48"/>
       <c r="O399" s="10">
@@ -17549,7 +17559,7 @@
         <v>2814</v>
       </c>
       <c r="V399" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="400" spans="1:22" x14ac:dyDescent="0.25">
@@ -17566,7 +17576,7 @@
         <v>88.4</v>
       </c>
       <c r="M400" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N400" s="48"/>
       <c r="O400" s="10">
@@ -17576,7 +17586,7 @@
         <v>2812</v>
       </c>
       <c r="V400" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="401" spans="1:22" x14ac:dyDescent="0.25">
@@ -17593,7 +17603,7 @@
         <v>93.1</v>
       </c>
       <c r="M401" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N401" s="48"/>
       <c r="O401" s="10">
@@ -17607,7 +17617,7 @@
         <v>415</v>
       </c>
       <c r="V401" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="402" spans="1:22" x14ac:dyDescent="0.25">
@@ -17624,7 +17634,7 @@
         <v>91.3</v>
       </c>
       <c r="M402" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N402" s="48"/>
       <c r="O402" s="10">
@@ -17634,7 +17644,7 @@
         <v>2812</v>
       </c>
       <c r="V402" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="403" spans="1:22" x14ac:dyDescent="0.25">
@@ -17651,7 +17661,7 @@
         <v>93.6</v>
       </c>
       <c r="M403" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N403" s="48"/>
       <c r="O403" s="10">
@@ -17661,7 +17671,7 @@
         <v>2812</v>
       </c>
       <c r="V403" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="404" spans="1:22" x14ac:dyDescent="0.25">
@@ -17678,7 +17688,7 @@
         <v>83.8</v>
       </c>
       <c r="M404" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N404" s="48"/>
       <c r="O404" s="10">
@@ -17688,7 +17698,7 @@
         <v>2812</v>
       </c>
       <c r="V404" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="405" spans="1:22" x14ac:dyDescent="0.25">
@@ -17705,7 +17715,7 @@
         <v>83.2</v>
       </c>
       <c r="M405" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N405" s="48"/>
       <c r="O405" s="10">
@@ -17723,7 +17733,7 @@
         <v>2</v>
       </c>
       <c r="V406" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="407" spans="1:22" x14ac:dyDescent="0.25">
@@ -17740,7 +17750,7 @@
         <v>88.5</v>
       </c>
       <c r="M407" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N407" s="48"/>
       <c r="O407" s="10">
@@ -17754,7 +17764,7 @@
         <v>313</v>
       </c>
       <c r="V407" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="408" spans="1:22" x14ac:dyDescent="0.25">
@@ -17771,7 +17781,7 @@
         <v>91.2</v>
       </c>
       <c r="M408" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N408" s="48"/>
       <c r="O408" s="10">
@@ -17781,7 +17791,7 @@
         <v>2812</v>
       </c>
       <c r="V408" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="409" spans="1:22" x14ac:dyDescent="0.25">
@@ -17798,7 +17808,7 @@
         <v>84.1</v>
       </c>
       <c r="M409" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N409" s="48"/>
       <c r="O409" s="10">
@@ -17808,7 +17818,7 @@
         <v>2814</v>
       </c>
       <c r="V409" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="410" spans="1:22" x14ac:dyDescent="0.25">
@@ -17825,7 +17835,7 @@
         <v>88.6</v>
       </c>
       <c r="M410" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N410" s="48"/>
       <c r="O410" s="10">
@@ -17849,7 +17859,7 @@
         <v>94.3</v>
       </c>
       <c r="M411" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N411" s="48"/>
       <c r="O411" s="10">
@@ -17859,7 +17869,7 @@
         <v>2812</v>
       </c>
       <c r="V411" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="412" spans="1:22" x14ac:dyDescent="0.25">
@@ -17876,7 +17886,7 @@
         <v>86.7</v>
       </c>
       <c r="M412" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N412" s="48"/>
       <c r="O412" s="10">
@@ -17900,7 +17910,7 @@
         <v>94.1</v>
       </c>
       <c r="M413" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N413" s="48"/>
       <c r="O413" s="10">
@@ -17910,7 +17920,7 @@
         <v>2813</v>
       </c>
       <c r="V413" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="414" spans="1:22" x14ac:dyDescent="0.25">
@@ -17927,7 +17937,7 @@
         <v>88.8</v>
       </c>
       <c r="M414" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N414" s="48"/>
       <c r="O414" s="10">
@@ -17937,7 +17947,7 @@
         <v>2812</v>
       </c>
       <c r="V414" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="415" spans="1:22" x14ac:dyDescent="0.25">
@@ -17954,7 +17964,7 @@
         <v>90.2</v>
       </c>
       <c r="M415" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N415" s="48"/>
       <c r="O415" s="10">
@@ -17964,7 +17974,7 @@
         <v>2811</v>
       </c>
       <c r="V415" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="416" spans="1:22" x14ac:dyDescent="0.25">
@@ -17975,11 +17985,11 @@
         <v>1.75</v>
       </c>
       <c r="M416" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N416" s="48"/>
       <c r="V416" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="417" spans="1:22" x14ac:dyDescent="0.25">
@@ -17996,7 +18006,7 @@
         <v>83.6</v>
       </c>
       <c r="M417" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N417" s="48"/>
       <c r="O417" s="10">
@@ -18006,7 +18016,7 @@
         <v>2811</v>
       </c>
       <c r="V417" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="418" spans="1:22" x14ac:dyDescent="0.25">
@@ -18023,7 +18033,7 @@
         <v>90.1</v>
       </c>
       <c r="M418" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N418" s="48"/>
       <c r="O418" s="10">
@@ -18033,7 +18043,7 @@
         <v>2811</v>
       </c>
       <c r="V418" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="419" spans="1:22" x14ac:dyDescent="0.25">
@@ -18050,7 +18060,7 @@
         <v>89.8</v>
       </c>
       <c r="M419" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N419" s="48"/>
       <c r="O419" s="10">
@@ -18060,7 +18070,7 @@
         <v>2812</v>
       </c>
       <c r="V419" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="420" spans="1:22" x14ac:dyDescent="0.25">
@@ -18077,11 +18087,11 @@
         <v>87.7</v>
       </c>
       <c r="M420" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N420" s="48"/>
       <c r="V420" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="421" spans="1:22" x14ac:dyDescent="0.25">
@@ -18098,7 +18108,7 @@
         <v>91</v>
       </c>
       <c r="M421" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N421" s="48"/>
       <c r="O421" s="10">
@@ -18108,7 +18118,7 @@
         <v>2813</v>
       </c>
       <c r="V421" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="422" spans="1:22" x14ac:dyDescent="0.25">
@@ -18125,7 +18135,7 @@
         <v>95.2</v>
       </c>
       <c r="M422" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N422" s="48"/>
       <c r="O422" s="10">
@@ -18135,7 +18145,7 @@
         <v>2814</v>
       </c>
       <c r="V422" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="423" spans="1:22" x14ac:dyDescent="0.25">
@@ -18152,7 +18162,7 @@
         <v>88.3</v>
       </c>
       <c r="M423" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N423" s="48"/>
       <c r="O423" s="10">
@@ -18165,7 +18175,7 @@
         <v>285</v>
       </c>
       <c r="V423" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="424" spans="1:22" x14ac:dyDescent="0.25">
@@ -18182,7 +18192,7 @@
         <v>89.7</v>
       </c>
       <c r="M424" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N424" s="48"/>
       <c r="O424" s="10">
@@ -18192,7 +18202,7 @@
         <v>2817</v>
       </c>
       <c r="V424" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="425" spans="1:22" x14ac:dyDescent="0.25">
@@ -18209,7 +18219,7 @@
         <v>91.6</v>
       </c>
       <c r="M425" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N425" s="48"/>
       <c r="O425" s="10">
@@ -18219,7 +18229,7 @@
         <v>2818</v>
       </c>
       <c r="V425" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="426" spans="1:22" x14ac:dyDescent="0.25">
@@ -18236,7 +18246,7 @@
         <v>88.8</v>
       </c>
       <c r="M426" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N426" s="48"/>
       <c r="O426" s="10">
@@ -18260,7 +18270,7 @@
         <v>85.6</v>
       </c>
       <c r="M427" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N427" s="48"/>
       <c r="O427" s="10">
@@ -18270,7 +18280,7 @@
         <v>2816</v>
       </c>
       <c r="V427" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="428" spans="1:22" x14ac:dyDescent="0.25">
@@ -18287,7 +18297,7 @@
         <v>88.9</v>
       </c>
       <c r="M428" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N428" s="48"/>
       <c r="O428" s="10">
@@ -18311,7 +18321,7 @@
         <v>95.6</v>
       </c>
       <c r="M429" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N429" s="48"/>
       <c r="O429" s="10">
@@ -18321,7 +18331,7 @@
         <v>2816</v>
       </c>
       <c r="V429" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="430" spans="1:22" x14ac:dyDescent="0.25">
@@ -18338,7 +18348,7 @@
         <v>91.7</v>
       </c>
       <c r="M430" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N430" s="48"/>
       <c r="O430" s="10">
@@ -18351,7 +18361,7 @@
         <v>260</v>
       </c>
       <c r="V430" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="431" spans="1:22" x14ac:dyDescent="0.25">
@@ -18368,7 +18378,7 @@
         <v>93.7</v>
       </c>
       <c r="M431" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N431" s="48"/>
       <c r="O431" s="10">
@@ -18381,7 +18391,7 @@
         <v>262</v>
       </c>
       <c r="V431" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="432" spans="1:22" x14ac:dyDescent="0.25">
@@ -18398,7 +18408,7 @@
         <v>88.9</v>
       </c>
       <c r="M432" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N432" s="48"/>
       <c r="O432" s="10">
@@ -18411,7 +18421,7 @@
         <v>258</v>
       </c>
       <c r="V432" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="433" spans="1:22" x14ac:dyDescent="0.25">
@@ -18428,7 +18438,7 @@
         <v>90.7</v>
       </c>
       <c r="M433" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N433" s="48"/>
       <c r="O433" s="10">
@@ -18438,7 +18448,7 @@
         <v>2816</v>
       </c>
       <c r="V433" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="434" spans="1:22" x14ac:dyDescent="0.25">
@@ -18455,7 +18465,7 @@
         <v>87</v>
       </c>
       <c r="M434" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N434" s="48"/>
       <c r="O434" s="10">
@@ -18479,7 +18489,7 @@
         <v>89.3</v>
       </c>
       <c r="M435" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N435" s="48"/>
       <c r="O435" s="10">
@@ -18489,7 +18499,7 @@
         <v>2814</v>
       </c>
       <c r="V435" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="436" spans="1:22" x14ac:dyDescent="0.25">
@@ -18506,7 +18516,7 @@
         <v>94.9</v>
       </c>
       <c r="M436" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N436" s="48"/>
       <c r="O436" s="10">
@@ -18519,7 +18529,7 @@
         <v>250</v>
       </c>
       <c r="V436" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="437" spans="1:22" x14ac:dyDescent="0.25">
@@ -18536,7 +18546,7 @@
         <v>91.7</v>
       </c>
       <c r="M437" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N437" s="48"/>
       <c r="O437" s="10">
@@ -18546,7 +18556,7 @@
         <v>2812</v>
       </c>
       <c r="V437" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="438" spans="1:22" x14ac:dyDescent="0.25">
@@ -18563,7 +18573,7 @@
         <v>90.7</v>
       </c>
       <c r="M438" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N438" s="48"/>
       <c r="O438" s="10">
@@ -18573,7 +18583,7 @@
         <v>2811</v>
       </c>
       <c r="V438" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="439" spans="1:22" x14ac:dyDescent="0.25">
@@ -18590,7 +18600,7 @@
         <v>85.7</v>
       </c>
       <c r="M439" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N439" s="48"/>
       <c r="O439" s="10">
@@ -18603,7 +18613,7 @@
         <v>230</v>
       </c>
       <c r="V439" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="440" spans="1:22" x14ac:dyDescent="0.25">
@@ -18620,7 +18630,7 @@
         <v>86.3</v>
       </c>
       <c r="M440" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N440" s="48"/>
       <c r="O440" s="10">
@@ -18630,7 +18640,7 @@
         <v>2810</v>
       </c>
       <c r="V440" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="441" spans="1:22" x14ac:dyDescent="0.25">
@@ -18647,7 +18657,7 @@
         <v>92.5</v>
       </c>
       <c r="M441" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N441" s="48"/>
       <c r="O441" s="10">
@@ -18660,7 +18670,7 @@
         <v>223</v>
       </c>
       <c r="V441" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="442" spans="1:22" x14ac:dyDescent="0.25">
@@ -18677,7 +18687,7 @@
         <v>96.2</v>
       </c>
       <c r="M442" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N442" s="48"/>
       <c r="O442" s="10">
@@ -18690,7 +18700,7 @@
         <v>217</v>
       </c>
       <c r="V442" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="443" spans="1:22" x14ac:dyDescent="0.25">
@@ -18707,7 +18717,7 @@
         <v>93</v>
       </c>
       <c r="M443" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N443" s="48"/>
       <c r="O443" s="10">
@@ -18724,7 +18734,7 @@
       </c>
       <c r="U443" s="40"/>
       <c r="V443" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="444" spans="1:22" x14ac:dyDescent="0.25">
@@ -18741,7 +18751,7 @@
         <v>93.5</v>
       </c>
       <c r="M444" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N444" s="48"/>
       <c r="O444" s="10">
@@ -18758,7 +18768,7 @@
       </c>
       <c r="U444" s="40"/>
       <c r="V444" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="445" spans="1:22" x14ac:dyDescent="0.25">
@@ -18775,7 +18785,7 @@
         <v>93.8</v>
       </c>
       <c r="M445" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N445" s="48"/>
       <c r="O445" s="10">
@@ -18788,7 +18798,7 @@
         <v>200</v>
       </c>
       <c r="V445" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="446" spans="1:22" x14ac:dyDescent="0.25">
@@ -18805,7 +18815,7 @@
         <v>95.4</v>
       </c>
       <c r="M446" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N446" s="48"/>
       <c r="O446" s="10">
@@ -18818,7 +18828,7 @@
         <v>191</v>
       </c>
       <c r="V446" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="447" spans="1:22" x14ac:dyDescent="0.25">
@@ -18835,7 +18845,7 @@
         <v>97.4</v>
       </c>
       <c r="M447" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N447" s="48"/>
       <c r="O447" s="10">
@@ -18852,7 +18862,7 @@
       </c>
       <c r="U447" s="40"/>
       <c r="V447" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="448" spans="1:22" x14ac:dyDescent="0.25">
@@ -18869,7 +18879,7 @@
         <v>94</v>
       </c>
       <c r="M448" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N448" s="48"/>
       <c r="O448" s="10">
@@ -18879,7 +18889,7 @@
         <v>2807</v>
       </c>
       <c r="V448" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="449" spans="1:22" x14ac:dyDescent="0.25">
@@ -18896,7 +18906,7 @@
         <v>98.4</v>
       </c>
       <c r="M449" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N449" s="48"/>
       <c r="O449" s="10">
@@ -18909,7 +18919,7 @@
         <v>171</v>
       </c>
       <c r="V449" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="450" spans="1:22" x14ac:dyDescent="0.25">
@@ -18926,7 +18936,7 @@
         <v>87.7</v>
       </c>
       <c r="M450" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N450" s="48"/>
       <c r="O450" s="10">
@@ -18936,7 +18946,7 @@
         <v>2807</v>
       </c>
       <c r="V450" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="451" spans="1:22" x14ac:dyDescent="0.25">
@@ -18953,7 +18963,7 @@
         <v>95</v>
       </c>
       <c r="M451" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N451" s="48"/>
       <c r="O451" s="10">
@@ -18963,7 +18973,7 @@
         <v>2809</v>
       </c>
       <c r="V451" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="452" spans="1:22" x14ac:dyDescent="0.25">
@@ -18980,7 +18990,7 @@
         <v>90.5</v>
       </c>
       <c r="M452" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N452" s="48"/>
       <c r="O452" s="10">
@@ -19004,7 +19014,7 @@
         <v>94</v>
       </c>
       <c r="M453" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N453" s="48"/>
       <c r="O453" s="10">
@@ -19017,7 +19027,7 @@
         <v>153</v>
       </c>
       <c r="V453" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="454" spans="1:22" x14ac:dyDescent="0.25">
@@ -19034,7 +19044,7 @@
         <v>94.2</v>
       </c>
       <c r="M454" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N454" s="48"/>
       <c r="O454" s="10">
@@ -19044,7 +19054,7 @@
         <v>2809</v>
       </c>
       <c r="V454" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="455" spans="1:22" x14ac:dyDescent="0.25">
@@ -19061,7 +19071,7 @@
         <v>88.4</v>
       </c>
       <c r="M455" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N455" s="48"/>
       <c r="O455" s="10">
@@ -19074,7 +19084,7 @@
         <v>147</v>
       </c>
       <c r="V455" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="456" spans="1:22" x14ac:dyDescent="0.25">
@@ -19091,7 +19101,7 @@
         <v>95.4</v>
       </c>
       <c r="M456" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N456" s="48"/>
       <c r="O456" s="10">
@@ -19105,7 +19115,7 @@
       </c>
       <c r="U456" s="40"/>
       <c r="V456" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="457" spans="1:22" x14ac:dyDescent="0.25">
@@ -19122,7 +19132,7 @@
         <v>90.5</v>
       </c>
       <c r="M457" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N457" s="48"/>
       <c r="O457" s="10">
@@ -19135,7 +19145,7 @@
         <v>151</v>
       </c>
       <c r="V457" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="458" spans="1:22" x14ac:dyDescent="0.25">
@@ -19152,7 +19162,7 @@
         <v>100</v>
       </c>
       <c r="M458" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N458" s="48"/>
       <c r="O458" s="10">
@@ -19168,7 +19178,7 @@
         <v>161</v>
       </c>
       <c r="V458" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="459" spans="1:22" x14ac:dyDescent="0.25">
@@ -19185,7 +19195,7 @@
         <v>87.1</v>
       </c>
       <c r="M459" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N459" s="48"/>
       <c r="O459" s="10">
@@ -19201,7 +19211,7 @@
         <v>165</v>
       </c>
       <c r="V459" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="460" spans="1:22" x14ac:dyDescent="0.25">
@@ -19224,7 +19234,7 @@
         <v>211</v>
       </c>
       <c r="V460" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="461" spans="1:22" x14ac:dyDescent="0.25">
@@ -19244,7 +19254,7 @@
         <v>26</v>
       </c>
       <c r="V461" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="462" spans="1:22" x14ac:dyDescent="0.25">
@@ -19267,7 +19277,7 @@
         <v>273</v>
       </c>
       <c r="V462" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="463" spans="1:22" x14ac:dyDescent="0.25">
@@ -19284,7 +19294,7 @@
         <v>79.400000000000006</v>
       </c>
       <c r="M463" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N463" s="48"/>
       <c r="O463" s="10">
@@ -19297,7 +19307,7 @@
         <v>21</v>
       </c>
       <c r="V463" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="464" spans="1:22" x14ac:dyDescent="0.25">
@@ -19314,7 +19324,7 @@
         <v>86.8</v>
       </c>
       <c r="M464" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N464" s="48"/>
       <c r="O464" s="10">
@@ -19327,7 +19337,7 @@
         <v>21</v>
       </c>
       <c r="V464" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="465" spans="1:22" x14ac:dyDescent="0.25">
@@ -19344,7 +19354,7 @@
         <v>84.3</v>
       </c>
       <c r="M465" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N465" s="48"/>
       <c r="O465" s="10">
@@ -19360,7 +19370,7 @@
         <v>275</v>
       </c>
       <c r="V465" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="466" spans="1:22" x14ac:dyDescent="0.25">
@@ -19377,7 +19387,7 @@
         <v>87.2</v>
       </c>
       <c r="M466" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N466" s="48"/>
       <c r="O466" s="10">
@@ -19393,7 +19403,7 @@
         <v>269</v>
       </c>
       <c r="V466" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="467" spans="1:22" x14ac:dyDescent="0.25">
@@ -19410,7 +19420,7 @@
         <v>90.9</v>
       </c>
       <c r="M467" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N467" s="48"/>
       <c r="O467" s="10">
@@ -19423,7 +19433,7 @@
         <v>21</v>
       </c>
       <c r="V467" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="468" spans="1:22" x14ac:dyDescent="0.25">
@@ -19440,7 +19450,7 @@
         <v>88.5</v>
       </c>
       <c r="M468" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N468" s="48"/>
       <c r="O468" s="10">
@@ -19456,7 +19466,7 @@
         <v>274</v>
       </c>
       <c r="V468" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="469" spans="1:22" x14ac:dyDescent="0.25">
@@ -19473,7 +19483,7 @@
         <v>88.3</v>
       </c>
       <c r="M469" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N469" s="48"/>
       <c r="O469" s="10">
@@ -19489,7 +19499,7 @@
         <v>272</v>
       </c>
       <c r="V469" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="470" spans="1:22" x14ac:dyDescent="0.25">
@@ -19506,7 +19516,7 @@
         <v>94.3</v>
       </c>
       <c r="M470" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N470" s="48"/>
       <c r="O470" s="10">
@@ -19519,7 +19529,7 @@
         <v>13</v>
       </c>
       <c r="V470" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="471" spans="1:22" x14ac:dyDescent="0.25">
@@ -19536,7 +19546,7 @@
         <v>86.2</v>
       </c>
       <c r="M471" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N471" s="48"/>
       <c r="O471" s="10">
@@ -19552,7 +19562,7 @@
         <v>275</v>
       </c>
       <c r="V471" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="472" spans="1:22" x14ac:dyDescent="0.25">
@@ -19569,7 +19579,7 @@
         <v>92.1</v>
       </c>
       <c r="M472" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N472" s="48"/>
       <c r="O472" s="10">
@@ -19585,7 +19595,7 @@
         <v>276</v>
       </c>
       <c r="V472" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="473" spans="1:22" x14ac:dyDescent="0.25">
@@ -19602,7 +19612,7 @@
         <v>96.9</v>
       </c>
       <c r="M473" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N473" s="48"/>
       <c r="O473" s="10">
@@ -19618,7 +19628,7 @@
         <v>271</v>
       </c>
       <c r="V473" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="474" spans="1:22" x14ac:dyDescent="0.25">
@@ -19635,7 +19645,7 @@
         <v>100</v>
       </c>
       <c r="M474" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N474" s="48"/>
       <c r="O474" s="10">
@@ -19651,7 +19661,7 @@
         <v>269</v>
       </c>
       <c r="V474" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="475" spans="1:22" x14ac:dyDescent="0.25">
@@ -19668,7 +19678,7 @@
         <v>98.4</v>
       </c>
       <c r="M475" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N475" s="48"/>
       <c r="O475" s="10">
@@ -19684,7 +19694,7 @@
         <v>254</v>
       </c>
       <c r="V475" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="476" spans="1:22" x14ac:dyDescent="0.25">
@@ -19701,7 +19711,7 @@
         <v>96.1</v>
       </c>
       <c r="M476" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N476" s="48"/>
       <c r="O476" s="10">
@@ -19717,7 +19727,7 @@
         <v>233</v>
       </c>
       <c r="V476" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="477" spans="1:22" x14ac:dyDescent="0.25">
@@ -19734,7 +19744,7 @@
         <v>83.5</v>
       </c>
       <c r="M477" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N477" s="48"/>
       <c r="O477" s="10">
@@ -19750,7 +19760,7 @@
         <v>232</v>
       </c>
       <c r="V477" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="478" spans="1:22" x14ac:dyDescent="0.25">
@@ -19767,7 +19777,7 @@
         <v>89.6</v>
       </c>
       <c r="M478" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N478" s="48"/>
       <c r="O478" s="10">
@@ -19783,7 +19793,7 @@
         <v>223</v>
       </c>
       <c r="V478" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="479" spans="1:22" x14ac:dyDescent="0.25">
@@ -19800,7 +19810,7 @@
         <v>91.8</v>
       </c>
       <c r="M479" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N479" s="48"/>
       <c r="O479" s="10">
@@ -19816,7 +19826,7 @@
         <v>224</v>
       </c>
       <c r="V479" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="480" spans="1:22" x14ac:dyDescent="0.25">
@@ -19833,7 +19843,7 @@
         <v>89.9</v>
       </c>
       <c r="M480" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N480" s="48"/>
       <c r="O480" s="10">
@@ -19849,7 +19859,7 @@
         <v>225</v>
       </c>
       <c r="V480" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="481" spans="1:22" x14ac:dyDescent="0.25">
@@ -19866,7 +19876,7 @@
         <v>86.2</v>
       </c>
       <c r="M481" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N481" s="48"/>
       <c r="O481" s="10">
@@ -19882,7 +19892,7 @@
         <v>261</v>
       </c>
       <c r="V481" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="482" spans="1:22" x14ac:dyDescent="0.25">
@@ -19899,7 +19909,7 @@
         <v>91.5</v>
       </c>
       <c r="M482" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N482" s="48"/>
       <c r="O482" s="10">
@@ -19915,7 +19925,7 @@
         <v>182</v>
       </c>
       <c r="V482" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="483" spans="1:22" x14ac:dyDescent="0.25">
@@ -19932,7 +19942,7 @@
         <v>93.9</v>
       </c>
       <c r="M483" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N483" s="48"/>
       <c r="O483" s="10">
@@ -19948,7 +19958,7 @@
         <v>170</v>
       </c>
       <c r="V483" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="484" spans="1:22" x14ac:dyDescent="0.25">
@@ -19965,7 +19975,7 @@
         <v>96.9</v>
       </c>
       <c r="M484" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N484" s="48"/>
       <c r="O484" s="10">
@@ -19981,7 +19991,7 @@
         <v>161</v>
       </c>
       <c r="V484" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="485" spans="1:22" x14ac:dyDescent="0.25">
@@ -19998,7 +20008,7 @@
         <v>92.5</v>
       </c>
       <c r="M485" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N485" s="48"/>
       <c r="O485" s="10">
@@ -20014,7 +20024,7 @@
         <v>153</v>
       </c>
       <c r="V485" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="486" spans="1:22" x14ac:dyDescent="0.25">
@@ -20031,7 +20041,7 @@
         <v>95.9</v>
       </c>
       <c r="M486" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N486" s="48"/>
       <c r="O486" s="10">
@@ -20047,7 +20057,7 @@
         <v>148</v>
       </c>
       <c r="V486" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="487" spans="1:22" x14ac:dyDescent="0.25">
@@ -20064,7 +20074,7 @@
         <v>96.7</v>
       </c>
       <c r="M487" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N487" s="48"/>
       <c r="O487" s="10">
@@ -20081,7 +20091,7 @@
       </c>
       <c r="U487" s="40"/>
       <c r="V487" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="488" spans="1:22" x14ac:dyDescent="0.25">
@@ -20098,7 +20108,7 @@
         <v>91.9</v>
       </c>
       <c r="M488" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N488" s="48"/>
       <c r="O488" s="10">
@@ -20114,7 +20124,7 @@
         <v>155</v>
       </c>
       <c r="V488" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="489" spans="1:22" x14ac:dyDescent="0.25">
@@ -20131,7 +20141,7 @@
         <v>96.6</v>
       </c>
       <c r="M489" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N489" s="48"/>
       <c r="O489" s="10">
@@ -20147,7 +20157,7 @@
         <v>155</v>
       </c>
       <c r="V489" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="490" spans="1:22" x14ac:dyDescent="0.25">
@@ -20164,7 +20174,7 @@
         <v>96.4</v>
       </c>
       <c r="M490" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N490" s="48"/>
       <c r="O490" s="10">
@@ -20180,7 +20190,7 @@
         <v>160</v>
       </c>
       <c r="V490" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="491" spans="1:22" x14ac:dyDescent="0.25">
@@ -20197,7 +20207,7 @@
         <v>96</v>
       </c>
       <c r="M491" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N491" s="48"/>
       <c r="O491" s="10">
@@ -20213,7 +20223,7 @@
         <v>161</v>
       </c>
       <c r="V491" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="492" spans="1:22" x14ac:dyDescent="0.25">
@@ -20230,7 +20240,7 @@
         <v>96.6</v>
       </c>
       <c r="M492" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N492" s="48"/>
       <c r="O492" s="10">
@@ -20246,7 +20256,7 @@
         <v>164</v>
       </c>
       <c r="V492" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="493" spans="1:22" x14ac:dyDescent="0.25">
@@ -20263,7 +20273,7 @@
         <v>91.2</v>
       </c>
       <c r="M493" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N493" s="48"/>
       <c r="O493" s="10">
@@ -20279,7 +20289,7 @@
         <v>162</v>
       </c>
       <c r="V493" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="494" spans="1:22" x14ac:dyDescent="0.25">
@@ -20297,7 +20307,7 @@
         <v>98</v>
       </c>
       <c r="M494" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N494" s="48"/>
       <c r="O494" s="10">
@@ -20313,7 +20323,7 @@
         <v>161</v>
       </c>
       <c r="V494" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="495" spans="1:22" x14ac:dyDescent="0.25">
@@ -20330,7 +20340,7 @@
         <v>86.2</v>
       </c>
       <c r="M495" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N495" s="48"/>
       <c r="O495" s="10">
@@ -20346,7 +20356,7 @@
         <v>166</v>
       </c>
       <c r="V495" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="496" spans="1:22" x14ac:dyDescent="0.25">
@@ -20363,7 +20373,7 @@
         <v>93.6</v>
       </c>
       <c r="M496" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N496" s="48"/>
       <c r="O496" s="10">
@@ -20379,7 +20389,7 @@
         <v>165</v>
       </c>
       <c r="V496" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="497" spans="1:22" x14ac:dyDescent="0.25">
@@ -20396,7 +20406,7 @@
         <v>98.2</v>
       </c>
       <c r="M497" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N497" s="48"/>
       <c r="O497" s="10">
@@ -20412,7 +20422,7 @@
         <v>164</v>
       </c>
       <c r="V497" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="498" spans="1:22" x14ac:dyDescent="0.25">
@@ -20430,7 +20440,7 @@
         <v>98</v>
       </c>
       <c r="M498" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N498" s="48"/>
       <c r="O498" s="10">
@@ -20446,7 +20456,7 @@
         <v>152</v>
       </c>
       <c r="V498" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="499" spans="1:22" x14ac:dyDescent="0.25">
@@ -20463,7 +20473,7 @@
         <v>96.1</v>
       </c>
       <c r="M499" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N499" s="48"/>
       <c r="O499" s="10">
@@ -20480,7 +20490,7 @@
       </c>
       <c r="U499" s="40"/>
       <c r="V499" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="500" spans="1:22" x14ac:dyDescent="0.25">
@@ -20498,7 +20508,7 @@
         <v>97.8</v>
       </c>
       <c r="M500" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N500" s="48"/>
       <c r="O500" s="10">
@@ -20515,7 +20525,7 @@
       </c>
       <c r="U500" s="40"/>
       <c r="V500" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="501" spans="1:22" x14ac:dyDescent="0.25">
@@ -20532,7 +20542,7 @@
         <v>98.2</v>
       </c>
       <c r="M501" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N501" s="48"/>
       <c r="O501" s="10">
@@ -20549,7 +20559,7 @@
       </c>
       <c r="U501" s="40"/>
       <c r="V501" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="502" spans="1:22" x14ac:dyDescent="0.25">
@@ -20567,7 +20577,7 @@
         <v>98</v>
       </c>
       <c r="M502" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N502" s="48"/>
       <c r="O502" s="10">
@@ -20584,7 +20594,7 @@
       </c>
       <c r="U502" s="40"/>
       <c r="V502" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="503" spans="1:22" x14ac:dyDescent="0.25">
@@ -20602,7 +20612,7 @@
         <v>97.4</v>
       </c>
       <c r="M503" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N503" s="48"/>
       <c r="O503" s="10">
@@ -20619,7 +20629,7 @@
       </c>
       <c r="U503" s="40"/>
       <c r="V503" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="504" spans="1:22" x14ac:dyDescent="0.25">
@@ -20637,7 +20647,7 @@
         <v>100</v>
       </c>
       <c r="M504" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N504" s="48"/>
       <c r="O504" s="10">
@@ -20654,7 +20664,7 @@
       </c>
       <c r="U504" s="40"/>
       <c r="V504" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="505" spans="1:22" x14ac:dyDescent="0.25">
@@ -20672,7 +20682,7 @@
         <v>86.7</v>
       </c>
       <c r="M505" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N505" s="48"/>
       <c r="O505" s="10">
@@ -20688,7 +20698,7 @@
         <v>111</v>
       </c>
       <c r="V505" s="52" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="506" spans="1:22" x14ac:dyDescent="0.25">
@@ -20706,7 +20716,7 @@
         <v>96.4</v>
       </c>
       <c r="M506" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N506" s="48"/>
       <c r="O506" s="10">
@@ -20723,7 +20733,7 @@
       </c>
       <c r="U506" s="40"/>
       <c r="V506" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="507" spans="1:22" x14ac:dyDescent="0.25">
@@ -20741,7 +20751,7 @@
         <v>93.5</v>
       </c>
       <c r="M507" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N507" s="48"/>
       <c r="O507" s="10">
@@ -20758,7 +20768,7 @@
       </c>
       <c r="U507" s="40"/>
       <c r="V507" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="508" spans="1:22" x14ac:dyDescent="0.25">
@@ -20776,7 +20786,7 @@
         <v>84.1</v>
       </c>
       <c r="M508" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N508" s="48"/>
       <c r="O508" s="10">
@@ -20792,7 +20802,7 @@
         <v>108</v>
       </c>
       <c r="V508" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="509" spans="1:22" x14ac:dyDescent="0.25">
@@ -20812,7 +20822,7 @@
         <v>92.6</v>
       </c>
       <c r="M509" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N509" s="48"/>
       <c r="O509" s="10">
@@ -20831,7 +20841,7 @@
         <v>359</v>
       </c>
       <c r="V509" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="510" spans="1:22" x14ac:dyDescent="0.25">
@@ -20851,7 +20861,7 @@
         <v>100</v>
       </c>
       <c r="M510" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N510" s="48"/>
       <c r="O510" s="10">
@@ -20870,7 +20880,7 @@
         <v>500</v>
       </c>
       <c r="V510" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="511" spans="1:22" x14ac:dyDescent="0.25">
@@ -20893,7 +20903,7 @@
         <v>72.3</v>
       </c>
       <c r="M511" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N511" s="49"/>
       <c r="O511" s="10">
@@ -20912,7 +20922,7 @@
         <v>559</v>
       </c>
       <c r="V511" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="512" spans="1:22" x14ac:dyDescent="0.25">
@@ -20935,7 +20945,7 @@
         <v>58</v>
       </c>
       <c r="M512" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N512" s="49"/>
       <c r="O512" s="10">
@@ -20954,7 +20964,7 @@
         <v>579</v>
       </c>
       <c r="V512" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="513" spans="1:22" x14ac:dyDescent="0.25">
@@ -20977,7 +20987,7 @@
         <v>72</v>
       </c>
       <c r="M513" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O513" s="10">
         <v>3184</v>
@@ -20995,7 +21005,7 @@
         <v>624</v>
       </c>
       <c r="V513" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="514" spans="1:22" x14ac:dyDescent="0.25">
@@ -21018,7 +21028,7 @@
         <v>61.8</v>
       </c>
       <c r="M514" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N514" s="48"/>
       <c r="O514" s="10">
@@ -21057,7 +21067,7 @@
         <v>58.6</v>
       </c>
       <c r="M515" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O515" s="10">
         <v>3184</v>
@@ -21075,7 +21085,7 @@
         <v>777</v>
       </c>
       <c r="V515" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="516" spans="1:22" x14ac:dyDescent="0.25">
@@ -21098,7 +21108,7 @@
         <v>59.6</v>
       </c>
       <c r="M516" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O516" s="10">
         <v>3185</v>
@@ -21113,7 +21123,7 @@
         <v>838</v>
       </c>
       <c r="V516" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="517" spans="1:22" x14ac:dyDescent="0.25">
@@ -21124,7 +21134,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="V517" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="518" spans="1:22" x14ac:dyDescent="0.25">
@@ -21135,7 +21145,7 @@
         <v>10.6</v>
       </c>
       <c r="V518" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="519" spans="1:22" x14ac:dyDescent="0.25">
@@ -21158,7 +21168,7 @@
         <v>78.400000000000006</v>
       </c>
       <c r="M519" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N519" s="47">
         <v>100</v>
@@ -21179,7 +21189,7 @@
         <v>1051</v>
       </c>
       <c r="V519" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="520" spans="1:22" x14ac:dyDescent="0.25">
@@ -21199,7 +21209,7 @@
         <v>2798</v>
       </c>
       <c r="V520" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="521" spans="1:22" x14ac:dyDescent="0.25">
@@ -21219,7 +21229,7 @@
         <v>82.9</v>
       </c>
       <c r="M521" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N521" s="47">
         <v>155</v>
@@ -21237,7 +21247,7 @@
         <v>107</v>
       </c>
       <c r="V521" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="522" spans="1:22" x14ac:dyDescent="0.25">
@@ -21260,7 +21270,7 @@
         <v>62.7</v>
       </c>
       <c r="M522" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N522" s="47">
         <v>252</v>
@@ -21298,7 +21308,7 @@
         <v>61.3</v>
       </c>
       <c r="M523" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N523" s="47">
         <v>322</v>
@@ -21336,7 +21346,7 @@
         <v>48.5</v>
       </c>
       <c r="M524" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N524" s="47">
         <v>405</v>
@@ -21354,7 +21364,7 @@
         <v>106</v>
       </c>
       <c r="V524" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="525" spans="1:22" x14ac:dyDescent="0.25">
@@ -21377,7 +21387,7 @@
         <v>56.8</v>
       </c>
       <c r="M525" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N525" s="47">
         <v>412</v>
@@ -21395,7 +21405,7 @@
         <v>101</v>
       </c>
       <c r="V525" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="526" spans="1:22" x14ac:dyDescent="0.25">
@@ -21418,7 +21428,7 @@
         <v>61.6</v>
       </c>
       <c r="M526" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N526" s="47">
         <v>436</v>
@@ -21440,7 +21450,7 @@
         <v>98</v>
       </c>
       <c r="V526" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="527" spans="1:22" x14ac:dyDescent="0.25">
@@ -21457,7 +21467,7 @@
         <v>95.4</v>
       </c>
       <c r="M527" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O527" s="10">
         <v>3189</v>
@@ -21476,7 +21486,7 @@
         <v>115</v>
       </c>
       <c r="V527" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="528" spans="1:22" x14ac:dyDescent="0.25">
@@ -21497,7 +21507,7 @@
       </c>
       <c r="S528" s="54"/>
       <c r="V528" s="56" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="529" spans="1:22" x14ac:dyDescent="0.25">
@@ -21512,7 +21522,7 @@
       </c>
       <c r="S529" s="54"/>
       <c r="V529" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="530" spans="1:22" x14ac:dyDescent="0.25">
@@ -21533,7 +21543,7 @@
       </c>
       <c r="S530" s="54"/>
       <c r="V530" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="531" spans="1:22" x14ac:dyDescent="0.25">
@@ -21548,7 +21558,7 @@
       </c>
       <c r="S531" s="54"/>
       <c r="V531" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="532" spans="1:22" x14ac:dyDescent="0.25">
@@ -21569,7 +21579,7 @@
       </c>
       <c r="S532" s="54"/>
       <c r="V532" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="533" spans="1:22" x14ac:dyDescent="0.25">
@@ -21587,7 +21597,7 @@
       </c>
       <c r="S533" s="54"/>
       <c r="V533" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="534" spans="1:22" x14ac:dyDescent="0.25">
@@ -21602,7 +21612,7 @@
       </c>
       <c r="S534" s="54"/>
       <c r="V534" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="535" spans="1:22" x14ac:dyDescent="0.25">
@@ -21617,7 +21627,7 @@
       </c>
       <c r="S535" s="54"/>
       <c r="V535" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="536" spans="1:22" x14ac:dyDescent="0.25">
@@ -21632,7 +21642,7 @@
       </c>
       <c r="S536" s="54"/>
       <c r="V536" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="537" spans="1:22" x14ac:dyDescent="0.25">
@@ -21647,7 +21657,7 @@
       </c>
       <c r="S537" s="54"/>
       <c r="V537" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="538" spans="1:22" x14ac:dyDescent="0.25">
@@ -21662,7 +21672,7 @@
       </c>
       <c r="S538" s="54"/>
       <c r="V538" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="539" spans="1:22" x14ac:dyDescent="0.25">
@@ -21683,7 +21693,7 @@
       </c>
       <c r="S539" s="54"/>
       <c r="V539" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="540" spans="1:22" x14ac:dyDescent="0.25">
@@ -21698,7 +21708,7 @@
       </c>
       <c r="S540" s="54"/>
       <c r="V540" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="541" spans="1:22" x14ac:dyDescent="0.25">
@@ -21718,10 +21728,10 @@
         <v>0</v>
       </c>
       <c r="S541" s="54" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V541" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="542" spans="1:22" x14ac:dyDescent="0.25">
@@ -21741,7 +21751,7 @@
         <v>1904</v>
       </c>
       <c r="V542" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="543" spans="1:22" x14ac:dyDescent="0.25">
@@ -21764,7 +21774,7 @@
         <v>1864</v>
       </c>
       <c r="V543" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="544" spans="1:22" x14ac:dyDescent="0.25">
@@ -21796,7 +21806,7 @@
         <v>4201</v>
       </c>
       <c r="V544" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="545" spans="1:25" x14ac:dyDescent="0.25">
@@ -21828,7 +21838,7 @@
         <v>4201</v>
       </c>
       <c r="V545" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="546" spans="1:25" x14ac:dyDescent="0.25">
@@ -21857,7 +21867,7 @@
         <v>4201</v>
       </c>
       <c r="V546" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="547" spans="1:25" x14ac:dyDescent="0.25">
@@ -21889,7 +21899,7 @@
         <v>4201</v>
       </c>
       <c r="V547" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="548" spans="1:25" x14ac:dyDescent="0.25">
@@ -21947,7 +21957,7 @@
         <v>1238</v>
       </c>
       <c r="V549" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="550" spans="1:25" x14ac:dyDescent="0.25">
@@ -21979,7 +21989,7 @@
         <v>4201</v>
       </c>
       <c r="V550" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="551" spans="1:25" x14ac:dyDescent="0.25">
@@ -22011,7 +22021,7 @@
         <v>4136</v>
       </c>
       <c r="V551" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="552" spans="1:25" x14ac:dyDescent="0.25">
@@ -22121,7 +22131,7 @@
         <v>3933</v>
       </c>
       <c r="V555" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="556" spans="1:25" x14ac:dyDescent="0.25">
@@ -22153,7 +22163,7 @@
         <v>3856</v>
       </c>
       <c r="V556" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="557" spans="1:25" x14ac:dyDescent="0.25">
@@ -22185,7 +22195,7 @@
         <v>3778</v>
       </c>
       <c r="V557" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="558" spans="1:25" x14ac:dyDescent="0.25">
@@ -22247,7 +22257,7 @@
         <v>3623</v>
       </c>
       <c r="V559" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="560" spans="1:25" x14ac:dyDescent="0.25">
@@ -22279,7 +22289,7 @@
         <v>3550</v>
       </c>
       <c r="V560" s="57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W560" s="58"/>
       <c r="X560" s="58"/>
@@ -22308,7 +22318,7 @@
         <v>2815</v>
       </c>
       <c r="S561" s="53" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="T561" s="10">
         <v>3490</v>
@@ -22344,7 +22354,7 @@
         <v>3423</v>
       </c>
       <c r="V562" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="563" spans="1:22" x14ac:dyDescent="0.25">
@@ -22405,7 +22415,7 @@
         <v>3354</v>
       </c>
       <c r="V564" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="565" spans="1:22" x14ac:dyDescent="0.25">
@@ -22437,7 +22447,7 @@
         <v>3319</v>
       </c>
       <c r="V565" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="566" spans="1:22" x14ac:dyDescent="0.25">
@@ -22469,7 +22479,7 @@
         <v>3273</v>
       </c>
       <c r="V566" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="567" spans="1:22" x14ac:dyDescent="0.25">
@@ -22501,7 +22511,7 @@
         <v>3227</v>
       </c>
       <c r="V567" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="568" spans="1:22" x14ac:dyDescent="0.25">
@@ -22554,7 +22564,7 @@
         <v>4201</v>
       </c>
       <c r="V569" s="31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="570" spans="1:22" x14ac:dyDescent="0.25">
@@ -22565,7 +22575,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V570" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="571" spans="1:22" x14ac:dyDescent="0.25">
@@ -22585,7 +22595,7 @@
         <v>6.6</v>
       </c>
       <c r="V572" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="573" spans="1:22" x14ac:dyDescent="0.25">
@@ -22596,7 +22606,7 @@
         <v>3</v>
       </c>
       <c r="V573" s="16" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="574" spans="1:22" x14ac:dyDescent="0.25">
@@ -22607,7 +22617,7 @@
         <v>12</v>
       </c>
       <c r="M574" s="36" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O574" s="10">
         <v>3277</v>
@@ -22619,7 +22629,7 @@
         <v>4201</v>
       </c>
       <c r="V574" s="20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="575" spans="1:22" x14ac:dyDescent="0.25">
@@ -22669,7 +22679,7 @@
         <v>4201</v>
       </c>
       <c r="V576" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="577" spans="1:22" x14ac:dyDescent="0.25">
@@ -22711,7 +22721,7 @@
       </c>
       <c r="U577" s="40"/>
       <c r="V577" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="578" spans="1:22" x14ac:dyDescent="0.25">
@@ -22740,7 +22750,7 @@
         <v>4201</v>
       </c>
       <c r="V578" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="579" spans="1:22" x14ac:dyDescent="0.25">
@@ -22769,7 +22779,7 @@
         <v>4201</v>
       </c>
       <c r="V579" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="580" spans="1:22" x14ac:dyDescent="0.25">
@@ -22798,7 +22808,7 @@
         <v>4201</v>
       </c>
       <c r="V580" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="581" spans="1:22" x14ac:dyDescent="0.25">
@@ -22827,7 +22837,7 @@
         <v>4197</v>
       </c>
       <c r="V581" s="16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="582" spans="1:22" x14ac:dyDescent="0.25">
@@ -22856,7 +22866,7 @@
         <v>4177</v>
       </c>
       <c r="V582" s="16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="583" spans="1:22" x14ac:dyDescent="0.25">
@@ -22885,7 +22895,7 @@
         <v>3957</v>
       </c>
       <c r="V583" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="584" spans="1:22" x14ac:dyDescent="0.25">
@@ -22914,7 +22924,7 @@
         <v>3525</v>
       </c>
       <c r="V584" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="585" spans="1:22" x14ac:dyDescent="0.25">
@@ -22943,7 +22953,7 @@
         <v>3502</v>
       </c>
       <c r="V585" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="586" spans="1:22" x14ac:dyDescent="0.25">
@@ -22972,7 +22982,7 @@
         <v>3457</v>
       </c>
       <c r="V586" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="587" spans="1:22" x14ac:dyDescent="0.25">
@@ -23001,7 +23011,7 @@
         <v>3352</v>
       </c>
       <c r="V587" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="588" spans="1:22" x14ac:dyDescent="0.25">
@@ -23030,7 +23040,7 @@
         <v>3238</v>
       </c>
       <c r="V588" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="589" spans="1:22" x14ac:dyDescent="0.25">
@@ -23059,7 +23069,7 @@
         <v>3201</v>
       </c>
       <c r="V589" s="16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="590" spans="1:22" x14ac:dyDescent="0.25">
@@ -23088,7 +23098,7 @@
         <v>3035</v>
       </c>
       <c r="V590" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="591" spans="1:22" x14ac:dyDescent="0.25">
@@ -23117,7 +23127,7 @@
         <v>2895</v>
       </c>
       <c r="V591" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="592" spans="1:22" x14ac:dyDescent="0.25">
@@ -23146,7 +23156,7 @@
         <v>2875</v>
       </c>
       <c r="V592" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="593" spans="1:22" x14ac:dyDescent="0.25">
@@ -23175,7 +23185,7 @@
         <v>2736</v>
       </c>
       <c r="V593" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="594" spans="1:22" x14ac:dyDescent="0.25">
@@ -23204,7 +23214,36 @@
         <v>2579</v>
       </c>
       <c r="V594" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="595" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A595" s="4">
+        <v>43869</v>
+      </c>
+      <c r="B595" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="C595" s="10">
+        <v>1096</v>
+      </c>
+      <c r="F595" s="10">
+        <v>63.5</v>
+      </c>
+      <c r="M595" s="10">
+        <v>3437</v>
+      </c>
+      <c r="O595" s="10">
+        <v>3286</v>
+      </c>
+      <c r="P595">
+        <v>2825</v>
+      </c>
+      <c r="T595" s="10">
+        <v>2331</v>
+      </c>
+      <c r="V595" s="16" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -23229,12 +23268,12 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D2">
         <f>SUM(B6:B1001)</f>
@@ -23243,24 +23282,24 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" t="s">
         <v>448</v>
-      </c>
-      <c r="B3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M5" t="s">
         <v>1</v>
@@ -23274,7 +23313,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K6" s="44">
         <v>43709</v>
@@ -23291,7 +23330,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K7" s="44">
         <v>43739</v>
@@ -23347,7 +23386,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K11" s="44">
         <v>43862</v>
@@ -23383,7 +23422,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K14" s="44">
         <v>43952</v>
@@ -23397,7 +23436,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K15" s="44">
         <v>43983</v>
@@ -23422,7 +23461,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K17" s="44">
         <v>44044</v>
@@ -23436,7 +23475,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K18" s="44">
         <v>44075</v>
@@ -23450,7 +23489,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K19" s="44">
         <v>44105</v>
@@ -23464,7 +23503,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K20" s="44">
         <v>44136</v>
@@ -23478,7 +23517,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K21" s="44">
         <v>44166</v>
@@ -23552,12 +23591,12 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="584">
   <si>
     <t>Date</t>
   </si>
@@ -3811,6 +3811,9 @@
   </si>
   <si>
     <t>Made about 8 outline changes today.</t>
+  </si>
+  <si>
+    <t>2000 single-word outlines are already in the mature pile! I made about 7-8 outline changes today.</t>
   </si>
 </sst>
 </file>
@@ -5204,11 +5207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="245286376"/>
-        <c:axId val="245287160"/>
+        <c:axId val="503955456"/>
+        <c:axId val="503960552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245286376"/>
+        <c:axId val="503955456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5250,7 +5253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245287160"/>
+        <c:crossAx val="503960552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5258,7 +5261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245287160"/>
+        <c:axId val="503960552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5309,7 +5312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245286376"/>
+        <c:crossAx val="503955456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5858,11 +5861,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="429173600"/>
-        <c:axId val="429173208"/>
+        <c:axId val="503956632"/>
+        <c:axId val="503957416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429173600"/>
+        <c:axId val="503956632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,7 +5907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429173208"/>
+        <c:crossAx val="503957416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5912,7 +5915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429173208"/>
+        <c:axId val="503957416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5963,7 +5966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429173600"/>
+        <c:crossAx val="503956632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6105,10 +6108,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$595</c:f>
+              <c:f>Sheet1!$M$576:$M$596</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6168,6 +6171,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3437</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6183,11 +6189,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="429173992"/>
-        <c:axId val="429176344"/>
+        <c:axId val="553728088"/>
+        <c:axId val="553723384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429173992"/>
+        <c:axId val="553728088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6229,7 +6235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429176344"/>
+        <c:crossAx val="553723384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6237,7 +6243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429176344"/>
+        <c:axId val="553723384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6290,7 +6296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429173992"/>
+        <c:crossAx val="553728088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6437,10 +6443,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$595</c:f>
+              <c:f>Sheet1!$T$577:$T$596</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6497,6 +6503,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6512,11 +6521,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="429176736"/>
-        <c:axId val="429171640"/>
+        <c:axId val="553723776"/>
+        <c:axId val="553725344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429176736"/>
+        <c:axId val="553723776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,7 +6567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429171640"/>
+        <c:crossAx val="553725344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6566,7 +6575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429171640"/>
+        <c:axId val="553725344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6618,7 +6627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429176736"/>
+        <c:crossAx val="553723776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8957,13 +8966,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>487580</xdr:colOff>
-      <xdr:row>596</xdr:row>
+      <xdr:row>600</xdr:row>
       <xdr:rowOff>140529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>487240</xdr:colOff>
-      <xdr:row>613</xdr:row>
+      <xdr:row>617</xdr:row>
       <xdr:rowOff>11942</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8987,13 +8996,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>600885</xdr:colOff>
-      <xdr:row>597</xdr:row>
+      <xdr:row>601</xdr:row>
       <xdr:rowOff>87076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>462102</xdr:colOff>
-      <xdr:row>611</xdr:row>
+      <xdr:row>615</xdr:row>
       <xdr:rowOff>163276</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9348,11 +9357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF595"/>
+  <dimension ref="A1:AF596"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA588" sqref="AA588"/>
+      <pane ySplit="17" topLeftCell="A605" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T604" sqref="T604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9562,8 +9571,8 @@
       <c r="D15" s="48"/>
       <c r="E15" s="2"/>
       <c r="F15" s="61">
-        <f>SUM(B18:B1000032)</f>
-        <v>1580.5799999999974</v>
+        <f>SUM(B18:B1000036)</f>
+        <v>1585.5799999999974</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9588,8 +9597,8 @@
         <v>212</v>
       </c>
       <c r="D16" s="60">
-        <f>SUM(C45:D1000031)</f>
-        <v>108885</v>
+        <f>SUM(C45:D1000035)</f>
+        <v>109722</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -23244,6 +23253,35 @@
       </c>
       <c r="V595" s="16" t="s">
         <v>582</v>
+      </c>
+    </row>
+    <row r="596" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A596" s="4">
+        <v>43870</v>
+      </c>
+      <c r="B596" s="5">
+        <v>5</v>
+      </c>
+      <c r="C596" s="10">
+        <v>837</v>
+      </c>
+      <c r="F596" s="10">
+        <v>66.3</v>
+      </c>
+      <c r="M596" s="10">
+        <v>3674</v>
+      </c>
+      <c r="O596" s="10">
+        <v>3287</v>
+      </c>
+      <c r="P596">
+        <v>2822</v>
+      </c>
+      <c r="T596" s="10">
+        <v>2193</v>
+      </c>
+      <c r="V596" s="16" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="585">
   <si>
     <t>Date</t>
   </si>
@@ -3814,6 +3814,9 @@
   </si>
   <si>
     <t>2000 single-word outlines are already in the mature pile! I made about 7-8 outline changes today.</t>
+  </si>
+  <si>
+    <t>I think I made about 8-12 outline changes today. Over half of single-word deck cards are already in the mature pile!</t>
   </si>
 </sst>
 </file>
@@ -4101,6 +4104,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5207,11 +5211,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="503955456"/>
-        <c:axId val="503960552"/>
+        <c:axId val="545476936"/>
+        <c:axId val="545465176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="503955456"/>
+        <c:axId val="545476936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5253,7 +5257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503960552"/>
+        <c:crossAx val="545465176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5261,7 +5265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503960552"/>
+        <c:axId val="545465176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5312,7 +5316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503955456"/>
+        <c:crossAx val="545476936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5406,6 +5410,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5861,11 +5866,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="503956632"/>
-        <c:axId val="503957416"/>
+        <c:axId val="545465568"/>
+        <c:axId val="545476152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="503956632"/>
+        <c:axId val="545465568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5907,7 +5912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503957416"/>
+        <c:crossAx val="545476152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5915,7 +5920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="503957416"/>
+        <c:axId val="545476152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5966,7 +5971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503956632"/>
+        <c:crossAx val="545465568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6108,10 +6113,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$596</c:f>
+              <c:f>Sheet1!$M$576:$M$597</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6174,6 +6179,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3674</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6189,11 +6197,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="553728088"/>
-        <c:axId val="553723384"/>
+        <c:axId val="545473408"/>
+        <c:axId val="545470272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="553728088"/>
+        <c:axId val="545473408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6235,7 +6243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553723384"/>
+        <c:crossAx val="545470272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6243,7 +6251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553723384"/>
+        <c:axId val="545470272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6296,7 +6304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553728088"/>
+        <c:crossAx val="545473408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6443,10 +6451,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$596</c:f>
+              <c:f>Sheet1!$T$577:$T$597</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6507,7 +6515,32 @@
                 <c:pt idx="19">
                   <c:v>2193</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>1956</c:v>
+                </c:pt>
               </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$577:$U$597</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -6521,11 +6554,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="553723776"/>
-        <c:axId val="553725344"/>
+        <c:axId val="545468312"/>
+        <c:axId val="545474584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="553723776"/>
+        <c:axId val="545468312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6567,7 +6600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553725344"/>
+        <c:crossAx val="545474584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6575,7 +6608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553725344"/>
+        <c:axId val="545474584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6627,7 +6660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553723776"/>
+        <c:crossAx val="545468312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9357,11 +9390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF596"/>
+  <dimension ref="A1:AF597"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A605" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T604" sqref="T604"/>
+      <pane ySplit="17" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A598" sqref="A598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9572,7 +9605,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="61">
         <f>SUM(B18:B1000036)</f>
-        <v>1585.5799999999974</v>
+        <v>1590.9799999999975</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9598,7 +9631,7 @@
       </c>
       <c r="D16" s="60">
         <f>SUM(C45:D1000035)</f>
-        <v>109722</v>
+        <v>110610</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -23282,6 +23315,35 @@
       </c>
       <c r="V596" s="16" t="s">
         <v>583</v>
+      </c>
+    </row>
+    <row r="597" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A597" s="4">
+        <v>43871</v>
+      </c>
+      <c r="B597" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="C597" s="10">
+        <v>888</v>
+      </c>
+      <c r="F597" s="10">
+        <v>70.2</v>
+      </c>
+      <c r="M597" s="10">
+        <v>3954</v>
+      </c>
+      <c r="O597" s="10">
+        <v>3289</v>
+      </c>
+      <c r="P597">
+        <v>2823</v>
+      </c>
+      <c r="T597" s="10">
+        <v>1956</v>
+      </c>
+      <c r="V597" s="16" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="586">
   <si>
     <t>Date</t>
   </si>
@@ -3817,6 +3817,9 @@
   </si>
   <si>
     <t>I think I made about 8-12 outline changes today. Over half of single-word deck cards are already in the mature pile!</t>
+  </si>
+  <si>
+    <t>I made 6 outline changes today.</t>
   </si>
 </sst>
 </file>
@@ -4104,7 +4107,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5211,11 +5213,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="545476936"/>
-        <c:axId val="545465176"/>
+        <c:axId val="356536352"/>
+        <c:axId val="356537528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="545476936"/>
+        <c:axId val="356536352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5257,7 +5259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545465176"/>
+        <c:crossAx val="356537528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5265,7 +5267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="545465176"/>
+        <c:axId val="356537528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5316,7 +5318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545476936"/>
+        <c:crossAx val="356536352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5410,7 +5412,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5866,11 +5867,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="545465568"/>
-        <c:axId val="545476152"/>
+        <c:axId val="356542232"/>
+        <c:axId val="356534784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="545465568"/>
+        <c:axId val="356542232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5912,7 +5913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545476152"/>
+        <c:crossAx val="356534784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5920,7 +5921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="545476152"/>
+        <c:axId val="356534784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5971,7 +5972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545465568"/>
+        <c:crossAx val="356542232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6055,7 +6056,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Least frequent card studied</a:t>
+              <a:t>Least frequent card studied in single-word deck</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6113,10 +6114,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$597</c:f>
+              <c:f>Sheet1!$M$576:$M$598</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6182,6 +6183,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3954</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6197,11 +6201,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="545473408"/>
-        <c:axId val="545470272"/>
+        <c:axId val="356538312"/>
+        <c:axId val="356537920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="545473408"/>
+        <c:axId val="356538312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,7 +6247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545470272"/>
+        <c:crossAx val="356537920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6251,7 +6255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="545470272"/>
+        <c:axId val="356537920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6304,7 +6308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545473408"/>
+        <c:crossAx val="356538312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6451,10 +6455,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$597</c:f>
+              <c:f>Sheet1!$T$577:$T$598</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6517,6 +6521,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6554,11 +6561,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="545468312"/>
-        <c:axId val="545474584"/>
+        <c:axId val="356538704"/>
+        <c:axId val="356539096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="545468312"/>
+        <c:axId val="356538704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6600,7 +6607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545474584"/>
+        <c:crossAx val="356539096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6608,7 +6615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="545474584"/>
+        <c:axId val="356539096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6660,7 +6667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545468312"/>
+        <c:crossAx val="356538704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9390,11 +9397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF597"/>
+  <dimension ref="A1:AF598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A598" sqref="A598"/>
+      <pane ySplit="17" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M599" sqref="M599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9605,7 +9612,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="61">
         <f>SUM(B18:B1000036)</f>
-        <v>1590.9799999999975</v>
+        <v>1593.3799999999976</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9631,7 +9638,7 @@
       </c>
       <c r="D16" s="60">
         <f>SUM(C45:D1000035)</f>
-        <v>110610</v>
+        <v>111272</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -23344,6 +23351,35 @@
       </c>
       <c r="V597" s="16" t="s">
         <v>584</v>
+      </c>
+    </row>
+    <row r="598" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A598" s="4">
+        <v>43872</v>
+      </c>
+      <c r="B598" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="C598" s="10">
+        <v>662</v>
+      </c>
+      <c r="F598" s="10">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="M598" s="10">
+        <v>4038</v>
+      </c>
+      <c r="O598" s="10">
+        <v>3289</v>
+      </c>
+      <c r="P598">
+        <v>2824</v>
+      </c>
+      <c r="T598" s="10">
+        <v>1818</v>
+      </c>
+      <c r="V598" s="16" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="587">
   <si>
     <t>Date</t>
   </si>
@@ -3820,6 +3820,9 @@
   </si>
   <si>
     <t>I made 6 outline changes today.</t>
+  </si>
+  <si>
+    <t>3 outline changes today (one of which was pretty minor)</t>
   </si>
 </sst>
 </file>
@@ -5213,11 +5216,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="356536352"/>
-        <c:axId val="356537528"/>
+        <c:axId val="545445000"/>
+        <c:axId val="545443824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356536352"/>
+        <c:axId val="545445000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5259,7 +5262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356537528"/>
+        <c:crossAx val="545443824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5267,7 +5270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356537528"/>
+        <c:axId val="545443824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5318,7 +5321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356536352"/>
+        <c:crossAx val="545445000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5867,11 +5870,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="356542232"/>
-        <c:axId val="356534784"/>
+        <c:axId val="764369624"/>
+        <c:axId val="764369232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356542232"/>
+        <c:axId val="764369624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5913,7 +5916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356534784"/>
+        <c:crossAx val="764369232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5921,7 +5924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356534784"/>
+        <c:axId val="764369232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5972,7 +5975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356542232"/>
+        <c:crossAx val="764369624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6114,10 +6117,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$598</c:f>
+              <c:f>Sheet1!$M$576:$M$599</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6186,6 +6189,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4038</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6201,11 +6207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="356538312"/>
-        <c:axId val="356537920"/>
+        <c:axId val="764368448"/>
+        <c:axId val="764368840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356538312"/>
+        <c:axId val="764368448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6247,7 +6253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356537920"/>
+        <c:crossAx val="764368840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6255,7 +6261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356537920"/>
+        <c:axId val="764368840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6308,7 +6314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356538312"/>
+        <c:crossAx val="764368448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6455,10 +6461,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$598</c:f>
+              <c:f>Sheet1!$T$577:$T$599</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6524,6 +6530,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6561,11 +6570,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="356538704"/>
-        <c:axId val="356539096"/>
+        <c:axId val="787903312"/>
+        <c:axId val="787903704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356538704"/>
+        <c:axId val="787903312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6607,7 +6616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356539096"/>
+        <c:crossAx val="787903704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6615,7 +6624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356539096"/>
+        <c:axId val="787903704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6667,7 +6676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356538704"/>
+        <c:crossAx val="787903312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9005,15 +9014,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>487580</xdr:colOff>
-      <xdr:row>600</xdr:row>
-      <xdr:rowOff>140529</xdr:rowOff>
+      <xdr:colOff>528993</xdr:colOff>
+      <xdr:row>603</xdr:row>
+      <xdr:rowOff>32855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>487240</xdr:colOff>
-      <xdr:row>617</xdr:row>
-      <xdr:rowOff>11942</xdr:rowOff>
+      <xdr:colOff>528653</xdr:colOff>
+      <xdr:row>619</xdr:row>
+      <xdr:rowOff>94768</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9035,15 +9044,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>600885</xdr:colOff>
-      <xdr:row>601</xdr:row>
-      <xdr:rowOff>87076</xdr:rowOff>
+      <xdr:colOff>783103</xdr:colOff>
+      <xdr:row>604</xdr:row>
+      <xdr:rowOff>153336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>462102</xdr:colOff>
-      <xdr:row>615</xdr:row>
-      <xdr:rowOff>163276</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>31407</xdr:colOff>
+      <xdr:row>619</xdr:row>
+      <xdr:rowOff>39036</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9397,11 +9406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF598"/>
+  <dimension ref="A1:AF599"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M599" sqref="M599"/>
+      <pane ySplit="17" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V600" sqref="V600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9612,7 +9621,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="61">
         <f>SUM(B18:B1000036)</f>
-        <v>1593.3799999999976</v>
+        <v>1594.6799999999976</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9638,7 +9647,7 @@
       </c>
       <c r="D16" s="60">
         <f>SUM(C45:D1000035)</f>
-        <v>111272</v>
+        <v>111772</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -23380,6 +23389,35 @@
       </c>
       <c r="V598" s="16" t="s">
         <v>585</v>
+      </c>
+    </row>
+    <row r="599" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A599" s="4">
+        <v>43873</v>
+      </c>
+      <c r="B599" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="C599" s="10">
+        <v>500</v>
+      </c>
+      <c r="F599" s="10">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="M599" s="10">
+        <v>4063</v>
+      </c>
+      <c r="O599" s="10">
+        <v>3289</v>
+      </c>
+      <c r="P599">
+        <v>2824</v>
+      </c>
+      <c r="T599" s="10">
+        <v>1719</v>
+      </c>
+      <c r="V599" s="16" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="588">
   <si>
     <t>Date</t>
   </si>
@@ -3326,9 +3326,6 @@
     </r>
   </si>
   <si>
-    <t>Column B count in Phrase Outlines sheet (Column B lists the phrases themselves)</t>
-  </si>
-  <si>
     <t>The last four clones have all been from different people</t>
   </si>
   <si>
@@ -3824,6 +3821,12 @@
   <si>
     <t>3 outline changes today (one of which was pretty minor)</t>
   </si>
+  <si>
+    <t>Reviewed all the way to (and including) the final outline in the ROPE 3.0 single-word deck!</t>
+  </si>
+  <si>
+    <t>Non-mature cards left in Phrases Anki deck</t>
+  </si>
 </sst>
 </file>
 
@@ -3832,7 +3835,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3886,6 +3889,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3978,7 +3994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4024,7 +4040,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4041,6 +4056,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4110,6 +4127,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5216,11 +5234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="545445000"/>
-        <c:axId val="545443824"/>
+        <c:axId val="562519520"/>
+        <c:axId val="562520304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="545445000"/>
+        <c:axId val="562519520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5262,7 +5280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545443824"/>
+        <c:crossAx val="562520304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5270,7 +5288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="545443824"/>
+        <c:axId val="562520304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5321,7 +5339,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545445000"/>
+        <c:crossAx val="562519520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5415,6 +5433,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5870,11 +5889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="764369624"/>
-        <c:axId val="764369232"/>
+        <c:axId val="562523440"/>
+        <c:axId val="562515600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="764369624"/>
+        <c:axId val="562523440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5916,7 +5935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764369232"/>
+        <c:crossAx val="562515600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5924,7 +5943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="764369232"/>
+        <c:axId val="562515600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5975,7 +5994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764369624"/>
+        <c:crossAx val="562523440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6117,10 +6136,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$599</c:f>
+              <c:f>Sheet1!$M$576:$M$600</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6192,6 +6211,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4063</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6207,11 +6229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="764368448"/>
-        <c:axId val="764368840"/>
+        <c:axId val="562524224"/>
+        <c:axId val="562516776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="764368448"/>
+        <c:axId val="562524224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6253,7 +6275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764368840"/>
+        <c:crossAx val="562516776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6261,7 +6283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="764368840"/>
+        <c:axId val="562516776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6314,7 +6336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764368448"/>
+        <c:crossAx val="562524224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6402,7 +6424,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> non-mature cards in deck</a:t>
+              <a:t> non-mature cards  in single-word deck</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6461,10 +6483,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$599</c:f>
+              <c:f>Sheet1!$T$577:$T$600</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6533,6 +6555,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1719</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6557,6 +6582,10 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$U$577:$U$597</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -6570,11 +6599,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="787903312"/>
-        <c:axId val="787903704"/>
+        <c:axId val="562512464"/>
+        <c:axId val="562514424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="787903312"/>
+        <c:axId val="562512464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6616,7 +6645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="787903704"/>
+        <c:crossAx val="562514424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6624,7 +6653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="787903704"/>
+        <c:axId val="562514424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6676,7 +6705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="787903312"/>
+        <c:crossAx val="562512464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9406,11 +9435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF599"/>
+  <dimension ref="A1:AF600"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V600" sqref="V600"/>
+      <pane ySplit="17" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V602" sqref="V602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9418,22 +9447,22 @@
     <col min="1" max="1" width="16.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="46" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="10" customWidth="1"/>
     <col min="7" max="7" width="9.140625" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="9" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="37" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="9" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="47" customWidth="1"/>
+    <col min="12" max="12" width="9" style="46" customWidth="1"/>
     <col min="13" max="13" width="9" style="10" customWidth="1"/>
-    <col min="14" max="14" width="9" style="47" customWidth="1"/>
+    <col min="14" max="14" width="9" style="46" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" style="10" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="17" max="18" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="53" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="52" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="6.5703125" style="10" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" style="37" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="61" customWidth="1"/>
     <col min="22" max="22" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9450,7 +9479,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -9496,9 +9525,9 @@
       <c r="I7" s="23"/>
       <c r="J7" s="38"/>
       <c r="K7" s="23"/>
-      <c r="L7" s="50"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="34"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="34"/>
       <c r="V7" t="s">
         <v>10</v>
@@ -9520,9 +9549,9 @@
       <c r="I8" s="23"/>
       <c r="J8" s="38"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="50"/>
+      <c r="L8" s="49"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="50"/>
+      <c r="N8" s="49"/>
       <c r="O8" s="34"/>
       <c r="V8" t="s">
         <v>12</v>
@@ -9536,7 +9565,7 @@
       <c r="C9" s="36">
         <v>3</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="22" t="s">
         <v>167</v>
       </c>
@@ -9546,9 +9575,9 @@
       <c r="I9" s="24"/>
       <c r="J9" s="39"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="51"/>
+      <c r="L9" s="50"/>
       <c r="M9" s="35"/>
-      <c r="N9" s="51"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="35"/>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -9567,9 +9596,9 @@
       <c r="I10" s="23"/>
       <c r="J10" s="38"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="50"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="34"/>
-      <c r="N10" s="50"/>
+      <c r="N10" s="49"/>
       <c r="O10" s="34"/>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -9588,9 +9617,9 @@
       <c r="I11" s="23"/>
       <c r="J11" s="38"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="50"/>
+      <c r="L11" s="49"/>
       <c r="M11" s="34"/>
-      <c r="N11" s="50"/>
+      <c r="N11" s="49"/>
       <c r="O11" s="34"/>
     </row>
     <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
@@ -9617,11 +9646,11 @@
         <v>49</v>
       </c>
       <c r="C15" s="36"/>
-      <c r="D15" s="48"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="61">
+      <c r="F15" s="60">
         <f>SUM(B18:B1000036)</f>
-        <v>1594.6799999999976</v>
+        <v>1599.4799999999975</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9632,22 +9661,22 @@
         <v>50</v>
       </c>
       <c r="M15" s="36"/>
-      <c r="N15" s="48"/>
+      <c r="N15" s="47"/>
       <c r="O15" s="36"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="54"/>
+      <c r="S15" s="53"/>
       <c r="T15" s="36"/>
-      <c r="U15" s="40"/>
+      <c r="U15" s="62"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="59">
         <f>SUM(C45:D1000035)</f>
-        <v>111772</v>
+        <v>112756</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -9658,16 +9687,16 @@
         <v>84</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="E17" t="s">
         <v>489</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" s="10" t="s">
         <v>490</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>491</v>
       </c>
       <c r="G17" t="s">
         <v>124</v>
@@ -9684,14 +9713,14 @@
       <c r="K17" t="s">
         <v>283</v>
       </c>
-      <c r="L17" s="47" t="s">
-        <v>493</v>
+      <c r="L17" s="46" t="s">
+        <v>492</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="N17" s="47" t="s">
-        <v>531</v>
+        <v>491</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>530</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>484</v>
@@ -9703,22 +9732,22 @@
         <v>418</v>
       </c>
       <c r="R17" t="s">
-        <v>512</v>
-      </c>
-      <c r="S17" s="53" t="s">
-        <v>545</v>
+        <v>511</v>
+      </c>
+      <c r="S17" s="52" t="s">
+        <v>544</v>
       </c>
       <c r="T17" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="U17" s="37" t="s">
-        <v>486</v>
+      <c r="U17" s="61" t="s">
+        <v>587</v>
       </c>
       <c r="V17" t="s">
+        <v>579</v>
+      </c>
+      <c r="W17" t="s">
         <v>580</v>
-      </c>
-      <c r="W17" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -10463,7 +10492,7 @@
       <c r="C71" s="36">
         <v>63</v>
       </c>
-      <c r="D71" s="48"/>
+      <c r="D71" s="47"/>
       <c r="E71" s="2"/>
       <c r="F71" s="36"/>
       <c r="G71" s="2"/>
@@ -10471,9 +10500,9 @@
       <c r="I71" s="2"/>
       <c r="J71" s="40"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="48"/>
+      <c r="L71" s="47"/>
       <c r="M71" s="36"/>
-      <c r="N71" s="48"/>
+      <c r="N71" s="47"/>
       <c r="O71" s="36"/>
       <c r="V71" s="3" t="s">
         <v>88</v>
@@ -11563,9 +11592,9 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
-      <c r="S128" s="54"/>
+      <c r="S128" s="53"/>
       <c r="T128" s="36"/>
-      <c r="U128" s="40"/>
+      <c r="U128" s="62"/>
       <c r="V128" s="14" t="s">
         <v>148</v>
       </c>
@@ -11584,9 +11613,9 @@
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
-      <c r="S129" s="54"/>
+      <c r="S129" s="53"/>
       <c r="T129" s="36"/>
-      <c r="U129" s="40"/>
+      <c r="U129" s="62"/>
       <c r="V129" s="15" t="s">
         <v>150</v>
       </c>
@@ -11737,9 +11766,9 @@
       </c>
       <c r="Q139" s="19"/>
       <c r="R139" s="19"/>
-      <c r="S139" s="54"/>
+      <c r="S139" s="53"/>
       <c r="T139" s="36"/>
-      <c r="U139" s="40"/>
+      <c r="U139" s="62"/>
       <c r="V139" s="2" t="s">
         <v>162</v>
       </c>
@@ -11762,9 +11791,8 @@
       </c>
       <c r="Q140" s="16"/>
       <c r="R140" s="16"/>
-      <c r="S140" s="55"/>
-      <c r="T140" s="46"/>
-      <c r="U140" s="45"/>
+      <c r="S140" s="54"/>
+      <c r="T140" s="45"/>
       <c r="V140" s="16" t="s">
         <v>163</v>
       </c>
@@ -13799,7 +13827,7 @@
       <c r="A239" s="4">
         <v>43441</v>
       </c>
-      <c r="B239" s="59">
+      <c r="B239" s="58">
         <v>7</v>
       </c>
       <c r="O239" s="10">
@@ -14082,9 +14110,9 @@
       </c>
       <c r="Q255" s="2"/>
       <c r="R255" s="2"/>
-      <c r="S255" s="54"/>
+      <c r="S255" s="53"/>
       <c r="T255" s="36"/>
-      <c r="U255" s="40"/>
+      <c r="U255" s="62"/>
       <c r="V255" t="s">
         <v>248</v>
       </c>
@@ -14229,7 +14257,7 @@
       <c r="C264" s="36">
         <v>1</v>
       </c>
-      <c r="D264" s="48"/>
+      <c r="D264" s="47"/>
       <c r="O264" s="10">
         <v>2992</v>
       </c>
@@ -14409,9 +14437,9 @@
       </c>
       <c r="Q271" s="42"/>
       <c r="R271" s="42"/>
-      <c r="S271" s="54"/>
+      <c r="S271" s="53"/>
       <c r="T271" s="36"/>
-      <c r="U271" s="40"/>
+      <c r="U271" s="62"/>
       <c r="V271" t="s">
         <v>264</v>
       </c>
@@ -14995,7 +15023,7 @@
         <v>2950</v>
       </c>
       <c r="V295" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.25">
@@ -15195,7 +15223,7 @@
       <c r="M304" s="36">
         <v>2231</v>
       </c>
-      <c r="N304" s="48"/>
+      <c r="N304" s="47"/>
       <c r="O304" s="10">
         <v>3041</v>
       </c>
@@ -15893,7 +15921,7 @@
       <c r="M334" s="36">
         <v>2233</v>
       </c>
-      <c r="N334" s="48"/>
+      <c r="N334" s="47"/>
       <c r="O334" s="10">
         <v>3073</v>
       </c>
@@ -15917,7 +15945,7 @@
       <c r="M335" s="36">
         <v>2241</v>
       </c>
-      <c r="N335" s="48"/>
+      <c r="N335" s="47"/>
       <c r="O335" s="10">
         <v>3074</v>
       </c>
@@ -15944,7 +15972,7 @@
       <c r="M336" s="36">
         <v>2262</v>
       </c>
-      <c r="N336" s="48"/>
+      <c r="N336" s="47"/>
       <c r="O336" s="10">
         <v>3075</v>
       </c>
@@ -15971,7 +15999,7 @@
       <c r="M337" s="36">
         <v>2313</v>
       </c>
-      <c r="N337" s="48"/>
+      <c r="N337" s="47"/>
       <c r="O337" s="10">
         <v>3075</v>
       </c>
@@ -15995,7 +16023,7 @@
       <c r="M338" s="36">
         <v>2436</v>
       </c>
-      <c r="N338" s="48"/>
+      <c r="N338" s="47"/>
       <c r="O338" s="10">
         <v>3075</v>
       </c>
@@ -16026,7 +16054,7 @@
       <c r="M339" s="36">
         <v>2445</v>
       </c>
-      <c r="N339" s="48"/>
+      <c r="N339" s="47"/>
       <c r="O339" s="10">
         <v>3075</v>
       </c>
@@ -16050,7 +16078,7 @@
       <c r="M340" s="36">
         <v>2465</v>
       </c>
-      <c r="N340" s="48"/>
+      <c r="N340" s="47"/>
       <c r="O340" s="10">
         <v>3075</v>
       </c>
@@ -16074,7 +16102,7 @@
       <c r="M341" s="36">
         <v>2466</v>
       </c>
-      <c r="N341" s="48"/>
+      <c r="N341" s="47"/>
       <c r="O341" s="10">
         <v>3075</v>
       </c>
@@ -16109,10 +16137,10 @@
       <c r="F343" s="10">
         <v>96.2</v>
       </c>
-      <c r="M343" s="46">
+      <c r="M343" s="45">
         <v>448</v>
       </c>
-      <c r="N343" s="49"/>
+      <c r="N343" s="48"/>
       <c r="O343" s="10">
         <v>3078</v>
       </c>
@@ -16136,10 +16164,10 @@
       <c r="F344" s="10">
         <v>89.5</v>
       </c>
-      <c r="M344" s="46">
+      <c r="M344" s="45">
         <v>600</v>
       </c>
-      <c r="N344" s="49"/>
+      <c r="N344" s="48"/>
       <c r="O344" s="10">
         <v>3078</v>
       </c>
@@ -16163,10 +16191,10 @@
       <c r="F345" s="10">
         <v>84.4</v>
       </c>
-      <c r="M345" s="46">
+      <c r="M345" s="45">
         <v>800</v>
       </c>
-      <c r="N345" s="49"/>
+      <c r="N345" s="48"/>
       <c r="O345" s="10">
         <v>3079</v>
       </c>
@@ -16190,10 +16218,10 @@
       <c r="F346" s="10">
         <v>91</v>
       </c>
-      <c r="M346" s="46">
+      <c r="M346" s="45">
         <v>1000</v>
       </c>
-      <c r="N346" s="49"/>
+      <c r="N346" s="48"/>
       <c r="O346" s="10">
         <v>3080</v>
       </c>
@@ -16217,10 +16245,10 @@
       <c r="F347" s="10">
         <v>93</v>
       </c>
-      <c r="M347" s="46">
+      <c r="M347" s="45">
         <v>1001</v>
       </c>
-      <c r="N347" s="49"/>
+      <c r="N347" s="48"/>
       <c r="O347" s="10">
         <v>3081</v>
       </c>
@@ -16244,10 +16272,10 @@
       <c r="F348" s="10">
         <v>90.5</v>
       </c>
-      <c r="M348" s="46">
+      <c r="M348" s="45">
         <v>1101</v>
       </c>
-      <c r="N348" s="49"/>
+      <c r="N348" s="48"/>
       <c r="O348" s="10">
         <v>3083</v>
       </c>
@@ -16271,10 +16299,10 @@
       <c r="F349" s="10">
         <v>83.1</v>
       </c>
-      <c r="M349" s="46">
+      <c r="M349" s="45">
         <v>1700</v>
       </c>
-      <c r="N349" s="49"/>
+      <c r="N349" s="48"/>
       <c r="O349" s="10">
         <v>3083</v>
       </c>
@@ -16298,10 +16326,10 @@
       <c r="F350" s="10">
         <v>86.9</v>
       </c>
-      <c r="M350" s="46">
+      <c r="M350" s="45">
         <v>1845</v>
       </c>
-      <c r="N350" s="49"/>
+      <c r="N350" s="48"/>
       <c r="O350" s="10">
         <v>3083</v>
       </c>
@@ -16325,10 +16353,10 @@
       <c r="F351" s="10">
         <v>92.2</v>
       </c>
-      <c r="M351" s="46">
+      <c r="M351" s="45">
         <v>1900</v>
       </c>
-      <c r="N351" s="49"/>
+      <c r="N351" s="48"/>
       <c r="O351" s="10">
         <v>3083</v>
       </c>
@@ -16349,10 +16377,10 @@
       <c r="F352" s="10">
         <v>89.8</v>
       </c>
-      <c r="M352" s="46">
+      <c r="M352" s="45">
         <v>2100</v>
       </c>
-      <c r="N352" s="49"/>
+      <c r="N352" s="48"/>
       <c r="O352" s="10">
         <v>3083</v>
       </c>
@@ -16376,10 +16404,10 @@
       <c r="F353" s="10">
         <v>87.6</v>
       </c>
-      <c r="M353" s="46">
+      <c r="M353" s="45">
         <v>2150</v>
       </c>
-      <c r="N353" s="49"/>
+      <c r="N353" s="48"/>
       <c r="O353" s="10">
         <v>3084</v>
       </c>
@@ -16400,10 +16428,10 @@
       <c r="F354" s="10">
         <v>90.8</v>
       </c>
-      <c r="M354" s="46">
+      <c r="M354" s="45">
         <v>2151</v>
       </c>
-      <c r="N354" s="49"/>
+      <c r="N354" s="48"/>
       <c r="O354" s="10">
         <v>3084</v>
       </c>
@@ -16424,10 +16452,10 @@
       <c r="F355" s="10">
         <v>85.5</v>
       </c>
-      <c r="M355" s="46">
+      <c r="M355" s="45">
         <v>2200</v>
       </c>
-      <c r="N355" s="49"/>
+      <c r="N355" s="48"/>
       <c r="O355" s="10">
         <v>3084</v>
       </c>
@@ -16448,10 +16476,10 @@
       <c r="F356" s="10">
         <v>83.2</v>
       </c>
-      <c r="M356" s="46">
+      <c r="M356" s="45">
         <v>2300</v>
       </c>
-      <c r="N356" s="49"/>
+      <c r="N356" s="48"/>
       <c r="O356" s="10">
         <v>3085</v>
       </c>
@@ -16472,10 +16500,10 @@
       <c r="F357" s="10">
         <v>84.7</v>
       </c>
-      <c r="M357" s="46">
+      <c r="M357" s="45">
         <v>2302</v>
       </c>
-      <c r="N357" s="49"/>
+      <c r="N357" s="48"/>
       <c r="O357" s="10">
         <v>3088</v>
       </c>
@@ -16496,10 +16524,10 @@
       <c r="F358" s="10">
         <v>83.5</v>
       </c>
-      <c r="M358" s="46">
+      <c r="M358" s="45">
         <v>2414</v>
       </c>
-      <c r="N358" s="49"/>
+      <c r="N358" s="48"/>
       <c r="O358" s="10">
         <v>3088</v>
       </c>
@@ -16526,7 +16554,7 @@
       <c r="M359" s="36">
         <v>2470</v>
       </c>
-      <c r="N359" s="48"/>
+      <c r="N359" s="47"/>
       <c r="O359" s="10">
         <v>3089</v>
       </c>
@@ -16553,7 +16581,7 @@
       <c r="M360" s="36">
         <v>2570</v>
       </c>
-      <c r="N360" s="48"/>
+      <c r="N360" s="47"/>
       <c r="O360" s="10">
         <v>3092</v>
       </c>
@@ -16577,7 +16605,7 @@
       <c r="M361" s="36">
         <v>2651</v>
       </c>
-      <c r="N361" s="48"/>
+      <c r="N361" s="47"/>
       <c r="O361" s="10">
         <v>3093</v>
       </c>
@@ -16615,7 +16643,7 @@
       <c r="M363" s="36">
         <v>2682</v>
       </c>
-      <c r="N363" s="48"/>
+      <c r="N363" s="47"/>
       <c r="O363" s="10">
         <v>3094</v>
       </c>
@@ -16642,7 +16670,7 @@
       <c r="M364" s="36">
         <v>2712</v>
       </c>
-      <c r="N364" s="48"/>
+      <c r="N364" s="47"/>
       <c r="O364" s="10">
         <v>3095</v>
       </c>
@@ -16683,10 +16711,10 @@
       <c r="F366" s="10">
         <v>93</v>
       </c>
-      <c r="M366" s="46">
+      <c r="M366" s="45">
         <v>1001</v>
       </c>
-      <c r="N366" s="49"/>
+      <c r="N366" s="48"/>
       <c r="T366" s="10">
         <f xml:space="preserve"> 4201-2130</f>
         <v>2071</v>
@@ -16711,7 +16739,7 @@
       <c r="M367" s="36">
         <v>2713</v>
       </c>
-      <c r="N367" s="48"/>
+      <c r="N367" s="47"/>
       <c r="O367" s="10">
         <v>3100</v>
       </c>
@@ -16742,7 +16770,7 @@
       <c r="M368" s="36">
         <v>2817</v>
       </c>
-      <c r="N368" s="48"/>
+      <c r="N368" s="47"/>
       <c r="O368" s="10">
         <v>3100</v>
       </c>
@@ -16769,7 +16797,7 @@
       <c r="M369" s="36">
         <v>2918</v>
       </c>
-      <c r="N369" s="48"/>
+      <c r="N369" s="47"/>
       <c r="O369" s="10">
         <v>3104</v>
       </c>
@@ -16796,7 +16824,7 @@
       <c r="M370" s="36">
         <v>3019</v>
       </c>
-      <c r="N370" s="48"/>
+      <c r="N370" s="47"/>
       <c r="O370" s="10">
         <v>3105</v>
       </c>
@@ -16827,7 +16855,7 @@
       <c r="M371" s="36">
         <v>3020</v>
       </c>
-      <c r="N371" s="48"/>
+      <c r="N371" s="47"/>
       <c r="O371" s="10">
         <v>3104</v>
       </c>
@@ -16854,7 +16882,7 @@
       <c r="M372" s="36">
         <v>3021</v>
       </c>
-      <c r="N372" s="48"/>
+      <c r="N372" s="47"/>
       <c r="O372" s="10">
         <v>3104</v>
       </c>
@@ -16881,7 +16909,7 @@
       <c r="M373" s="36">
         <v>3023</v>
       </c>
-      <c r="N373" s="48"/>
+      <c r="N373" s="47"/>
       <c r="O373" s="10">
         <v>3104</v>
       </c>
@@ -16908,7 +16936,7 @@
       <c r="M374" s="36">
         <v>3140</v>
       </c>
-      <c r="N374" s="48"/>
+      <c r="N374" s="47"/>
       <c r="O374" s="10">
         <v>3104</v>
       </c>
@@ -16935,7 +16963,7 @@
       <c r="M375" s="36">
         <v>3240</v>
       </c>
-      <c r="N375" s="48"/>
+      <c r="N375" s="47"/>
       <c r="O375" s="10">
         <v>3107</v>
       </c>
@@ -16962,7 +16990,7 @@
       <c r="M376" s="36">
         <v>3450</v>
       </c>
-      <c r="N376" s="48"/>
+      <c r="N376" s="47"/>
       <c r="O376" s="10">
         <v>3111</v>
       </c>
@@ -16989,7 +17017,7 @@
       <c r="M377" s="36">
         <v>3359</v>
       </c>
-      <c r="N377" s="48"/>
+      <c r="N377" s="47"/>
       <c r="O377" s="10">
         <v>3111</v>
       </c>
@@ -17013,7 +17041,7 @@
       <c r="M378" s="36">
         <v>3550</v>
       </c>
-      <c r="N378" s="48"/>
+      <c r="N378" s="47"/>
       <c r="O378" s="10">
         <v>3113</v>
       </c>
@@ -17040,7 +17068,7 @@
       <c r="M379" s="36">
         <v>3555</v>
       </c>
-      <c r="N379" s="48"/>
+      <c r="N379" s="47"/>
       <c r="O379" s="10">
         <v>3113</v>
       </c>
@@ -17067,7 +17095,7 @@
       <c r="M380" s="36">
         <v>3635</v>
       </c>
-      <c r="N380" s="48"/>
+      <c r="N380" s="47"/>
       <c r="O380" s="10">
         <v>3114</v>
       </c>
@@ -17094,7 +17122,7 @@
       <c r="M381" s="36">
         <v>3745</v>
       </c>
-      <c r="N381" s="48"/>
+      <c r="N381" s="47"/>
       <c r="O381" s="10">
         <v>3114</v>
       </c>
@@ -17125,7 +17153,7 @@
       <c r="M382" s="36">
         <v>3900</v>
       </c>
-      <c r="N382" s="48"/>
+      <c r="N382" s="47"/>
       <c r="O382" s="10">
         <v>3116</v>
       </c>
@@ -17152,7 +17180,7 @@
       <c r="M383" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N383" s="48"/>
+      <c r="N383" s="47"/>
       <c r="O383" s="10">
         <v>3120</v>
       </c>
@@ -17161,12 +17189,12 @@
       </c>
       <c r="Q383" s="2"/>
       <c r="R383" s="2"/>
-      <c r="S383" s="54"/>
+      <c r="S383" s="53"/>
       <c r="T383" s="36">
         <f xml:space="preserve"> 4201-3220</f>
         <v>981</v>
       </c>
-      <c r="U383" s="40"/>
+      <c r="U383" s="62"/>
       <c r="V383" s="21" t="s">
         <v>349</v>
       </c>
@@ -17187,7 +17215,7 @@
       <c r="M384" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N384" s="48"/>
+      <c r="N384" s="47"/>
       <c r="O384" s="10">
         <v>3120</v>
       </c>
@@ -17214,7 +17242,7 @@
       <c r="M385" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N385" s="48"/>
+      <c r="N385" s="47"/>
       <c r="O385" s="10">
         <v>3121</v>
       </c>
@@ -17241,7 +17269,7 @@
       <c r="M386" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N386" s="48"/>
+      <c r="N386" s="47"/>
       <c r="O386" s="10">
         <v>3121</v>
       </c>
@@ -17272,7 +17300,7 @@
       <c r="M387" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N387" s="48"/>
+      <c r="N387" s="47"/>
       <c r="O387" s="10">
         <v>3121</v>
       </c>
@@ -17303,7 +17331,7 @@
       <c r="M388" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N388" s="48"/>
+      <c r="N388" s="47"/>
       <c r="O388" s="10">
         <v>3124</v>
       </c>
@@ -17330,7 +17358,7 @@
       <c r="M389" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N389" s="48"/>
+      <c r="N389" s="47"/>
       <c r="O389" s="10">
         <v>3125</v>
       </c>
@@ -17339,9 +17367,8 @@
       </c>
       <c r="Q389" s="16"/>
       <c r="R389" s="16"/>
-      <c r="S389" s="55"/>
-      <c r="T389" s="46"/>
-      <c r="U389" s="45"/>
+      <c r="S389" s="54"/>
+      <c r="T389" s="45"/>
       <c r="V389" t="s">
         <v>356</v>
       </c>
@@ -17362,7 +17389,7 @@
       <c r="M390" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N390" s="48"/>
+      <c r="N390" s="47"/>
       <c r="O390" s="10">
         <v>3125</v>
       </c>
@@ -17371,9 +17398,9 @@
       </c>
       <c r="Q390" s="2"/>
       <c r="R390" s="2"/>
-      <c r="S390" s="54"/>
+      <c r="S390" s="53"/>
       <c r="T390" s="36"/>
-      <c r="U390" s="40"/>
+      <c r="U390" s="62"/>
       <c r="V390" t="s">
         <v>357</v>
       </c>
@@ -17394,7 +17421,7 @@
       <c r="M391" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N391" s="48"/>
+      <c r="N391" s="47"/>
       <c r="O391" s="10">
         <v>3125</v>
       </c>
@@ -17421,7 +17448,7 @@
       <c r="M392" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N392" s="48"/>
+      <c r="N392" s="47"/>
       <c r="O392" s="10">
         <v>3126</v>
       </c>
@@ -17448,7 +17475,7 @@
       <c r="M393" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N393" s="48"/>
+      <c r="N393" s="47"/>
       <c r="O393" s="10">
         <v>3126</v>
       </c>
@@ -17475,7 +17502,7 @@
       <c r="M394" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N394" s="48"/>
+      <c r="N394" s="47"/>
       <c r="O394" s="10">
         <v>3126</v>
       </c>
@@ -17499,7 +17526,7 @@
       <c r="M395" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N395" s="48"/>
+      <c r="N395" s="47"/>
       <c r="O395" s="10">
         <v>3126</v>
       </c>
@@ -17552,7 +17579,7 @@
       <c r="M397" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N397" s="48"/>
+      <c r="N397" s="47"/>
       <c r="O397" s="10">
         <v>3126</v>
       </c>
@@ -17579,7 +17606,7 @@
       <c r="M398" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N398" s="48"/>
+      <c r="N398" s="47"/>
       <c r="O398" s="10">
         <v>3126</v>
       </c>
@@ -17609,7 +17636,7 @@
       <c r="M399" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N399" s="48"/>
+      <c r="N399" s="47"/>
       <c r="O399" s="10">
         <v>3127</v>
       </c>
@@ -17636,7 +17663,7 @@
       <c r="M400" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N400" s="48"/>
+      <c r="N400" s="47"/>
       <c r="O400" s="10">
         <v>3128</v>
       </c>
@@ -17663,7 +17690,7 @@
       <c r="M401" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N401" s="48"/>
+      <c r="N401" s="47"/>
       <c r="O401" s="10">
         <v>3128</v>
       </c>
@@ -17694,7 +17721,7 @@
       <c r="M402" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N402" s="48"/>
+      <c r="N402" s="47"/>
       <c r="O402" s="10">
         <v>3128</v>
       </c>
@@ -17721,7 +17748,7 @@
       <c r="M403" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N403" s="48"/>
+      <c r="N403" s="47"/>
       <c r="O403" s="10">
         <v>3128</v>
       </c>
@@ -17748,7 +17775,7 @@
       <c r="M404" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N404" s="48"/>
+      <c r="N404" s="47"/>
       <c r="O404" s="10">
         <v>3129</v>
       </c>
@@ -17775,7 +17802,7 @@
       <c r="M405" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N405" s="48"/>
+      <c r="N405" s="47"/>
       <c r="O405" s="10">
         <v>3130</v>
       </c>
@@ -17810,7 +17837,7 @@
       <c r="M407" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N407" s="48"/>
+      <c r="N407" s="47"/>
       <c r="O407" s="10">
         <v>3130</v>
       </c>
@@ -17841,7 +17868,7 @@
       <c r="M408" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N408" s="48"/>
+      <c r="N408" s="47"/>
       <c r="O408" s="10">
         <v>3130</v>
       </c>
@@ -17868,7 +17895,7 @@
       <c r="M409" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N409" s="48"/>
+      <c r="N409" s="47"/>
       <c r="O409" s="10">
         <v>3132</v>
       </c>
@@ -17895,7 +17922,7 @@
       <c r="M410" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N410" s="48"/>
+      <c r="N410" s="47"/>
       <c r="O410" s="10">
         <v>3133</v>
       </c>
@@ -17919,7 +17946,7 @@
       <c r="M411" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N411" s="48"/>
+      <c r="N411" s="47"/>
       <c r="O411" s="10">
         <v>3133</v>
       </c>
@@ -17946,7 +17973,7 @@
       <c r="M412" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N412" s="48"/>
+      <c r="N412" s="47"/>
       <c r="O412" s="10">
         <v>3133</v>
       </c>
@@ -17970,7 +17997,7 @@
       <c r="M413" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N413" s="48"/>
+      <c r="N413" s="47"/>
       <c r="O413" s="10">
         <v>3133</v>
       </c>
@@ -17997,7 +18024,7 @@
       <c r="M414" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N414" s="48"/>
+      <c r="N414" s="47"/>
       <c r="O414" s="10">
         <v>3134</v>
       </c>
@@ -18024,7 +18051,7 @@
       <c r="M415" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N415" s="48"/>
+      <c r="N415" s="47"/>
       <c r="O415" s="10">
         <v>3134</v>
       </c>
@@ -18045,7 +18072,7 @@
       <c r="M416" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N416" s="48"/>
+      <c r="N416" s="47"/>
       <c r="V416" t="s">
         <v>379</v>
       </c>
@@ -18066,7 +18093,7 @@
       <c r="M417" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N417" s="48"/>
+      <c r="N417" s="47"/>
       <c r="O417" s="10">
         <v>3138</v>
       </c>
@@ -18093,7 +18120,7 @@
       <c r="M418" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N418" s="48"/>
+      <c r="N418" s="47"/>
       <c r="O418" s="10">
         <v>3138</v>
       </c>
@@ -18120,7 +18147,7 @@
       <c r="M419" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N419" s="48"/>
+      <c r="N419" s="47"/>
       <c r="O419" s="10">
         <v>3139</v>
       </c>
@@ -18147,7 +18174,7 @@
       <c r="M420" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N420" s="48"/>
+      <c r="N420" s="47"/>
       <c r="V420" t="s">
         <v>383</v>
       </c>
@@ -18168,7 +18195,7 @@
       <c r="M421" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N421" s="48"/>
+      <c r="N421" s="47"/>
       <c r="O421" s="10">
         <v>3140</v>
       </c>
@@ -18195,7 +18222,7 @@
       <c r="M422" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N422" s="48"/>
+      <c r="N422" s="47"/>
       <c r="O422" s="10">
         <v>3141</v>
       </c>
@@ -18222,7 +18249,7 @@
       <c r="M423" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N423" s="48"/>
+      <c r="N423" s="47"/>
       <c r="O423" s="10">
         <v>3142</v>
       </c>
@@ -18252,7 +18279,7 @@
       <c r="M424" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N424" s="48"/>
+      <c r="N424" s="47"/>
       <c r="O424" s="10">
         <v>3142</v>
       </c>
@@ -18279,7 +18306,7 @@
       <c r="M425" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N425" s="48"/>
+      <c r="N425" s="47"/>
       <c r="O425" s="10">
         <v>3142</v>
       </c>
@@ -18306,7 +18333,7 @@
       <c r="M426" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N426" s="48"/>
+      <c r="N426" s="47"/>
       <c r="O426" s="10">
         <v>3143</v>
       </c>
@@ -18330,7 +18357,7 @@
       <c r="M427" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N427" s="48"/>
+      <c r="N427" s="47"/>
       <c r="O427" s="10">
         <v>3143</v>
       </c>
@@ -18357,7 +18384,7 @@
       <c r="M428" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N428" s="48"/>
+      <c r="N428" s="47"/>
       <c r="O428" s="10">
         <v>3144</v>
       </c>
@@ -18381,7 +18408,7 @@
       <c r="M429" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N429" s="48"/>
+      <c r="N429" s="47"/>
       <c r="O429" s="10">
         <v>3144</v>
       </c>
@@ -18408,7 +18435,7 @@
       <c r="M430" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N430" s="48"/>
+      <c r="N430" s="47"/>
       <c r="O430" s="10">
         <v>3144</v>
       </c>
@@ -18438,7 +18465,7 @@
       <c r="M431" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N431" s="48"/>
+      <c r="N431" s="47"/>
       <c r="O431" s="10">
         <v>3148</v>
       </c>
@@ -18468,7 +18495,7 @@
       <c r="M432" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N432" s="48"/>
+      <c r="N432" s="47"/>
       <c r="O432" s="10">
         <v>3149</v>
       </c>
@@ -18498,7 +18525,7 @@
       <c r="M433" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N433" s="48"/>
+      <c r="N433" s="47"/>
       <c r="O433" s="10">
         <v>3149</v>
       </c>
@@ -18525,7 +18552,7 @@
       <c r="M434" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N434" s="48"/>
+      <c r="N434" s="47"/>
       <c r="O434" s="10">
         <v>3149</v>
       </c>
@@ -18549,7 +18576,7 @@
       <c r="M435" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N435" s="48"/>
+      <c r="N435" s="47"/>
       <c r="O435" s="10">
         <v>3148</v>
       </c>
@@ -18576,7 +18603,7 @@
       <c r="M436" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N436" s="48"/>
+      <c r="N436" s="47"/>
       <c r="O436" s="10">
         <v>3148</v>
       </c>
@@ -18606,7 +18633,7 @@
       <c r="M437" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N437" s="48"/>
+      <c r="N437" s="47"/>
       <c r="O437" s="10">
         <v>3148</v>
       </c>
@@ -18633,7 +18660,7 @@
       <c r="M438" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N438" s="48"/>
+      <c r="N438" s="47"/>
       <c r="O438" s="10">
         <v>3148</v>
       </c>
@@ -18660,7 +18687,7 @@
       <c r="M439" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N439" s="48"/>
+      <c r="N439" s="47"/>
       <c r="O439" s="10">
         <v>3148</v>
       </c>
@@ -18690,7 +18717,7 @@
       <c r="M440" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N440" s="48"/>
+      <c r="N440" s="47"/>
       <c r="O440" s="10">
         <v>3148</v>
       </c>
@@ -18717,7 +18744,7 @@
       <c r="M441" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N441" s="48"/>
+      <c r="N441" s="47"/>
       <c r="O441" s="10">
         <v>3148</v>
       </c>
@@ -18747,7 +18774,7 @@
       <c r="M442" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N442" s="48"/>
+      <c r="N442" s="47"/>
       <c r="O442" s="10">
         <v>3149</v>
       </c>
@@ -18777,7 +18804,7 @@
       <c r="M443" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N443" s="48"/>
+      <c r="N443" s="47"/>
       <c r="O443" s="10">
         <v>3149</v>
       </c>
@@ -18786,11 +18813,11 @@
       </c>
       <c r="Q443" s="2"/>
       <c r="R443" s="2"/>
-      <c r="S443" s="54"/>
+      <c r="S443" s="53"/>
       <c r="T443" s="36">
         <v>212</v>
       </c>
-      <c r="U443" s="40"/>
+      <c r="U443" s="62"/>
       <c r="V443" s="2" t="s">
         <v>404</v>
       </c>
@@ -18811,7 +18838,7 @@
       <c r="M444" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N444" s="48"/>
+      <c r="N444" s="47"/>
       <c r="O444" s="10">
         <v>3152</v>
       </c>
@@ -18820,11 +18847,11 @@
       </c>
       <c r="Q444" s="2"/>
       <c r="R444" s="2"/>
-      <c r="S444" s="54"/>
+      <c r="S444" s="53"/>
       <c r="T444" s="36">
         <v>213</v>
       </c>
-      <c r="U444" s="40"/>
+      <c r="U444" s="62"/>
       <c r="V444" s="2" t="s">
         <v>405</v>
       </c>
@@ -18845,7 +18872,7 @@
       <c r="M445" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N445" s="48"/>
+      <c r="N445" s="47"/>
       <c r="O445" s="10">
         <v>3152</v>
       </c>
@@ -18875,7 +18902,7 @@
       <c r="M446" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N446" s="48"/>
+      <c r="N446" s="47"/>
       <c r="O446" s="10">
         <v>3152</v>
       </c>
@@ -18905,7 +18932,7 @@
       <c r="M447" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N447" s="48"/>
+      <c r="N447" s="47"/>
       <c r="O447" s="10">
         <v>3152</v>
       </c>
@@ -18914,11 +18941,11 @@
       </c>
       <c r="Q447" s="2"/>
       <c r="R447" s="2"/>
-      <c r="S447" s="54"/>
+      <c r="S447" s="53"/>
       <c r="T447" s="36">
         <v>183</v>
       </c>
-      <c r="U447" s="40"/>
+      <c r="U447" s="62"/>
       <c r="V447" s="16" t="s">
         <v>407</v>
       </c>
@@ -18939,7 +18966,7 @@
       <c r="M448" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N448" s="48"/>
+      <c r="N448" s="47"/>
       <c r="O448" s="10">
         <v>3153</v>
       </c>
@@ -18966,7 +18993,7 @@
       <c r="M449" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N449" s="48"/>
+      <c r="N449" s="47"/>
       <c r="O449" s="10">
         <v>3154</v>
       </c>
@@ -18996,7 +19023,7 @@
       <c r="M450" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N450" s="48"/>
+      <c r="N450" s="47"/>
       <c r="O450" s="10">
         <v>3155</v>
       </c>
@@ -19023,7 +19050,7 @@
       <c r="M451" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="N451" s="48"/>
+      <c r="N451" s="47"/>
       <c r="O451" s="10">
         <v>3155</v>
       </c>
@@ -19050,7 +19077,7 @@
       <c r="M452" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N452" s="48"/>
+      <c r="N452" s="47"/>
       <c r="O452" s="10">
         <v>3154</v>
       </c>
@@ -19074,7 +19101,7 @@
       <c r="M453" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N453" s="48"/>
+      <c r="N453" s="47"/>
       <c r="O453" s="10">
         <v>3154</v>
       </c>
@@ -19104,7 +19131,7 @@
       <c r="M454" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N454" s="48"/>
+      <c r="N454" s="47"/>
       <c r="O454" s="10">
         <v>3153</v>
       </c>
@@ -19131,7 +19158,7 @@
       <c r="M455" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N455" s="48"/>
+      <c r="N455" s="47"/>
       <c r="O455" s="10">
         <v>3153</v>
       </c>
@@ -19161,7 +19188,7 @@
       <c r="M456" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N456" s="48"/>
+      <c r="N456" s="47"/>
       <c r="O456" s="10">
         <v>3153</v>
       </c>
@@ -19171,7 +19198,7 @@
       <c r="T456" s="36">
         <v>145</v>
       </c>
-      <c r="U456" s="40"/>
+      <c r="U456" s="62"/>
       <c r="V456" t="s">
         <v>420</v>
       </c>
@@ -19192,7 +19219,7 @@
       <c r="M457" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N457" s="48"/>
+      <c r="N457" s="47"/>
       <c r="O457" s="10">
         <v>3153</v>
       </c>
@@ -19222,7 +19249,7 @@
       <c r="M458" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N458" s="48"/>
+      <c r="N458" s="47"/>
       <c r="O458" s="10">
         <v>3155</v>
       </c>
@@ -19255,7 +19282,7 @@
       <c r="M459" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N459" s="48"/>
+      <c r="N459" s="47"/>
       <c r="O459" s="10">
         <v>3157</v>
       </c>
@@ -19354,7 +19381,7 @@
       <c r="M463" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N463" s="48"/>
+      <c r="N463" s="47"/>
       <c r="O463" s="10">
         <v>3160</v>
       </c>
@@ -19384,7 +19411,7 @@
       <c r="M464" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N464" s="48"/>
+      <c r="N464" s="47"/>
       <c r="O464" s="10">
         <v>3160</v>
       </c>
@@ -19414,7 +19441,7 @@
       <c r="M465" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N465" s="48"/>
+      <c r="N465" s="47"/>
       <c r="O465" s="10">
         <v>3160</v>
       </c>
@@ -19447,7 +19474,7 @@
       <c r="M466" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N466" s="48"/>
+      <c r="N466" s="47"/>
       <c r="O466" s="10">
         <v>3160</v>
       </c>
@@ -19480,7 +19507,7 @@
       <c r="M467" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N467" s="48"/>
+      <c r="N467" s="47"/>
       <c r="O467" s="10">
         <v>3161</v>
       </c>
@@ -19510,7 +19537,7 @@
       <c r="M468" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N468" s="48"/>
+      <c r="N468" s="47"/>
       <c r="O468" s="10">
         <v>3165</v>
       </c>
@@ -19543,7 +19570,7 @@
       <c r="M469" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N469" s="48"/>
+      <c r="N469" s="47"/>
       <c r="O469" s="10">
         <v>3165</v>
       </c>
@@ -19576,7 +19603,7 @@
       <c r="M470" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N470" s="48"/>
+      <c r="N470" s="47"/>
       <c r="O470" s="10">
         <v>3165</v>
       </c>
@@ -19606,7 +19633,7 @@
       <c r="M471" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N471" s="48"/>
+      <c r="N471" s="47"/>
       <c r="O471" s="10">
         <v>3165</v>
       </c>
@@ -19639,7 +19666,7 @@
       <c r="M472" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N472" s="48"/>
+      <c r="N472" s="47"/>
       <c r="O472" s="10">
         <v>3167</v>
       </c>
@@ -19672,7 +19699,7 @@
       <c r="M473" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N473" s="48"/>
+      <c r="N473" s="47"/>
       <c r="O473" s="10">
         <v>3167</v>
       </c>
@@ -19705,7 +19732,7 @@
       <c r="M474" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N474" s="48"/>
+      <c r="N474" s="47"/>
       <c r="O474" s="10">
         <v>3167</v>
       </c>
@@ -19738,7 +19765,7 @@
       <c r="M475" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N475" s="48"/>
+      <c r="N475" s="47"/>
       <c r="O475" s="10">
         <v>3167</v>
       </c>
@@ -19771,7 +19798,7 @@
       <c r="M476" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N476" s="48"/>
+      <c r="N476" s="47"/>
       <c r="O476" s="10">
         <v>3167</v>
       </c>
@@ -19804,7 +19831,7 @@
       <c r="M477" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N477" s="48"/>
+      <c r="N477" s="47"/>
       <c r="O477" s="10">
         <v>3169</v>
       </c>
@@ -19837,7 +19864,7 @@
       <c r="M478" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N478" s="48"/>
+      <c r="N478" s="47"/>
       <c r="O478" s="10">
         <v>3169</v>
       </c>
@@ -19870,7 +19897,7 @@
       <c r="M479" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N479" s="48"/>
+      <c r="N479" s="47"/>
       <c r="O479" s="10">
         <v>3171</v>
       </c>
@@ -19903,7 +19930,7 @@
       <c r="M480" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N480" s="48"/>
+      <c r="N480" s="47"/>
       <c r="O480" s="10">
         <v>3171</v>
       </c>
@@ -19936,7 +19963,7 @@
       <c r="M481" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N481" s="48"/>
+      <c r="N481" s="47"/>
       <c r="O481" s="10">
         <v>3171</v>
       </c>
@@ -19969,7 +19996,7 @@
       <c r="M482" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N482" s="48"/>
+      <c r="N482" s="47"/>
       <c r="O482" s="10">
         <v>3171</v>
       </c>
@@ -20002,7 +20029,7 @@
       <c r="M483" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N483" s="48"/>
+      <c r="N483" s="47"/>
       <c r="O483" s="10">
         <v>3171</v>
       </c>
@@ -20035,7 +20062,7 @@
       <c r="M484" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N484" s="48"/>
+      <c r="N484" s="47"/>
       <c r="O484" s="10">
         <v>3171</v>
       </c>
@@ -20068,7 +20095,7 @@
       <c r="M485" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N485" s="48"/>
+      <c r="N485" s="47"/>
       <c r="O485" s="10">
         <v>3171</v>
       </c>
@@ -20101,7 +20128,7 @@
       <c r="M486" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N486" s="48"/>
+      <c r="N486" s="47"/>
       <c r="O486" s="10">
         <v>3171</v>
       </c>
@@ -20134,7 +20161,7 @@
       <c r="M487" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N487" s="48"/>
+      <c r="N487" s="47"/>
       <c r="O487" s="10">
         <v>3172</v>
       </c>
@@ -20147,7 +20174,7 @@
       <c r="T487" s="36">
         <v>144</v>
       </c>
-      <c r="U487" s="40"/>
+      <c r="U487" s="62"/>
       <c r="V487" t="s">
         <v>457</v>
       </c>
@@ -20168,7 +20195,7 @@
       <c r="M488" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N488" s="48"/>
+      <c r="N488" s="47"/>
       <c r="O488" s="10">
         <v>3172</v>
       </c>
@@ -20201,7 +20228,7 @@
       <c r="M489" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N489" s="48"/>
+      <c r="N489" s="47"/>
       <c r="O489" s="10">
         <v>3172</v>
       </c>
@@ -20234,7 +20261,7 @@
       <c r="M490" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N490" s="48"/>
+      <c r="N490" s="47"/>
       <c r="O490" s="10">
         <v>3175</v>
       </c>
@@ -20267,7 +20294,7 @@
       <c r="M491" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N491" s="48"/>
+      <c r="N491" s="47"/>
       <c r="O491" s="10">
         <v>3176</v>
       </c>
@@ -20300,7 +20327,7 @@
       <c r="M492" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N492" s="48"/>
+      <c r="N492" s="47"/>
       <c r="O492" s="10">
         <v>3178</v>
       </c>
@@ -20333,7 +20360,7 @@
       <c r="M493" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N493" s="48"/>
+      <c r="N493" s="47"/>
       <c r="O493" s="10">
         <v>3178</v>
       </c>
@@ -20360,14 +20387,14 @@
       <c r="C494" s="36">
         <v>51</v>
       </c>
-      <c r="D494" s="48"/>
+      <c r="D494" s="47"/>
       <c r="F494" s="10">
         <v>98</v>
       </c>
       <c r="M494" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N494" s="48"/>
+      <c r="N494" s="47"/>
       <c r="O494" s="10">
         <v>3178</v>
       </c>
@@ -20400,7 +20427,7 @@
       <c r="M495" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N495" s="48"/>
+      <c r="N495" s="47"/>
       <c r="O495" s="10">
         <v>3178</v>
       </c>
@@ -20433,7 +20460,7 @@
       <c r="M496" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N496" s="48"/>
+      <c r="N496" s="47"/>
       <c r="O496" s="10">
         <v>3178</v>
       </c>
@@ -20466,7 +20493,7 @@
       <c r="M497" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N497" s="48"/>
+      <c r="N497" s="47"/>
       <c r="O497" s="10">
         <v>3178</v>
       </c>
@@ -20493,14 +20520,14 @@
       <c r="C498" s="36">
         <v>51</v>
       </c>
-      <c r="D498" s="48"/>
+      <c r="D498" s="47"/>
       <c r="F498" s="10">
         <v>98</v>
       </c>
       <c r="M498" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N498" s="48"/>
+      <c r="N498" s="47"/>
       <c r="O498" s="10">
         <v>3178</v>
       </c>
@@ -20533,7 +20560,7 @@
       <c r="M499" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N499" s="48"/>
+      <c r="N499" s="47"/>
       <c r="O499" s="10">
         <v>3179</v>
       </c>
@@ -20546,7 +20573,7 @@
       <c r="T499" s="36">
         <v>139</v>
       </c>
-      <c r="U499" s="40"/>
+      <c r="U499" s="62"/>
       <c r="V499" t="s">
         <v>472</v>
       </c>
@@ -20561,14 +20588,14 @@
       <c r="C500" s="36">
         <v>46</v>
       </c>
-      <c r="D500" s="48"/>
+      <c r="D500" s="47"/>
       <c r="F500" s="10">
         <v>97.8</v>
       </c>
       <c r="M500" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N500" s="48"/>
+      <c r="N500" s="47"/>
       <c r="O500" s="10">
         <v>3179</v>
       </c>
@@ -20581,7 +20608,7 @@
       <c r="T500" s="36">
         <v>132</v>
       </c>
-      <c r="U500" s="40"/>
+      <c r="U500" s="62"/>
       <c r="V500" t="s">
         <v>473</v>
       </c>
@@ -20602,7 +20629,7 @@
       <c r="M501" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N501" s="48"/>
+      <c r="N501" s="47"/>
       <c r="O501" s="10">
         <v>3179</v>
       </c>
@@ -20615,7 +20642,7 @@
       <c r="T501" s="36">
         <v>121</v>
       </c>
-      <c r="U501" s="40"/>
+      <c r="U501" s="62"/>
       <c r="V501" t="s">
         <v>474</v>
       </c>
@@ -20627,17 +20654,17 @@
       <c r="B502" s="5">
         <v>0.8</v>
       </c>
-      <c r="C502" s="46">
+      <c r="C502" s="45">
         <v>50</v>
       </c>
-      <c r="D502" s="49"/>
+      <c r="D502" s="48"/>
       <c r="F502" s="10">
         <v>98</v>
       </c>
       <c r="M502" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N502" s="48"/>
+      <c r="N502" s="47"/>
       <c r="O502" s="10">
         <v>3181</v>
       </c>
@@ -20650,7 +20677,7 @@
       <c r="T502" s="36">
         <v>120</v>
       </c>
-      <c r="U502" s="40"/>
+      <c r="U502" s="62"/>
       <c r="V502" t="s">
         <v>475</v>
       </c>
@@ -20665,14 +20692,14 @@
       <c r="C503" s="36">
         <v>38</v>
       </c>
-      <c r="D503" s="48"/>
+      <c r="D503" s="47"/>
       <c r="F503" s="10">
         <v>97.4</v>
       </c>
       <c r="M503" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N503" s="48"/>
+      <c r="N503" s="47"/>
       <c r="O503" s="10">
         <v>3182</v>
       </c>
@@ -20685,7 +20712,7 @@
       <c r="T503" s="36">
         <v>118</v>
       </c>
-      <c r="U503" s="40"/>
+      <c r="U503" s="62"/>
       <c r="V503" t="s">
         <v>476</v>
       </c>
@@ -20697,17 +20724,17 @@
       <c r="B504" s="5">
         <v>3.5</v>
       </c>
-      <c r="C504" s="46">
+      <c r="C504" s="45">
         <v>49</v>
       </c>
-      <c r="D504" s="49"/>
+      <c r="D504" s="48"/>
       <c r="F504" s="10">
         <v>100</v>
       </c>
       <c r="M504" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N504" s="48"/>
+      <c r="N504" s="47"/>
       <c r="O504" s="10">
         <v>3182</v>
       </c>
@@ -20720,7 +20747,7 @@
       <c r="T504" s="36">
         <v>110</v>
       </c>
-      <c r="U504" s="40"/>
+      <c r="U504" s="62"/>
       <c r="V504" t="s">
         <v>477</v>
       </c>
@@ -20732,17 +20759,17 @@
       <c r="B505" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C505" s="46">
+      <c r="C505" s="45">
         <v>45</v>
       </c>
-      <c r="D505" s="49"/>
+      <c r="D505" s="48"/>
       <c r="F505" s="10">
         <v>86.7</v>
       </c>
       <c r="M505" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N505" s="48"/>
+      <c r="N505" s="47"/>
       <c r="O505" s="10">
         <v>3182</v>
       </c>
@@ -20755,7 +20782,7 @@
       <c r="T505" s="10">
         <v>111</v>
       </c>
-      <c r="V505" s="52" t="s">
+      <c r="V505" s="51" t="s">
         <v>479</v>
       </c>
     </row>
@@ -20766,17 +20793,17 @@
       <c r="B506" s="5">
         <v>0.5</v>
       </c>
-      <c r="C506" s="46">
+      <c r="C506" s="45">
         <v>56</v>
       </c>
-      <c r="D506" s="49"/>
+      <c r="D506" s="48"/>
       <c r="F506" s="10">
         <v>96.4</v>
       </c>
       <c r="M506" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N506" s="48"/>
+      <c r="N506" s="47"/>
       <c r="O506" s="10">
         <v>3182</v>
       </c>
@@ -20789,7 +20816,7 @@
       <c r="T506" s="36">
         <v>108</v>
       </c>
-      <c r="U506" s="40"/>
+      <c r="U506" s="62"/>
       <c r="V506" t="s">
         <v>480</v>
       </c>
@@ -20801,17 +20828,17 @@
       <c r="B507" s="5">
         <v>0.7</v>
       </c>
-      <c r="C507" s="46">
+      <c r="C507" s="45">
         <v>46</v>
       </c>
-      <c r="D507" s="49"/>
+      <c r="D507" s="48"/>
       <c r="F507" s="10">
         <v>93.5</v>
       </c>
       <c r="M507" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N507" s="48"/>
+      <c r="N507" s="47"/>
       <c r="O507" s="10">
         <v>3182</v>
       </c>
@@ -20824,7 +20851,7 @@
       <c r="T507" s="36">
         <v>107</v>
       </c>
-      <c r="U507" s="40"/>
+      <c r="U507" s="62"/>
       <c r="V507" t="s">
         <v>481</v>
       </c>
@@ -20836,17 +20863,17 @@
       <c r="B508" s="5">
         <v>1.6</v>
       </c>
-      <c r="C508" s="46">
+      <c r="C508" s="45">
         <v>44</v>
       </c>
-      <c r="D508" s="49"/>
+      <c r="D508" s="48"/>
       <c r="F508" s="10">
         <v>84.1</v>
       </c>
       <c r="M508" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N508" s="48"/>
+      <c r="N508" s="47"/>
       <c r="O508" s="10">
         <v>3182</v>
       </c>
@@ -20870,10 +20897,10 @@
       <c r="B509" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C509" s="46">
+      <c r="C509" s="45">
         <v>68</v>
       </c>
-      <c r="D509" s="49">
+      <c r="D509" s="48">
         <v>270</v>
       </c>
       <c r="F509" s="10">
@@ -20882,7 +20909,7 @@
       <c r="M509" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N509" s="48"/>
+      <c r="N509" s="47"/>
       <c r="O509" s="10">
         <v>3182</v>
       </c>
@@ -20895,11 +20922,9 @@
       <c r="T509" s="36">
         <v>105</v>
       </c>
-      <c r="U509" s="40">
-        <v>359</v>
-      </c>
+      <c r="U509" s="62"/>
       <c r="V509" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="510" spans="1:22" x14ac:dyDescent="0.25">
@@ -20909,10 +20934,10 @@
       <c r="B510" s="5">
         <v>8.1</v>
       </c>
-      <c r="C510" s="46">
+      <c r="C510" s="45">
         <v>60</v>
       </c>
-      <c r="D510" s="49">
+      <c r="D510" s="48">
         <v>50</v>
       </c>
       <c r="F510" s="10">
@@ -20921,7 +20946,7 @@
       <c r="M510" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N510" s="48"/>
+      <c r="N510" s="47"/>
       <c r="O510" s="10">
         <v>3184</v>
       </c>
@@ -20934,11 +20959,8 @@
       <c r="T510" s="36">
         <v>101</v>
       </c>
-      <c r="U510" s="37">
-        <v>500</v>
-      </c>
       <c r="V510" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="511" spans="1:22" x14ac:dyDescent="0.25">
@@ -20951,19 +20973,19 @@
       <c r="C511" s="10">
         <v>47</v>
       </c>
-      <c r="D511" s="47">
+      <c r="D511" s="46">
         <v>994</v>
       </c>
       <c r="F511" s="10">
         <v>93.6</v>
       </c>
-      <c r="L511" s="47">
+      <c r="L511" s="46">
         <v>72.3</v>
       </c>
       <c r="M511" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N511" s="49"/>
+      <c r="N511" s="48"/>
       <c r="O511" s="10">
         <v>3184</v>
       </c>
@@ -20973,14 +20995,11 @@
       <c r="Q511">
         <v>9</v>
       </c>
-      <c r="T511" s="46">
+      <c r="T511" s="45">
         <v>102</v>
       </c>
-      <c r="U511" s="37">
-        <v>559</v>
-      </c>
       <c r="V511" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="512" spans="1:22" x14ac:dyDescent="0.25">
@@ -20993,19 +21012,19 @@
       <c r="C512" s="10">
         <v>53</v>
       </c>
-      <c r="D512" s="47">
+      <c r="D512" s="46">
         <v>457</v>
       </c>
       <c r="F512" s="10">
         <v>92.5</v>
       </c>
-      <c r="L512" s="47">
+      <c r="L512" s="46">
         <v>58</v>
       </c>
       <c r="M512" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N512" s="49"/>
+      <c r="N512" s="48"/>
       <c r="O512" s="10">
         <v>3184</v>
       </c>
@@ -21015,14 +21034,11 @@
       <c r="Q512">
         <v>9</v>
       </c>
-      <c r="T512" s="46">
+      <c r="T512" s="45">
         <v>101</v>
       </c>
-      <c r="U512" s="37">
-        <v>579</v>
-      </c>
       <c r="V512" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="513" spans="1:22" x14ac:dyDescent="0.25">
@@ -21035,13 +21051,13 @@
       <c r="C513" s="10">
         <v>51</v>
       </c>
-      <c r="D513" s="47">
+      <c r="D513" s="46">
         <v>375</v>
       </c>
       <c r="F513" s="10">
         <v>92.2</v>
       </c>
-      <c r="L513" s="47">
+      <c r="L513" s="46">
         <v>72</v>
       </c>
       <c r="M513" s="36" t="s">
@@ -21059,11 +21075,8 @@
       <c r="T513" s="10">
         <v>103</v>
       </c>
-      <c r="U513" s="37">
-        <v>624</v>
-      </c>
       <c r="V513" s="16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="514" spans="1:22" x14ac:dyDescent="0.25">
@@ -21076,19 +21089,19 @@
       <c r="C514" s="10">
         <v>52</v>
       </c>
-      <c r="D514" s="47">
+      <c r="D514" s="46">
         <v>314</v>
       </c>
       <c r="F514" s="10">
         <v>94.2</v>
       </c>
-      <c r="L514" s="47">
+      <c r="L514" s="46">
         <v>61.8</v>
       </c>
       <c r="M514" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N514" s="48"/>
+      <c r="N514" s="47"/>
       <c r="O514" s="10">
         <v>3184</v>
       </c>
@@ -21100,9 +21113,6 @@
       </c>
       <c r="T514" s="36">
         <v>98</v>
-      </c>
-      <c r="U514" s="37">
-        <v>696</v>
       </c>
     </row>
     <row r="515" spans="1:22" x14ac:dyDescent="0.25">
@@ -21115,13 +21125,13 @@
       <c r="C515" s="10">
         <v>65</v>
       </c>
-      <c r="D515" s="47">
+      <c r="D515" s="46">
         <v>430</v>
       </c>
       <c r="F515" s="10">
         <v>90.8</v>
       </c>
-      <c r="L515" s="47">
+      <c r="L515" s="46">
         <v>58.6</v>
       </c>
       <c r="M515" s="36" t="s">
@@ -21139,11 +21149,8 @@
       <c r="T515" s="36">
         <v>94</v>
       </c>
-      <c r="U515" s="37">
-        <v>777</v>
-      </c>
       <c r="V515" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="516" spans="1:22" x14ac:dyDescent="0.25">
@@ -21156,13 +21163,13 @@
       <c r="C516" s="10">
         <v>44</v>
       </c>
-      <c r="D516" s="47">
+      <c r="D516" s="46">
         <v>354</v>
       </c>
       <c r="F516" s="10">
         <v>90.9</v>
       </c>
-      <c r="L516" s="47">
+      <c r="L516" s="46">
         <v>59.6</v>
       </c>
       <c r="M516" s="36" t="s">
@@ -21177,11 +21184,8 @@
       <c r="T516" s="10">
         <v>95</v>
       </c>
-      <c r="U516" s="37">
-        <v>838</v>
-      </c>
       <c r="V516" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="517" spans="1:22" x14ac:dyDescent="0.25">
@@ -21192,7 +21196,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="V517" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="518" spans="1:22" x14ac:dyDescent="0.25">
@@ -21203,7 +21207,7 @@
         <v>10.6</v>
       </c>
       <c r="V518" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="519" spans="1:22" x14ac:dyDescent="0.25">
@@ -21216,19 +21220,19 @@
       <c r="C519" s="10">
         <v>140</v>
       </c>
-      <c r="D519" s="47">
+      <c r="D519" s="46">
         <v>111</v>
       </c>
       <c r="F519" s="10">
         <v>87.9</v>
       </c>
-      <c r="L519" s="47">
+      <c r="L519" s="46">
         <v>78.400000000000006</v>
       </c>
       <c r="M519" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N519" s="47">
+      <c r="N519" s="46">
         <v>100</v>
       </c>
       <c r="O519" s="10">
@@ -21243,11 +21247,11 @@
       <c r="T519" s="10">
         <v>110</v>
       </c>
-      <c r="U519" s="37">
+      <c r="U519" s="61">
         <v>1051</v>
       </c>
       <c r="V519" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="520" spans="1:22" x14ac:dyDescent="0.25">
@@ -21257,7 +21261,7 @@
       <c r="B520" s="5">
         <v>4.3</v>
       </c>
-      <c r="D520" s="47">
+      <c r="D520" s="46">
         <v>235</v>
       </c>
       <c r="O520" s="10">
@@ -21267,7 +21271,7 @@
         <v>2798</v>
       </c>
       <c r="V520" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="521" spans="1:22" x14ac:dyDescent="0.25">
@@ -21277,19 +21281,19 @@
       <c r="B521" s="5">
         <v>1.7</v>
       </c>
-      <c r="D521" s="47">
+      <c r="D521" s="46">
         <v>170</v>
       </c>
       <c r="F521" s="10">
         <v>88.1</v>
       </c>
-      <c r="L521" s="47">
+      <c r="L521" s="46">
         <v>82.9</v>
       </c>
       <c r="M521" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N521" s="47">
+      <c r="N521" s="46">
         <v>155</v>
       </c>
       <c r="O521" s="10">
@@ -21305,7 +21309,7 @@
         <v>107</v>
       </c>
       <c r="V521" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="522" spans="1:22" x14ac:dyDescent="0.25">
@@ -21318,19 +21322,19 @@
       <c r="C522" s="10">
         <v>92</v>
       </c>
-      <c r="D522" s="47">
+      <c r="D522" s="46">
         <v>158</v>
       </c>
       <c r="F522" s="10">
         <v>92</v>
       </c>
-      <c r="L522" s="47">
+      <c r="L522" s="46">
         <v>62.7</v>
       </c>
       <c r="M522" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N522" s="47">
+      <c r="N522" s="46">
         <v>252</v>
       </c>
       <c r="O522" s="10">
@@ -21356,19 +21360,19 @@
       <c r="C523" s="10">
         <v>38</v>
       </c>
-      <c r="D523" s="47">
+      <c r="D523" s="46">
         <v>194</v>
       </c>
       <c r="F523" s="10">
         <v>86.8</v>
       </c>
-      <c r="L523" s="47">
+      <c r="L523" s="46">
         <v>61.3</v>
       </c>
       <c r="M523" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N523" s="47">
+      <c r="N523" s="46">
         <v>322</v>
       </c>
       <c r="O523" s="10">
@@ -21394,19 +21398,19 @@
       <c r="C524" s="10">
         <v>40</v>
       </c>
-      <c r="D524" s="47">
+      <c r="D524" s="46">
         <v>239</v>
       </c>
       <c r="F524" s="10">
         <v>85</v>
       </c>
-      <c r="L524" s="47">
+      <c r="L524" s="46">
         <v>48.5</v>
       </c>
       <c r="M524" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N524" s="47">
+      <c r="N524" s="46">
         <v>405</v>
       </c>
       <c r="O524" s="10">
@@ -21422,7 +21426,7 @@
         <v>106</v>
       </c>
       <c r="V524" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="525" spans="1:22" x14ac:dyDescent="0.25">
@@ -21435,19 +21439,19 @@
       <c r="C525" s="10">
         <v>42</v>
       </c>
-      <c r="D525" s="47">
+      <c r="D525" s="46">
         <v>118</v>
       </c>
       <c r="F525" s="10">
         <v>95.2</v>
       </c>
-      <c r="L525" s="47">
+      <c r="L525" s="46">
         <v>56.8</v>
       </c>
       <c r="M525" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N525" s="47">
+      <c r="N525" s="46">
         <v>412</v>
       </c>
       <c r="O525" s="10">
@@ -21463,7 +21467,7 @@
         <v>101</v>
       </c>
       <c r="V525" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="526" spans="1:22" x14ac:dyDescent="0.25">
@@ -21476,19 +21480,19 @@
       <c r="C526" s="10">
         <v>48</v>
       </c>
-      <c r="D526" s="47">
+      <c r="D526" s="46">
         <v>164</v>
       </c>
       <c r="F526" s="10">
         <v>93.8</v>
       </c>
-      <c r="L526" s="47">
+      <c r="L526" s="46">
         <v>61.6</v>
       </c>
       <c r="M526" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="N526" s="47">
+      <c r="N526" s="46">
         <v>436</v>
       </c>
       <c r="O526" s="10">
@@ -21503,12 +21507,12 @@
       <c r="R526" s="2">
         <v>1904</v>
       </c>
-      <c r="S526" s="54"/>
+      <c r="S526" s="53"/>
       <c r="T526" s="10">
         <v>98</v>
       </c>
       <c r="V526" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="527" spans="1:22" x14ac:dyDescent="0.25">
@@ -21539,12 +21543,12 @@
       <c r="R527" s="2">
         <v>894</v>
       </c>
-      <c r="S527" s="54"/>
+      <c r="S527" s="53"/>
       <c r="T527" s="10">
         <v>115</v>
       </c>
       <c r="V527" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="528" spans="1:22" x14ac:dyDescent="0.25">
@@ -21563,9 +21567,9 @@
       <c r="R528" s="2">
         <v>1838</v>
       </c>
-      <c r="S528" s="54"/>
-      <c r="V528" s="56" t="s">
-        <v>515</v>
+      <c r="S528" s="53"/>
+      <c r="V528" s="55" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="529" spans="1:22" x14ac:dyDescent="0.25">
@@ -21578,9 +21582,9 @@
       <c r="R529" s="2">
         <v>1775</v>
       </c>
-      <c r="S529" s="54"/>
+      <c r="S529" s="53"/>
       <c r="V529" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="530" spans="1:22" x14ac:dyDescent="0.25">
@@ -21599,9 +21603,9 @@
       <c r="R530" s="2">
         <v>1577</v>
       </c>
-      <c r="S530" s="54"/>
+      <c r="S530" s="53"/>
       <c r="V530" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="531" spans="1:22" x14ac:dyDescent="0.25">
@@ -21614,16 +21618,16 @@
       <c r="R531" s="2">
         <v>1534</v>
       </c>
-      <c r="S531" s="54"/>
+      <c r="S531" s="53"/>
       <c r="V531" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="532" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
         <v>43806</v>
       </c>
-      <c r="B532" s="59">
+      <c r="B532" s="58">
         <v>4.5999999999999996</v>
       </c>
       <c r="O532" s="10">
@@ -21635,16 +21639,16 @@
       <c r="R532" s="2">
         <v>1365</v>
       </c>
-      <c r="S532" s="54"/>
+      <c r="S532" s="53"/>
       <c r="V532" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="533" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
         <v>43807</v>
       </c>
-      <c r="B533" s="59">
+      <c r="B533" s="58">
         <v>3.7</v>
       </c>
       <c r="Q533">
@@ -21653,69 +21657,69 @@
       <c r="R533" s="2">
         <v>1224</v>
       </c>
-      <c r="S533" s="54"/>
+      <c r="S533" s="53"/>
       <c r="V533" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="534" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
         <v>43808</v>
       </c>
-      <c r="B534" s="59">
+      <c r="B534" s="58">
         <v>3.2</v>
       </c>
       <c r="R534" s="2">
         <v>1075</v>
       </c>
-      <c r="S534" s="54"/>
+      <c r="S534" s="53"/>
       <c r="V534" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="535" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
         <v>43809</v>
       </c>
-      <c r="B535" s="59">
+      <c r="B535" s="58">
         <v>2.5</v>
       </c>
       <c r="R535" s="2">
         <v>971</v>
       </c>
-      <c r="S535" s="54"/>
+      <c r="S535" s="53"/>
       <c r="V535" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="536" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
         <v>43810</v>
       </c>
-      <c r="B536" s="59">
+      <c r="B536" s="58">
         <v>1.8</v>
       </c>
       <c r="R536" s="2">
         <v>886</v>
       </c>
-      <c r="S536" s="54"/>
+      <c r="S536" s="53"/>
       <c r="V536" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="537" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
         <v>43811</v>
       </c>
-      <c r="B537" s="59">
+      <c r="B537" s="58">
         <v>5.4</v>
       </c>
       <c r="R537" s="2">
         <v>692</v>
       </c>
-      <c r="S537" s="54"/>
+      <c r="S537" s="53"/>
       <c r="V537" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="538" spans="1:22" x14ac:dyDescent="0.25">
@@ -21728,9 +21732,9 @@
       <c r="R538" s="2">
         <v>471</v>
       </c>
-      <c r="S538" s="54"/>
+      <c r="S538" s="53"/>
       <c r="V538" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="539" spans="1:22" x14ac:dyDescent="0.25">
@@ -21749,9 +21753,9 @@
       <c r="R539" s="2">
         <v>197</v>
       </c>
-      <c r="S539" s="54"/>
+      <c r="S539" s="53"/>
       <c r="V539" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="540" spans="1:22" x14ac:dyDescent="0.25">
@@ -21764,9 +21768,9 @@
       <c r="R540" s="2">
         <v>0</v>
       </c>
-      <c r="S540" s="54"/>
+      <c r="S540" s="53"/>
       <c r="V540" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="541" spans="1:22" x14ac:dyDescent="0.25">
@@ -21785,11 +21789,11 @@
       <c r="R541" s="2">
         <v>0</v>
       </c>
-      <c r="S541" s="54" t="s">
-        <v>544</v>
+      <c r="S541" s="53" t="s">
+        <v>543</v>
       </c>
       <c r="V541" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="542" spans="1:22" x14ac:dyDescent="0.25">
@@ -21805,11 +21809,11 @@
       <c r="P542">
         <v>1601</v>
       </c>
-      <c r="S542" s="53">
+      <c r="S542" s="52">
         <v>1904</v>
       </c>
       <c r="V542" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="543" spans="1:22" x14ac:dyDescent="0.25">
@@ -21828,11 +21832,11 @@
       <c r="P543">
         <v>1620</v>
       </c>
-      <c r="S543" s="53">
+      <c r="S543" s="52">
         <v>1864</v>
       </c>
       <c r="V543" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="544" spans="1:22" x14ac:dyDescent="0.25">
@@ -21857,14 +21861,14 @@
       <c r="P544">
         <v>1707</v>
       </c>
-      <c r="S544" s="53">
+      <c r="S544" s="52">
         <v>1762</v>
       </c>
       <c r="T544" s="10">
         <v>4201</v>
       </c>
       <c r="V544" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="545" spans="1:25" x14ac:dyDescent="0.25">
@@ -21889,14 +21893,14 @@
       <c r="P545">
         <v>1757</v>
       </c>
-      <c r="S545" s="53">
+      <c r="S545" s="52">
         <v>1697</v>
       </c>
       <c r="T545" s="10">
         <v>4201</v>
       </c>
       <c r="V545" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="546" spans="1:25" x14ac:dyDescent="0.25">
@@ -21918,14 +21922,14 @@
       <c r="P546">
         <v>1851</v>
       </c>
-      <c r="S546" s="53">
+      <c r="S546" s="52">
         <v>1559</v>
       </c>
       <c r="T546" s="10">
         <v>4201</v>
       </c>
       <c r="V546" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="547" spans="1:25" x14ac:dyDescent="0.25">
@@ -21950,14 +21954,14 @@
       <c r="P547">
         <v>1905</v>
       </c>
-      <c r="S547" s="53">
+      <c r="S547" s="52">
         <v>1485</v>
       </c>
       <c r="T547" s="10">
         <v>4201</v>
       </c>
       <c r="V547" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="548" spans="1:25" x14ac:dyDescent="0.25">
@@ -21982,7 +21986,7 @@
       <c r="P548">
         <v>1973</v>
       </c>
-      <c r="S548" s="53">
+      <c r="S548" s="52">
         <v>1382</v>
       </c>
       <c r="T548" s="10">
@@ -22011,11 +22015,11 @@
       <c r="P549">
         <v>2067</v>
       </c>
-      <c r="S549" s="53">
+      <c r="S549" s="52">
         <v>1238</v>
       </c>
       <c r="V549" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="550" spans="1:25" x14ac:dyDescent="0.25">
@@ -22040,14 +22044,14 @@
       <c r="P550">
         <v>2123</v>
       </c>
-      <c r="S550" s="53">
+      <c r="S550" s="52">
         <v>1137</v>
       </c>
       <c r="T550" s="10">
         <v>4201</v>
       </c>
       <c r="V550" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="551" spans="1:25" x14ac:dyDescent="0.25">
@@ -22072,14 +22076,14 @@
       <c r="P551">
         <v>2217</v>
       </c>
-      <c r="S551" s="53">
+      <c r="S551" s="52">
         <v>978</v>
       </c>
       <c r="T551" s="10">
         <v>4136</v>
       </c>
       <c r="V551" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="552" spans="1:25" x14ac:dyDescent="0.25">
@@ -22104,7 +22108,7 @@
       <c r="P552">
         <v>2282</v>
       </c>
-      <c r="S552" s="53">
+      <c r="S552" s="52">
         <v>870</v>
       </c>
       <c r="T552" s="10">
@@ -22134,7 +22138,7 @@
       <c r="P553">
         <v>2348</v>
       </c>
-      <c r="S553" s="53">
+      <c r="S553" s="52">
         <v>770</v>
       </c>
       <c r="T553" s="10">
@@ -22155,7 +22159,7 @@
       <c r="P554">
         <v>2367</v>
       </c>
-      <c r="S554" s="53">
+      <c r="S554" s="52">
         <v>734</v>
       </c>
       <c r="V554" s="16"/>
@@ -22182,14 +22186,14 @@
       <c r="P555">
         <v>2409</v>
       </c>
-      <c r="S555" s="53">
+      <c r="S555" s="52">
         <v>670</v>
       </c>
       <c r="T555" s="10">
         <v>3933</v>
       </c>
       <c r="V555" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="556" spans="1:25" x14ac:dyDescent="0.25">
@@ -22214,14 +22218,14 @@
       <c r="P556">
         <v>2490</v>
       </c>
-      <c r="S556" s="53">
+      <c r="S556" s="52">
         <v>542</v>
       </c>
       <c r="T556" s="10">
         <v>3856</v>
       </c>
       <c r="V556" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="557" spans="1:25" x14ac:dyDescent="0.25">
@@ -22246,14 +22250,14 @@
       <c r="P557">
         <v>2550</v>
       </c>
-      <c r="S557" s="53">
+      <c r="S557" s="52">
         <v>440</v>
       </c>
       <c r="T557" s="10">
         <v>3778</v>
       </c>
       <c r="V557" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="558" spans="1:25" x14ac:dyDescent="0.25">
@@ -22278,7 +22282,7 @@
       <c r="P558">
         <v>2587</v>
       </c>
-      <c r="S558" s="53">
+      <c r="S558" s="52">
         <v>384</v>
       </c>
       <c r="T558" s="10">
@@ -22308,14 +22312,14 @@
       <c r="P559">
         <v>2680</v>
       </c>
-      <c r="S559" s="53">
+      <c r="S559" s="52">
         <v>230</v>
       </c>
       <c r="T559" s="10">
         <v>3623</v>
       </c>
       <c r="V559" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="560" spans="1:25" x14ac:dyDescent="0.25">
@@ -22340,18 +22344,18 @@
       <c r="P560">
         <v>2813</v>
       </c>
-      <c r="S560" s="54">
+      <c r="S560" s="53">
         <v>0</v>
       </c>
       <c r="T560" s="10">
         <v>3550</v>
       </c>
-      <c r="V560" s="57" t="s">
-        <v>543</v>
-      </c>
-      <c r="W560" s="58"/>
-      <c r="X560" s="58"/>
-      <c r="Y560" s="58"/>
+      <c r="V560" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="W560" s="57"/>
+      <c r="X560" s="57"/>
+      <c r="Y560" s="57"/>
     </row>
     <row r="561" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
@@ -22375,8 +22379,8 @@
       <c r="P561">
         <v>2815</v>
       </c>
-      <c r="S561" s="53" t="s">
-        <v>546</v>
+      <c r="S561" s="52" t="s">
+        <v>545</v>
       </c>
       <c r="T561" s="10">
         <v>3490</v>
@@ -22405,14 +22409,14 @@
       <c r="P562">
         <v>2817</v>
       </c>
-      <c r="S562" s="53">
+      <c r="S562" s="52">
         <v>1712</v>
       </c>
       <c r="T562" s="10">
         <v>3423</v>
       </c>
       <c r="V562" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="563" spans="1:22" x14ac:dyDescent="0.25">
@@ -22437,7 +22441,7 @@
       <c r="P563">
         <v>2819</v>
       </c>
-      <c r="S563" s="53">
+      <c r="S563" s="52">
         <v>1659</v>
       </c>
       <c r="T563" s="10">
@@ -22466,14 +22470,14 @@
       <c r="P564">
         <v>2819</v>
       </c>
-      <c r="S564" s="53">
+      <c r="S564" s="52">
         <v>1589</v>
       </c>
       <c r="T564" s="10">
         <v>3354</v>
       </c>
       <c r="V564" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="565" spans="1:22" x14ac:dyDescent="0.25">
@@ -22498,14 +22502,14 @@
       <c r="P565">
         <v>2819</v>
       </c>
-      <c r="S565" s="53">
+      <c r="S565" s="52">
         <v>1352</v>
       </c>
       <c r="T565" s="10">
         <v>3319</v>
       </c>
       <c r="V565" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="566" spans="1:22" x14ac:dyDescent="0.25">
@@ -22530,14 +22534,14 @@
       <c r="P566">
         <v>2818</v>
       </c>
-      <c r="S566" s="53">
+      <c r="S566" s="52">
         <v>996</v>
       </c>
       <c r="T566" s="10">
         <v>3273</v>
       </c>
       <c r="V566" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="567" spans="1:22" x14ac:dyDescent="0.25">
@@ -22562,14 +22566,14 @@
       <c r="P567">
         <v>2816</v>
       </c>
-      <c r="S567" s="53">
+      <c r="S567" s="52">
         <v>390</v>
       </c>
       <c r="T567" s="10">
         <v>3227</v>
       </c>
       <c r="V567" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="568" spans="1:22" x14ac:dyDescent="0.25">
@@ -22594,7 +22598,7 @@
       <c r="P568">
         <v>2816</v>
       </c>
-      <c r="S568" s="53">
+      <c r="S568" s="52">
         <v>263</v>
       </c>
       <c r="T568" s="10">
@@ -22615,14 +22619,14 @@
       <c r="P569" s="2">
         <v>2819</v>
       </c>
-      <c r="S569" s="54">
+      <c r="S569" s="53">
         <v>0</v>
       </c>
       <c r="T569" s="36">
         <v>4201</v>
       </c>
       <c r="V569" s="31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="570" spans="1:22" x14ac:dyDescent="0.25">
@@ -22633,7 +22637,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V570" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="571" spans="1:22" x14ac:dyDescent="0.25">
@@ -22653,7 +22657,7 @@
         <v>6.6</v>
       </c>
       <c r="V572" s="16" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="573" spans="1:22" x14ac:dyDescent="0.25">
@@ -22664,7 +22668,7 @@
         <v>3</v>
       </c>
       <c r="V573" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="574" spans="1:22" x14ac:dyDescent="0.25">
@@ -22675,7 +22679,7 @@
         <v>12</v>
       </c>
       <c r="M574" s="36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O574" s="10">
         <v>3277</v>
@@ -22687,7 +22691,7 @@
         <v>4201</v>
       </c>
       <c r="V574" s="20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="575" spans="1:22" x14ac:dyDescent="0.25">
@@ -22737,7 +22741,7 @@
         <v>4201</v>
       </c>
       <c r="V576" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="577" spans="1:22" x14ac:dyDescent="0.25">
@@ -22750,7 +22754,7 @@
       <c r="C577" s="36">
         <v>1207</v>
       </c>
-      <c r="D577" s="48"/>
+      <c r="D577" s="47"/>
       <c r="E577" s="2"/>
       <c r="F577" s="36">
         <v>95.6</v>
@@ -22760,11 +22764,11 @@
       <c r="I577" s="2"/>
       <c r="J577" s="40"/>
       <c r="K577" s="2"/>
-      <c r="L577" s="48"/>
+      <c r="L577" s="47"/>
       <c r="M577" s="36">
         <v>1158</v>
       </c>
-      <c r="N577" s="48"/>
+      <c r="N577" s="47"/>
       <c r="O577" s="36">
         <v>3280</v>
       </c>
@@ -22773,13 +22777,13 @@
       </c>
       <c r="Q577" s="2"/>
       <c r="R577" s="2"/>
-      <c r="S577" s="54"/>
+      <c r="S577" s="53"/>
       <c r="T577" s="36">
         <v>4201</v>
       </c>
-      <c r="U577" s="40"/>
+      <c r="U577" s="62"/>
       <c r="V577" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="578" spans="1:22" x14ac:dyDescent="0.25">
@@ -22808,7 +22812,7 @@
         <v>4201</v>
       </c>
       <c r="V578" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="579" spans="1:22" x14ac:dyDescent="0.25">
@@ -22837,7 +22841,7 @@
         <v>4201</v>
       </c>
       <c r="V579" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="580" spans="1:22" x14ac:dyDescent="0.25">
@@ -22866,7 +22870,7 @@
         <v>4201</v>
       </c>
       <c r="V580" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="581" spans="1:22" x14ac:dyDescent="0.25">
@@ -22895,7 +22899,7 @@
         <v>4197</v>
       </c>
       <c r="V581" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="582" spans="1:22" x14ac:dyDescent="0.25">
@@ -22924,7 +22928,7 @@
         <v>4177</v>
       </c>
       <c r="V582" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="583" spans="1:22" x14ac:dyDescent="0.25">
@@ -22953,7 +22957,7 @@
         <v>3957</v>
       </c>
       <c r="V583" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="584" spans="1:22" x14ac:dyDescent="0.25">
@@ -22982,7 +22986,7 @@
         <v>3525</v>
       </c>
       <c r="V584" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="585" spans="1:22" x14ac:dyDescent="0.25">
@@ -23011,7 +23015,7 @@
         <v>3502</v>
       </c>
       <c r="V585" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="586" spans="1:22" x14ac:dyDescent="0.25">
@@ -23040,7 +23044,7 @@
         <v>3457</v>
       </c>
       <c r="V586" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="587" spans="1:22" x14ac:dyDescent="0.25">
@@ -23069,7 +23073,7 @@
         <v>3352</v>
       </c>
       <c r="V587" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="588" spans="1:22" x14ac:dyDescent="0.25">
@@ -23098,7 +23102,7 @@
         <v>3238</v>
       </c>
       <c r="V588" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="589" spans="1:22" x14ac:dyDescent="0.25">
@@ -23127,7 +23131,7 @@
         <v>3201</v>
       </c>
       <c r="V589" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="590" spans="1:22" x14ac:dyDescent="0.25">
@@ -23156,7 +23160,7 @@
         <v>3035</v>
       </c>
       <c r="V590" s="16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="591" spans="1:22" x14ac:dyDescent="0.25">
@@ -23172,7 +23176,7 @@
       <c r="F591" s="10">
         <v>65.2</v>
       </c>
-      <c r="M591" s="46">
+      <c r="M591" s="45">
         <v>2534</v>
       </c>
       <c r="O591" s="10">
@@ -23181,11 +23185,11 @@
       <c r="P591">
         <v>2825</v>
       </c>
-      <c r="T591" s="46">
+      <c r="T591" s="45">
         <v>2895</v>
       </c>
       <c r="V591" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="592" spans="1:22" x14ac:dyDescent="0.25">
@@ -23214,7 +23218,7 @@
         <v>2875</v>
       </c>
       <c r="V592" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="593" spans="1:22" x14ac:dyDescent="0.25">
@@ -23243,7 +23247,7 @@
         <v>2736</v>
       </c>
       <c r="V593" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="594" spans="1:22" x14ac:dyDescent="0.25">
@@ -23272,7 +23276,7 @@
         <v>2579</v>
       </c>
       <c r="V594" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="595" spans="1:22" x14ac:dyDescent="0.25">
@@ -23301,7 +23305,7 @@
         <v>2331</v>
       </c>
       <c r="V595" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="596" spans="1:22" x14ac:dyDescent="0.25">
@@ -23330,7 +23334,7 @@
         <v>2193</v>
       </c>
       <c r="V596" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="597" spans="1:22" x14ac:dyDescent="0.25">
@@ -23359,7 +23363,7 @@
         <v>1956</v>
       </c>
       <c r="V597" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="598" spans="1:22" x14ac:dyDescent="0.25">
@@ -23388,7 +23392,7 @@
         <v>1818</v>
       </c>
       <c r="V598" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="599" spans="1:22" x14ac:dyDescent="0.25">
@@ -23407,6 +23411,9 @@
       <c r="M599" s="10">
         <v>4063</v>
       </c>
+      <c r="N599" s="46">
+        <v>0</v>
+      </c>
       <c r="O599" s="10">
         <v>3289</v>
       </c>
@@ -23416,7 +23423,51 @@
       <c r="T599" s="10">
         <v>1719</v>
       </c>
+      <c r="U599" s="61">
+        <v>1079</v>
+      </c>
       <c r="V599" s="16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="600" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A600" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B600" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C600" s="10">
+        <v>675</v>
+      </c>
+      <c r="D600" s="46">
+        <v>309</v>
+      </c>
+      <c r="F600" s="10">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="L600" s="46">
+        <v>60.2</v>
+      </c>
+      <c r="M600" s="36">
+        <v>4201</v>
+      </c>
+      <c r="N600" s="46">
+        <v>216</v>
+      </c>
+      <c r="O600" s="10">
+        <v>3291</v>
+      </c>
+      <c r="P600">
+        <v>2824</v>
+      </c>
+      <c r="T600" s="10">
+        <v>1501</v>
+      </c>
+      <c r="U600" s="61">
+        <v>940</v>
+      </c>
+      <c r="V600" s="2" t="s">
         <v>586</v>
       </c>
     </row>
@@ -23467,7 +23518,7 @@
         <v>444</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -23649,7 +23700,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K18" s="44">
         <v>44075</v>
@@ -23663,7 +23714,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K19" s="44">
         <v>44105</v>
@@ -23677,7 +23728,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K20" s="44">
         <v>44136</v>
@@ -23691,7 +23742,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K21" s="44">
         <v>44166</v>
@@ -23765,12 +23816,12 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="590">
   <si>
     <t>Date</t>
   </si>
@@ -3826,6 +3826,12 @@
   </si>
   <si>
     <t>Non-mature cards left in Phrases Anki deck</t>
+  </si>
+  <si>
+    <t>Wow, am I missing having stories during the phrase card reviews! (I may end up adding them in after all if it proves necessary, but first I want to see whether I'll be able to learn them without any stories.) I made 6 outline changes to the single-word deck today. Reviewing the 420 due cards in the single-word deck took about 2 hours.</t>
+  </si>
+  <si>
+    <t>ROPE 3.0 was released this month</t>
   </si>
 </sst>
 </file>
@@ -5234,11 +5240,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="562519520"/>
-        <c:axId val="562520304"/>
+        <c:axId val="130223768"/>
+        <c:axId val="130224552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="562519520"/>
+        <c:axId val="130223768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5280,7 +5286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562520304"/>
+        <c:crossAx val="130224552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5288,7 +5294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="562520304"/>
+        <c:axId val="130224552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5339,7 +5345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562519520"/>
+        <c:crossAx val="130223768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5496,10 +5502,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$423:$T$594</c:f>
+              <c:f>Sheet1!$T$423:$T$601</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="172"/>
+                <c:ptCount val="179"/>
                 <c:pt idx="0">
                   <c:v>285</c:v>
                 </c:pt>
@@ -5874,6 +5880,27 @@
                 </c:pt>
                 <c:pt idx="171">
                   <c:v>2579</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2193</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1719</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5889,11 +5916,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="562523440"/>
-        <c:axId val="562515600"/>
+        <c:axId val="477252216"/>
+        <c:axId val="477251432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="562523440"/>
+        <c:axId val="477252216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5935,7 +5962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562515600"/>
+        <c:crossAx val="477251432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5943,7 +5970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="562515600"/>
+        <c:axId val="477251432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5994,7 +6021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562523440"/>
+        <c:crossAx val="477252216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6136,10 +6163,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$600</c:f>
+              <c:f>Sheet1!$M$576:$M$601</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6213,6 +6240,9 @@
                   <c:v>4063</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
@@ -6229,11 +6259,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="562524224"/>
-        <c:axId val="562516776"/>
+        <c:axId val="477251824"/>
+        <c:axId val="477253000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="562524224"/>
+        <c:axId val="477251824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6275,7 +6305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562516776"/>
+        <c:crossAx val="477253000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6283,7 +6313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="562516776"/>
+        <c:axId val="477253000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6336,7 +6366,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562524224"/>
+        <c:crossAx val="477251824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6483,10 +6513,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$600</c:f>
+              <c:f>Sheet1!$T$577:$T$601</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6558,6 +6588,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6599,11 +6632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="562512464"/>
-        <c:axId val="562514424"/>
+        <c:axId val="477251040"/>
+        <c:axId val="477250648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="562512464"/>
+        <c:axId val="477251040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6645,7 +6678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562514424"/>
+        <c:crossAx val="477250648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6653,7 +6686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="562514424"/>
+        <c:axId val="477250648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6705,7 +6738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562512464"/>
+        <c:crossAx val="477251040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9042,16 +9075,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>528993</xdr:colOff>
-      <xdr:row>603</xdr:row>
-      <xdr:rowOff>32855</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106580</xdr:colOff>
+      <xdr:row>609</xdr:row>
+      <xdr:rowOff>99116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>528653</xdr:colOff>
-      <xdr:row>619</xdr:row>
-      <xdr:rowOff>94768</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>122805</xdr:colOff>
+      <xdr:row>625</xdr:row>
+      <xdr:rowOff>161029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9073,15 +9106,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>783103</xdr:colOff>
-      <xdr:row>604</xdr:row>
-      <xdr:rowOff>153336</xdr:rowOff>
+      <xdr:colOff>741690</xdr:colOff>
+      <xdr:row>608</xdr:row>
+      <xdr:rowOff>145053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>31407</xdr:colOff>
-      <xdr:row>619</xdr:row>
-      <xdr:rowOff>39036</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>602907</xdr:colOff>
+      <xdr:row>623</xdr:row>
+      <xdr:rowOff>30753</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9435,11 +9468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF600"/>
+  <dimension ref="A1:AF601"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A568" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V602" sqref="V602"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D606" sqref="D606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9650,7 +9683,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000036)</f>
-        <v>1599.4799999999975</v>
+        <v>1606.0799999999974</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9676,7 +9709,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000035)</f>
-        <v>112756</v>
+        <v>113541</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -23471,6 +23504,44 @@
         <v>586</v>
       </c>
     </row>
+    <row r="601" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A601" s="4">
+        <v>43875</v>
+      </c>
+      <c r="B601" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="D601" s="46">
+        <v>785</v>
+      </c>
+      <c r="F601" s="10">
+        <v>82.3</v>
+      </c>
+      <c r="L601" s="47">
+        <v>38.5</v>
+      </c>
+      <c r="M601" s="10">
+        <v>4201</v>
+      </c>
+      <c r="N601" s="46">
+        <v>464</v>
+      </c>
+      <c r="O601" s="10">
+        <v>3291</v>
+      </c>
+      <c r="P601">
+        <v>2824</v>
+      </c>
+      <c r="T601" s="10">
+        <v>1362</v>
+      </c>
+      <c r="U601" s="61">
+        <v>840</v>
+      </c>
+      <c r="V601" s="16" t="s">
+        <v>588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23482,8 +23553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23502,7 +23573,7 @@
       </c>
       <c r="D2">
         <f>SUM(B6:B1001)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -23602,6 +23673,12 @@
       <c r="K10" s="44">
         <v>43831</v>
       </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
@@ -23820,6 +23897,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="43">
+        <v>43875</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
       <c r="D29" t="s">
         <v>567</v>
       </c>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="591">
   <si>
     <t>Date</t>
   </si>
@@ -3592,29 +3592,6 @@
     <t>Reduced column G count by 101 in 268 minutes (Only about 22 per hour, but I was also helping Mom with computer stuff during this time)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">I've now added in stories (where needed) for all outlines in the top 2000! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Averaged about 31 outline additions per hour over a 3-hour, 53-minute period, and then about 27 outline additions per hour over a 5-hour, 45-minute period. (I think I lost focus over time.)</t>
-    </r>
-  </si>
-  <si>
     <t>Reduced column G count by 64 in about 123 minutes.</t>
   </si>
   <si>
@@ -3828,10 +3805,36 @@
     <t>Non-mature cards left in Phrases Anki deck</t>
   </si>
   <si>
-    <t>Wow, am I missing having stories during the phrase card reviews! (I may end up adding them in after all if it proves necessary, but first I want to see whether I'll be able to learn them without any stories.) I made 6 outline changes to the single-word deck today. Reviewing the 420 due cards in the single-word deck took about 2 hours.</t>
-  </si>
-  <si>
     <t>ROPE 3.0 was released this month</t>
+  </si>
+  <si>
+    <t>Wow, am I missing having stories during the phrase card reviews! (I may end up adding them in after all if it proves necessary, but first I want to see whether I'll be able to learn them without any stories.) I made 6 outline changes to the single-word deck today. Reviewing the 420 due cards in the single-word deck took about 2 hours. (Single-word deck card review count is an estimate.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I've now added in stories (where needed) for all outlines in the top 2000! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Averaged about 31 outline [I think I meant stories here] additions per hour over a 3-hour, 53-minute period, and then about 27 outline additions per hour over a 5-hour, 45-minute period. (I think I lost focus over time.)</t>
+    </r>
+  </si>
+  <si>
+    <t>I'm now starting to add stories to my phrase deck! I added about 270 stories today (through phrase #523). In one stretch of 4.5 hours or so, I added in 126 stories (so about 28 per hour) and added stories (if deened necessary) through 216 cards.</t>
   </si>
 </sst>
 </file>
@@ -4196,10 +4199,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$73:$F$512</c:f>
+              <c:f>Sheet1!$F$73:$F$601</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="440"/>
+                <c:ptCount val="529"/>
                 <c:pt idx="0">
                   <c:v>62.8</c:v>
                 </c:pt>
@@ -5225,6 +5228,192 @@
                 </c:pt>
                 <c:pt idx="439">
                   <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>92.2</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>90.9</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>87.9</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>88.1</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>86.8</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>95.2</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>93.8</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>95.4</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>94.9</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>93.1</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>91.7</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>93.9</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>68.2</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>67.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>78.7</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>82.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5240,11 +5429,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="130223768"/>
-        <c:axId val="130224552"/>
+        <c:axId val="575072712"/>
+        <c:axId val="575070360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="130223768"/>
+        <c:axId val="575072712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5286,7 +5475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130224552"/>
+        <c:crossAx val="575070360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5294,7 +5483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130224552"/>
+        <c:axId val="575070360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5345,7 +5534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130223768"/>
+        <c:crossAx val="575072712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5916,11 +6105,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="477252216"/>
-        <c:axId val="477251432"/>
+        <c:axId val="575075848"/>
+        <c:axId val="575077808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="477252216"/>
+        <c:axId val="575075848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5962,7 +6151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477251432"/>
+        <c:crossAx val="575077808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5970,7 +6159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477251432"/>
+        <c:axId val="575077808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6021,7 +6210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477252216"/>
+        <c:crossAx val="575075848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6163,10 +6352,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$601</c:f>
+              <c:f>Sheet1!$M$576:$M$602</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6243,6 +6432,9 @@
                   <c:v>4201</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
@@ -6259,11 +6451,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="477251824"/>
-        <c:axId val="477253000"/>
+        <c:axId val="575071144"/>
+        <c:axId val="575071536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="477251824"/>
+        <c:axId val="575071144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6305,7 +6497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477253000"/>
+        <c:crossAx val="575071536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6313,7 +6505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477253000"/>
+        <c:axId val="575071536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6366,7 +6558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477251824"/>
+        <c:crossAx val="575071144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6513,10 +6705,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$601</c:f>
+              <c:f>Sheet1!$T$577:$T$602</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6591,6 +6783,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6632,11 +6827,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="477251040"/>
-        <c:axId val="477250648"/>
+        <c:axId val="575077024"/>
+        <c:axId val="575073888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="477251040"/>
+        <c:axId val="575077024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6678,7 +6873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477250648"/>
+        <c:crossAx val="575073888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6686,7 +6881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477250648"/>
+        <c:axId val="575073888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6738,7 +6933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477251040"/>
+        <c:crossAx val="575077024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9468,11 +9663,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF601"/>
+  <dimension ref="A1:AF602"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D606" sqref="D606"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V603" sqref="V603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9512,7 +9707,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -9683,7 +9878,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000036)</f>
-        <v>1606.0799999999974</v>
+        <v>1616.6799999999973</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9709,7 +9904,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000035)</f>
-        <v>113541</v>
+        <v>114431</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -9768,19 +9963,19 @@
         <v>511</v>
       </c>
       <c r="S17" s="52" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T17" s="10" t="s">
         <v>485</v>
       </c>
       <c r="U17" s="61" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="V17" t="s">
+        <v>578</v>
+      </c>
+      <c r="W17" t="s">
         <v>579</v>
-      </c>
-      <c r="W17" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -15056,7 +15251,7 @@
         <v>2950</v>
       </c>
       <c r="V295" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.25">
@@ -21823,7 +22018,7 @@
         <v>0</v>
       </c>
       <c r="S541" s="53" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V541" s="16" t="s">
         <v>527</v>
@@ -22116,7 +22311,7 @@
         <v>4136</v>
       </c>
       <c r="V551" s="16" t="s">
-        <v>537</v>
+        <v>589</v>
       </c>
     </row>
     <row r="552" spans="1:25" x14ac:dyDescent="0.25">
@@ -22226,7 +22421,7 @@
         <v>3933</v>
       </c>
       <c r="V555" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="556" spans="1:25" x14ac:dyDescent="0.25">
@@ -22258,7 +22453,7 @@
         <v>3856</v>
       </c>
       <c r="V556" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="557" spans="1:25" x14ac:dyDescent="0.25">
@@ -22290,7 +22485,7 @@
         <v>3778</v>
       </c>
       <c r="V557" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="558" spans="1:25" x14ac:dyDescent="0.25">
@@ -22352,7 +22547,7 @@
         <v>3623</v>
       </c>
       <c r="V559" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="560" spans="1:25" x14ac:dyDescent="0.25">
@@ -22384,7 +22579,7 @@
         <v>3550</v>
       </c>
       <c r="V560" s="56" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="W560" s="57"/>
       <c r="X560" s="57"/>
@@ -22413,7 +22608,7 @@
         <v>2815</v>
       </c>
       <c r="S561" s="52" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T561" s="10">
         <v>3490</v>
@@ -22449,7 +22644,7 @@
         <v>3423</v>
       </c>
       <c r="V562" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="563" spans="1:22" x14ac:dyDescent="0.25">
@@ -22510,7 +22705,7 @@
         <v>3354</v>
       </c>
       <c r="V564" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="565" spans="1:22" x14ac:dyDescent="0.25">
@@ -22542,7 +22737,7 @@
         <v>3319</v>
       </c>
       <c r="V565" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="566" spans="1:22" x14ac:dyDescent="0.25">
@@ -22574,7 +22769,7 @@
         <v>3273</v>
       </c>
       <c r="V566" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="567" spans="1:22" x14ac:dyDescent="0.25">
@@ -22606,7 +22801,7 @@
         <v>3227</v>
       </c>
       <c r="V567" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="568" spans="1:22" x14ac:dyDescent="0.25">
@@ -22659,7 +22854,7 @@
         <v>4201</v>
       </c>
       <c r="V569" s="31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="570" spans="1:22" x14ac:dyDescent="0.25">
@@ -22670,7 +22865,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="V570" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="571" spans="1:22" x14ac:dyDescent="0.25">
@@ -22690,7 +22885,7 @@
         <v>6.6</v>
       </c>
       <c r="V572" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="573" spans="1:22" x14ac:dyDescent="0.25">
@@ -22701,7 +22896,7 @@
         <v>3</v>
       </c>
       <c r="V573" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="574" spans="1:22" x14ac:dyDescent="0.25">
@@ -22712,7 +22907,7 @@
         <v>12</v>
       </c>
       <c r="M574" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O574" s="10">
         <v>3277</v>
@@ -22724,7 +22919,7 @@
         <v>4201</v>
       </c>
       <c r="V574" s="20" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="575" spans="1:22" x14ac:dyDescent="0.25">
@@ -22774,7 +22969,7 @@
         <v>4201</v>
       </c>
       <c r="V576" s="16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="577" spans="1:22" x14ac:dyDescent="0.25">
@@ -22816,7 +23011,7 @@
       </c>
       <c r="U577" s="62"/>
       <c r="V577" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="578" spans="1:22" x14ac:dyDescent="0.25">
@@ -22845,7 +23040,7 @@
         <v>4201</v>
       </c>
       <c r="V578" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="579" spans="1:22" x14ac:dyDescent="0.25">
@@ -22874,7 +23069,7 @@
         <v>4201</v>
       </c>
       <c r="V579" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="580" spans="1:22" x14ac:dyDescent="0.25">
@@ -22903,7 +23098,7 @@
         <v>4201</v>
       </c>
       <c r="V580" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="581" spans="1:22" x14ac:dyDescent="0.25">
@@ -22932,7 +23127,7 @@
         <v>4197</v>
       </c>
       <c r="V581" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="582" spans="1:22" x14ac:dyDescent="0.25">
@@ -22961,7 +23156,7 @@
         <v>4177</v>
       </c>
       <c r="V582" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="583" spans="1:22" x14ac:dyDescent="0.25">
@@ -22990,7 +23185,7 @@
         <v>3957</v>
       </c>
       <c r="V583" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="584" spans="1:22" x14ac:dyDescent="0.25">
@@ -23019,7 +23214,7 @@
         <v>3525</v>
       </c>
       <c r="V584" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="585" spans="1:22" x14ac:dyDescent="0.25">
@@ -23048,7 +23243,7 @@
         <v>3502</v>
       </c>
       <c r="V585" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="586" spans="1:22" x14ac:dyDescent="0.25">
@@ -23077,7 +23272,7 @@
         <v>3457</v>
       </c>
       <c r="V586" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="587" spans="1:22" x14ac:dyDescent="0.25">
@@ -23106,7 +23301,7 @@
         <v>3352</v>
       </c>
       <c r="V587" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="588" spans="1:22" x14ac:dyDescent="0.25">
@@ -23135,7 +23330,7 @@
         <v>3238</v>
       </c>
       <c r="V588" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="589" spans="1:22" x14ac:dyDescent="0.25">
@@ -23164,7 +23359,7 @@
         <v>3201</v>
       </c>
       <c r="V589" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="590" spans="1:22" x14ac:dyDescent="0.25">
@@ -23193,7 +23388,7 @@
         <v>3035</v>
       </c>
       <c r="V590" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="591" spans="1:22" x14ac:dyDescent="0.25">
@@ -23222,7 +23417,7 @@
         <v>2895</v>
       </c>
       <c r="V591" s="16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="592" spans="1:22" x14ac:dyDescent="0.25">
@@ -23251,7 +23446,7 @@
         <v>2875</v>
       </c>
       <c r="V592" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="593" spans="1:22" x14ac:dyDescent="0.25">
@@ -23280,7 +23475,7 @@
         <v>2736</v>
       </c>
       <c r="V593" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="594" spans="1:22" x14ac:dyDescent="0.25">
@@ -23309,7 +23504,7 @@
         <v>2579</v>
       </c>
       <c r="V594" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="595" spans="1:22" x14ac:dyDescent="0.25">
@@ -23338,7 +23533,7 @@
         <v>2331</v>
       </c>
       <c r="V595" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="596" spans="1:22" x14ac:dyDescent="0.25">
@@ -23367,7 +23562,7 @@
         <v>2193</v>
       </c>
       <c r="V596" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="597" spans="1:22" x14ac:dyDescent="0.25">
@@ -23396,7 +23591,7 @@
         <v>1956</v>
       </c>
       <c r="V597" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="598" spans="1:22" x14ac:dyDescent="0.25">
@@ -23425,7 +23620,7 @@
         <v>1818</v>
       </c>
       <c r="V598" s="16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="599" spans="1:22" x14ac:dyDescent="0.25">
@@ -23460,7 +23655,7 @@
         <v>1079</v>
       </c>
       <c r="V599" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="600" spans="1:22" x14ac:dyDescent="0.25">
@@ -23501,7 +23696,7 @@
         <v>940</v>
       </c>
       <c r="V600" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="601" spans="1:22" x14ac:dyDescent="0.25">
@@ -23511,6 +23706,9 @@
       <c r="B601" s="5">
         <v>6.6</v>
       </c>
+      <c r="C601" s="10">
+        <v>500</v>
+      </c>
       <c r="D601" s="46">
         <v>785</v>
       </c>
@@ -23540,6 +23738,35 @@
       </c>
       <c r="V601" s="16" t="s">
         <v>588</v>
+      </c>
+    </row>
+    <row r="602" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A602" s="4">
+        <v>43876</v>
+      </c>
+      <c r="B602" s="5">
+        <v>10.6</v>
+      </c>
+      <c r="C602" s="10">
+        <v>390</v>
+      </c>
+      <c r="F602" s="10">
+        <v>84.9</v>
+      </c>
+      <c r="M602" s="10">
+        <v>4201</v>
+      </c>
+      <c r="O602" s="10">
+        <v>3293</v>
+      </c>
+      <c r="P602">
+        <v>2822</v>
+      </c>
+      <c r="T602" s="10">
+        <v>1287</v>
+      </c>
+      <c r="V602" s="2" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -23553,7 +23780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -23677,7 +23904,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -23893,7 +24120,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -23904,7 +24131,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="592">
   <si>
     <t>Date</t>
   </si>
@@ -3835,6 +3835,9 @@
   </si>
   <si>
     <t>I'm now starting to add stories to my phrase deck! I added about 270 stories today (through phrase #523). In one stretch of 4.5 hours or so, I added in 126 stories (so about 28 per hour) and added stories (if deened necessary) through 216 cards.</t>
+  </si>
+  <si>
+    <t>Focused on adding in stories for phrase card deck today. I added in about 169 stories today and have now added in a total of 449 (through phrase #814). I'm guessing that I have about 160 more stories to add in.</t>
   </si>
 </sst>
 </file>
@@ -4136,7 +4139,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5429,11 +5431,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="575072712"/>
-        <c:axId val="575070360"/>
+        <c:axId val="527515896"/>
+        <c:axId val="527514328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="575072712"/>
+        <c:axId val="527515896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5475,7 +5477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575070360"/>
+        <c:crossAx val="527514328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5483,7 +5485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="575070360"/>
+        <c:axId val="527514328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5534,7 +5536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575072712"/>
+        <c:crossAx val="527515896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5628,7 +5630,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6105,11 +6106,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="575075848"/>
-        <c:axId val="575077808"/>
+        <c:axId val="527521384"/>
+        <c:axId val="527515112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="575075848"/>
+        <c:axId val="527521384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6151,7 +6152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575077808"/>
+        <c:crossAx val="527515112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6159,7 +6160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="575077808"/>
+        <c:axId val="527515112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6210,7 +6211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575075848"/>
+        <c:crossAx val="527521384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6451,11 +6452,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="575071144"/>
-        <c:axId val="575071536"/>
+        <c:axId val="527515504"/>
+        <c:axId val="527517464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="575071144"/>
+        <c:axId val="527515504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6497,7 +6498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575071536"/>
+        <c:crossAx val="527517464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6505,7 +6506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="575071536"/>
+        <c:axId val="527517464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6558,7 +6559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575071144"/>
+        <c:crossAx val="527515504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6827,11 +6828,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="575077024"/>
-        <c:axId val="575073888"/>
+        <c:axId val="527519424"/>
+        <c:axId val="527516680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="575077024"/>
+        <c:axId val="527519424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6873,7 +6874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575073888"/>
+        <c:crossAx val="527516680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6881,7 +6882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="575073888"/>
+        <c:axId val="527516680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6933,7 +6934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575077024"/>
+        <c:crossAx val="527519424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9663,11 +9664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF602"/>
+  <dimension ref="A1:AF603"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V603" sqref="V603"/>
+      <selection pane="bottomLeft" activeCell="B606" sqref="B606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9878,7 +9879,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000036)</f>
-        <v>1616.6799999999973</v>
+        <v>1623.5799999999974</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -23767,6 +23768,23 @@
       </c>
       <c r="V602" s="2" t="s">
         <v>590</v>
+      </c>
+    </row>
+    <row r="603" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A603" s="4">
+        <v>43877</v>
+      </c>
+      <c r="B603" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="M603" s="10">
+        <v>0</v>
+      </c>
+      <c r="T603" s="10">
+        <v>1288</v>
+      </c>
+      <c r="V603" s="16" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="593">
   <si>
     <t>Date</t>
   </si>
@@ -3838,6 +3838,21 @@
   </si>
   <si>
     <t>Focused on adding in stories for phrase card deck today. I added in about 169 stories today and have now added in a total of 449 (through phrase #814). I'm guessing that I have about 160 more stories to add in.</t>
+  </si>
+  <si>
+    <r>
+      <t>Finished adding stories to phrase deck! There are currently 629 stories in the phrase deck. Wow, that only took 3 days!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I also uploaded this new phrase deck to Anki. I made 5 changes to the outlines in my single-word deck today.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5431,11 +5446,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="527515896"/>
-        <c:axId val="527514328"/>
+        <c:axId val="341720640"/>
+        <c:axId val="341716328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527515896"/>
+        <c:axId val="341720640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5477,7 +5492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527514328"/>
+        <c:crossAx val="341716328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5485,7 +5500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527514328"/>
+        <c:axId val="341716328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5536,7 +5551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527515896"/>
+        <c:crossAx val="341720640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6106,11 +6121,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="527521384"/>
-        <c:axId val="527515112"/>
+        <c:axId val="341718680"/>
+        <c:axId val="341721816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527521384"/>
+        <c:axId val="341718680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6152,7 +6167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527515112"/>
+        <c:crossAx val="341721816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6160,7 +6175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527515112"/>
+        <c:axId val="341721816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6211,7 +6226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527521384"/>
+        <c:crossAx val="341718680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6452,11 +6467,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="527515504"/>
-        <c:axId val="527517464"/>
+        <c:axId val="341719072"/>
+        <c:axId val="341718288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527515504"/>
+        <c:axId val="341719072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6498,7 +6513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527517464"/>
+        <c:crossAx val="341718288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6506,7 +6521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527517464"/>
+        <c:axId val="341718288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6559,7 +6574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527515504"/>
+        <c:crossAx val="341719072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6828,11 +6843,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="527519424"/>
-        <c:axId val="527516680"/>
+        <c:axId val="341715936"/>
+        <c:axId val="341717112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527519424"/>
+        <c:axId val="341715936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6874,7 +6889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527516680"/>
+        <c:crossAx val="341717112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6882,7 +6897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527516680"/>
+        <c:axId val="341717112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6934,7 +6949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527519424"/>
+        <c:crossAx val="341715936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9664,11 +9679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF603"/>
+  <dimension ref="A1:AF604"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B606" sqref="B606"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P605" sqref="P605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9879,7 +9894,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000036)</f>
-        <v>1623.5799999999974</v>
+        <v>1630.9799999999975</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -23785,6 +23800,29 @@
       </c>
       <c r="V603" s="16" t="s">
         <v>591</v>
+      </c>
+    </row>
+    <row r="604" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A604" s="4">
+        <v>43878</v>
+      </c>
+      <c r="B604" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="M604" s="10">
+        <v>0</v>
+      </c>
+      <c r="N604" s="46">
+        <v>0</v>
+      </c>
+      <c r="T604" s="10">
+        <v>1293</v>
+      </c>
+      <c r="U604" s="61">
+        <v>1079</v>
+      </c>
+      <c r="V604" s="2" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="594">
   <si>
     <t>Date</t>
   </si>
@@ -3853,6 +3853,9 @@
       </rPr>
       <t xml:space="preserve"> I also uploaded this new phrase deck to Anki. I made 5 changes to the outlines in my single-word deck today.</t>
     </r>
+  </si>
+  <si>
+    <t>Back to reviewing the single-word deck. I don't think I made any changes to the single-word deck today.</t>
   </si>
 </sst>
 </file>
@@ -5446,11 +5449,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="341720640"/>
-        <c:axId val="341716328"/>
+        <c:axId val="357189168"/>
+        <c:axId val="357190344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="341720640"/>
+        <c:axId val="357189168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5492,7 +5495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341716328"/>
+        <c:crossAx val="357190344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5500,7 +5503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="341716328"/>
+        <c:axId val="357190344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5551,7 +5554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341720640"/>
+        <c:crossAx val="357189168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6121,11 +6124,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="341718680"/>
-        <c:axId val="341721816"/>
+        <c:axId val="357187600"/>
+        <c:axId val="357185640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="341718680"/>
+        <c:axId val="357187600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6167,7 +6170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341721816"/>
+        <c:crossAx val="357185640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6175,7 +6178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="341721816"/>
+        <c:axId val="357185640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6226,7 +6229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341718680"/>
+        <c:crossAx val="357187600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6368,10 +6371,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$602</c:f>
+              <c:f>Sheet1!$M$576:$M$605</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6452,6 +6455,15 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6467,11 +6479,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="341719072"/>
-        <c:axId val="341718288"/>
+        <c:axId val="357186816"/>
+        <c:axId val="357186424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="341719072"/>
+        <c:axId val="357186816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6513,7 +6525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341718288"/>
+        <c:crossAx val="357186424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6521,7 +6533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="341718288"/>
+        <c:axId val="357186424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6574,7 +6586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341719072"/>
+        <c:crossAx val="357186816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6721,10 +6733,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$602</c:f>
+              <c:f>Sheet1!$T$577:$T$605</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6802,6 +6814,15 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1288</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6843,11 +6864,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="341715936"/>
-        <c:axId val="341717112"/>
+        <c:axId val="357189952"/>
+        <c:axId val="357182896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="341715936"/>
+        <c:axId val="357189952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6889,7 +6910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341717112"/>
+        <c:crossAx val="357182896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6897,7 +6918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="341717112"/>
+        <c:axId val="357182896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6949,7 +6970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="341715936"/>
+        <c:crossAx val="357189952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9679,11 +9700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF604"/>
+  <dimension ref="A1:AF605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P605" sqref="P605"/>
+      <selection pane="bottomLeft" activeCell="V606" sqref="V606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9702,7 +9723,7 @@
     <col min="13" max="13" width="9" style="10" customWidth="1"/>
     <col min="14" max="14" width="9" style="46" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="10" customWidth="1"/>
     <col min="17" max="18" width="6.5703125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="6.5703125" style="52" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="6.5703125" style="10" customWidth="1"/>
@@ -9894,7 +9915,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000036)</f>
-        <v>1630.9799999999975</v>
+        <v>1632.3799999999976</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9920,7 +9941,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000035)</f>
-        <v>114431</v>
+        <v>114980</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -9969,7 +9990,7 @@
       <c r="O17" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="10" t="s">
         <v>135</v>
       </c>
       <c r="Q17" t="s">
@@ -10004,7 +10025,7 @@
       <c r="O18" s="10">
         <v>0</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="T18" s="10">
@@ -10024,7 +10045,7 @@
       <c r="B19" s="5">
         <v>0.5</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="V19" t="s">
@@ -10038,7 +10059,7 @@
       <c r="B20" s="5">
         <v>1.6</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="V20" t="s">
@@ -10052,7 +10073,7 @@
       <c r="B21" s="5">
         <v>1</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="10" t="s">
         <v>19</v>
       </c>
       <c r="V21" t="s">
@@ -10066,7 +10087,7 @@
       <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="10" t="s">
         <v>21</v>
       </c>
       <c r="V22" t="s">
@@ -10080,7 +10101,7 @@
       <c r="B23" s="5">
         <v>1.4</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="10" t="s">
         <v>23</v>
       </c>
       <c r="V23" t="s">
@@ -10097,7 +10118,7 @@
       <c r="B24" s="5">
         <v>1.4</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="V24" t="s">
@@ -10114,7 +10135,7 @@
       <c r="B25" s="5">
         <v>1.6</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="10" t="s">
         <v>29</v>
       </c>
       <c r="V25" t="s">
@@ -10131,7 +10152,7 @@
       <c r="B26" s="5">
         <v>1</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="10" t="s">
         <v>31</v>
       </c>
       <c r="V26" t="s">
@@ -10148,7 +10169,7 @@
       <c r="B27" s="5">
         <v>1.75</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="10" t="s">
         <v>34</v>
       </c>
       <c r="V27" t="s">
@@ -10162,7 +10183,7 @@
       <c r="B28" s="5">
         <v>4.25</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="10" t="s">
         <v>34</v>
       </c>
       <c r="V28" t="s">
@@ -10179,7 +10200,7 @@
       <c r="B29" s="5">
         <v>5.6</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="10" t="s">
         <v>39</v>
       </c>
       <c r="V29" t="s">
@@ -11566,7 +11587,7 @@
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
       <c r="K115" s="21"/>
-      <c r="P115" s="21" t="s">
+      <c r="P115" s="10" t="s">
         <v>136</v>
       </c>
       <c r="Q115" s="21"/>
@@ -11620,7 +11641,7 @@
       <c r="G117">
         <v>11</v>
       </c>
-      <c r="P117">
+      <c r="P117" s="10">
         <v>1235</v>
       </c>
       <c r="V117" s="7" t="s">
@@ -11643,7 +11664,7 @@
       <c r="G118">
         <v>5</v>
       </c>
-      <c r="P118">
+      <c r="P118" s="10">
         <v>1240</v>
       </c>
       <c r="V118" s="2" t="s">
@@ -11666,7 +11687,7 @@
       <c r="G119">
         <v>10</v>
       </c>
-      <c r="P119">
+      <c r="P119" s="10">
         <v>1250</v>
       </c>
       <c r="V119" s="7" t="s">
@@ -11689,7 +11710,7 @@
       <c r="G120">
         <v>14.42</v>
       </c>
-      <c r="P120">
+      <c r="P120" s="10">
         <v>1265</v>
       </c>
       <c r="V120" s="7" t="s">
@@ -11712,7 +11733,7 @@
       <c r="G121">
         <v>19</v>
       </c>
-      <c r="P121">
+      <c r="P121" s="10">
         <v>1277</v>
       </c>
       <c r="V121" s="12" t="s">
@@ -11735,7 +11756,7 @@
       <c r="G122">
         <v>29</v>
       </c>
-      <c r="P122">
+      <c r="P122" s="10">
         <v>1305</v>
       </c>
       <c r="V122" s="13" t="s">
@@ -11769,7 +11790,7 @@
       <c r="H124">
         <v>26</v>
       </c>
-      <c r="P124">
+      <c r="P124" s="10">
         <v>1331</v>
       </c>
       <c r="V124" s="12" t="s">
@@ -11786,7 +11807,7 @@
       <c r="H125">
         <v>7</v>
       </c>
-      <c r="P125">
+      <c r="P125" s="10">
         <v>1338</v>
       </c>
       <c r="V125" t="s">
@@ -11803,7 +11824,7 @@
       <c r="H126">
         <v>7</v>
       </c>
-      <c r="P126">
+      <c r="P126" s="10">
         <v>1345</v>
       </c>
       <c r="V126" t="s">
@@ -11817,7 +11838,7 @@
       <c r="B127" s="5">
         <v>1.25</v>
       </c>
-      <c r="P127">
+      <c r="P127" s="10">
         <v>1353</v>
       </c>
       <c r="V127" t="s">
@@ -11831,7 +11852,7 @@
       <c r="B128" s="5">
         <v>5.8</v>
       </c>
-      <c r="P128" s="2" t="s">
+      <c r="P128" s="36" t="s">
         <v>149</v>
       </c>
       <c r="Q128" s="2"/>
@@ -11852,7 +11873,7 @@
       <c r="B129" s="5">
         <v>7.9</v>
       </c>
-      <c r="P129" s="2">
+      <c r="P129" s="36">
         <v>1266</v>
       </c>
       <c r="Q129" s="2"/>
@@ -11873,7 +11894,7 @@
       <c r="B130" s="5">
         <v>5.25</v>
       </c>
-      <c r="P130">
+      <c r="P130" s="10">
         <v>1290</v>
       </c>
       <c r="V130" t="s">
@@ -11887,7 +11908,7 @@
       <c r="B131" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P131">
+      <c r="P131" s="10">
         <v>1300</v>
       </c>
       <c r="V131" t="s">
@@ -11901,7 +11922,7 @@
       <c r="B132" s="5">
         <v>2.25</v>
       </c>
-      <c r="P132">
+      <c r="P132" s="10">
         <v>1327</v>
       </c>
       <c r="V132" t="s">
@@ -11915,7 +11936,7 @@
       <c r="B133" s="5">
         <v>1.7</v>
       </c>
-      <c r="P133">
+      <c r="P133" s="10">
         <v>1337</v>
       </c>
       <c r="V133" t="s">
@@ -11929,7 +11950,7 @@
       <c r="B134" s="5">
         <v>1.5</v>
       </c>
-      <c r="P134">
+      <c r="P134" s="10">
         <v>1337</v>
       </c>
       <c r="V134" s="16" t="s">
@@ -11943,7 +11964,7 @@
       <c r="B135" s="5">
         <v>1</v>
       </c>
-      <c r="P135">
+      <c r="P135" s="10">
         <v>1351</v>
       </c>
       <c r="V135" s="16" t="s">
@@ -11957,7 +11978,7 @@
       <c r="B136" s="5">
         <v>1.3</v>
       </c>
-      <c r="P136">
+      <c r="P136" s="10">
         <v>1365</v>
       </c>
       <c r="V136" s="16" t="s">
@@ -11974,7 +11995,7 @@
       <c r="H137">
         <v>37</v>
       </c>
-      <c r="P137">
+      <c r="P137" s="10">
         <v>1402</v>
       </c>
       <c r="V137" s="16" t="s">
@@ -11991,7 +12012,7 @@
       <c r="H138">
         <v>13</v>
       </c>
-      <c r="P138">
+      <c r="P138" s="10">
         <v>1425</v>
       </c>
       <c r="V138" s="2" t="s">
@@ -12005,7 +12026,7 @@
       <c r="B139" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P139" s="19">
+      <c r="P139" s="36">
         <v>1345</v>
       </c>
       <c r="Q139" s="19"/>
@@ -12030,7 +12051,7 @@
       <c r="F140" s="10">
         <v>71.900000000000006</v>
       </c>
-      <c r="P140" s="16">
+      <c r="P140" s="45">
         <v>1346</v>
       </c>
       <c r="Q140" s="16"/>
@@ -12065,7 +12086,7 @@
       <c r="B142" s="5">
         <v>2</v>
       </c>
-      <c r="P142">
+      <c r="P142" s="10">
         <v>1423</v>
       </c>
       <c r="V142" s="16" t="s">
@@ -12087,7 +12108,7 @@
       <c r="O143" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="P143" s="21">
+      <c r="P143" s="10">
         <v>1481</v>
       </c>
       <c r="Q143" s="21"/>
@@ -12113,7 +12134,7 @@
       <c r="B144" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P144">
+      <c r="P144" s="10">
         <v>1489</v>
       </c>
       <c r="V144" t="s">
@@ -12166,7 +12187,7 @@
       <c r="B148" s="5">
         <v>2</v>
       </c>
-      <c r="P148">
+      <c r="P148" s="10">
         <v>1489</v>
       </c>
       <c r="V148" s="2" t="s">
@@ -12186,7 +12207,7 @@
       <c r="F149" s="10">
         <v>80.599999999999994</v>
       </c>
-      <c r="P149">
+      <c r="P149" s="10">
         <v>1496</v>
       </c>
       <c r="V149" t="s">
@@ -12212,7 +12233,7 @@
       <c r="O150" s="10">
         <v>365</v>
       </c>
-      <c r="P150">
+      <c r="P150" s="10">
         <v>1500</v>
       </c>
       <c r="V150" t="s">
@@ -12235,7 +12256,7 @@
       <c r="F151" s="10">
         <v>83.7</v>
       </c>
-      <c r="P151">
+      <c r="P151" s="10">
         <v>1503</v>
       </c>
     </row>
@@ -12255,7 +12276,7 @@
       <c r="F152" s="10">
         <v>82.2</v>
       </c>
-      <c r="P152">
+      <c r="P152" s="10">
         <v>1504</v>
       </c>
       <c r="V152" t="s">
@@ -12278,7 +12299,7 @@
       <c r="F153" s="10">
         <v>81.7</v>
       </c>
-      <c r="P153">
+      <c r="P153" s="10">
         <v>1506</v>
       </c>
     </row>
@@ -12298,7 +12319,7 @@
       <c r="F154" s="10">
         <v>91.8</v>
       </c>
-      <c r="P154">
+      <c r="P154" s="10">
         <v>1509</v>
       </c>
       <c r="V154" t="s">
@@ -12324,7 +12345,7 @@
       <c r="O155" s="10">
         <v>375</v>
       </c>
-      <c r="P155">
+      <c r="P155" s="10">
         <v>1511</v>
       </c>
       <c r="V155" t="s">
@@ -12347,7 +12368,7 @@
       <c r="F156" s="10">
         <v>88.6</v>
       </c>
-      <c r="P156">
+      <c r="P156" s="10">
         <v>1514</v>
       </c>
       <c r="V156" t="s">
@@ -12370,7 +12391,7 @@
       <c r="O157" s="10">
         <v>384</v>
       </c>
-      <c r="P157">
+      <c r="P157" s="10">
         <v>1517</v>
       </c>
       <c r="V157" t="s">
@@ -12396,7 +12417,7 @@
       <c r="O158" s="10">
         <v>389</v>
       </c>
-      <c r="P158">
+      <c r="P158" s="10">
         <v>1522</v>
       </c>
       <c r="V158" t="s">
@@ -12422,7 +12443,7 @@
       <c r="O159" s="10">
         <v>392</v>
       </c>
-      <c r="P159">
+      <c r="P159" s="10">
         <v>1522</v>
       </c>
       <c r="V159" s="2" t="s">
@@ -12448,7 +12469,7 @@
       <c r="O160" s="10">
         <v>398</v>
       </c>
-      <c r="P160">
+      <c r="P160" s="10">
         <v>1529</v>
       </c>
       <c r="V160" t="s">
@@ -12474,7 +12495,7 @@
       <c r="O161" s="10">
         <v>405</v>
       </c>
-      <c r="P161">
+      <c r="P161" s="10">
         <v>1535</v>
       </c>
       <c r="V161" t="s">
@@ -12500,7 +12521,7 @@
       <c r="O162" s="10">
         <v>412</v>
       </c>
-      <c r="P162">
+      <c r="P162" s="10">
         <v>1540</v>
       </c>
     </row>
@@ -12523,7 +12544,7 @@
       <c r="O163" s="10">
         <v>418</v>
       </c>
-      <c r="P163">
+      <c r="P163" s="10">
         <v>1542</v>
       </c>
       <c r="V163" t="s">
@@ -12549,7 +12570,7 @@
       <c r="O164" s="10">
         <v>420</v>
       </c>
-      <c r="P164">
+      <c r="P164" s="10">
         <v>1546</v>
       </c>
     </row>
@@ -12572,7 +12593,7 @@
       <c r="O165" s="10">
         <v>425</v>
       </c>
-      <c r="P165">
+      <c r="P165" s="10">
         <v>1550</v>
       </c>
     </row>
@@ -12595,7 +12616,7 @@
       <c r="O166" s="10">
         <v>433</v>
       </c>
-      <c r="P166">
+      <c r="P166" s="10">
         <v>1556</v>
       </c>
     </row>
@@ -12618,7 +12639,7 @@
       <c r="O167" s="10">
         <v>454</v>
       </c>
-      <c r="P167">
+      <c r="P167" s="10">
         <v>1563</v>
       </c>
     </row>
@@ -12641,7 +12662,7 @@
       <c r="O168" s="10">
         <v>461</v>
       </c>
-      <c r="P168">
+      <c r="P168" s="10">
         <v>1563</v>
       </c>
     </row>
@@ -12661,7 +12682,7 @@
       <c r="O169" s="10">
         <v>469</v>
       </c>
-      <c r="P169">
+      <c r="P169" s="10">
         <v>1567</v>
       </c>
       <c r="V169" t="s">
@@ -12684,7 +12705,7 @@
       <c r="O170" s="10">
         <v>492</v>
       </c>
-      <c r="P170">
+      <c r="P170" s="10">
         <v>1582</v>
       </c>
       <c r="V170" t="s">
@@ -12707,7 +12728,7 @@
       <c r="O171" s="10">
         <v>518</v>
       </c>
-      <c r="P171">
+      <c r="P171" s="10">
         <v>1605</v>
       </c>
       <c r="V171" t="s">
@@ -12730,7 +12751,7 @@
       <c r="O172" s="10">
         <v>538</v>
       </c>
-      <c r="P172">
+      <c r="P172" s="10">
         <v>1617</v>
       </c>
       <c r="V172" t="s">
@@ -12753,7 +12774,7 @@
       <c r="O173" s="10">
         <v>569</v>
       </c>
-      <c r="P173">
+      <c r="P173" s="10">
         <v>1637</v>
       </c>
       <c r="V173" t="s">
@@ -12776,7 +12797,7 @@
       <c r="O174" s="10">
         <v>606</v>
       </c>
-      <c r="P174">
+      <c r="P174" s="10">
         <v>1657</v>
       </c>
       <c r="V174" t="s">
@@ -12799,7 +12820,7 @@
       <c r="O175" s="10">
         <v>688</v>
       </c>
-      <c r="P175">
+      <c r="P175" s="10">
         <v>1674</v>
       </c>
       <c r="V175" t="s">
@@ -12816,7 +12837,7 @@
       <c r="O176" s="10">
         <v>753</v>
       </c>
-      <c r="P176">
+      <c r="P176" s="10">
         <v>1758</v>
       </c>
       <c r="V176" t="s">
@@ -12838,7 +12859,7 @@
       <c r="O177" s="10">
         <v>786</v>
       </c>
-      <c r="P177" s="21">
+      <c r="P177" s="10">
         <v>1791</v>
       </c>
       <c r="Q177" s="21"/>
@@ -12857,7 +12878,7 @@
       <c r="O178" s="10">
         <v>789</v>
       </c>
-      <c r="P178">
+      <c r="P178" s="10">
         <v>1793</v>
       </c>
       <c r="V178" t="s">
@@ -12880,7 +12901,7 @@
       <c r="O179" s="10">
         <v>795</v>
       </c>
-      <c r="P179">
+      <c r="P179" s="10">
         <v>1797</v>
       </c>
       <c r="V179" t="s">
@@ -12903,7 +12924,7 @@
       <c r="O180" s="10">
         <v>797</v>
       </c>
-      <c r="P180">
+      <c r="P180" s="10">
         <v>1801</v>
       </c>
       <c r="V180" t="s">
@@ -12929,7 +12950,7 @@
       <c r="O181" s="10">
         <v>798</v>
       </c>
-      <c r="P181">
+      <c r="P181" s="10">
         <v>1802</v>
       </c>
     </row>
@@ -12952,7 +12973,7 @@
       <c r="O182" s="10">
         <v>799</v>
       </c>
-      <c r="P182">
+      <c r="P182" s="10">
         <v>1802</v>
       </c>
       <c r="V182" t="s">
@@ -12978,7 +12999,7 @@
       <c r="O183" s="10">
         <v>806</v>
       </c>
-      <c r="P183">
+      <c r="P183" s="10">
         <v>1802</v>
       </c>
       <c r="V183" t="s">
@@ -12998,7 +13019,7 @@
       <c r="O184" s="10">
         <v>811</v>
       </c>
-      <c r="P184">
+      <c r="P184" s="10">
         <v>1802</v>
       </c>
       <c r="V184" t="s">
@@ -13021,7 +13042,7 @@
       <c r="O185" s="10">
         <v>811</v>
       </c>
-      <c r="P185">
+      <c r="P185" s="10">
         <v>1802</v>
       </c>
       <c r="V185" t="s">
@@ -13047,7 +13068,7 @@
       <c r="O186" s="10">
         <v>813</v>
       </c>
-      <c r="P186">
+      <c r="P186" s="10">
         <v>1802</v>
       </c>
     </row>
@@ -13070,7 +13091,7 @@
       <c r="O187" s="10">
         <v>820</v>
       </c>
-      <c r="P187">
+      <c r="P187" s="10">
         <v>1805</v>
       </c>
       <c r="V187" t="s">
@@ -13093,7 +13114,7 @@
       <c r="O188" s="10">
         <v>822</v>
       </c>
-      <c r="P188">
+      <c r="P188" s="10">
         <v>1809</v>
       </c>
     </row>
@@ -13116,7 +13137,7 @@
       <c r="O189" s="10">
         <v>823</v>
       </c>
-      <c r="P189">
+      <c r="P189" s="10">
         <v>1810</v>
       </c>
       <c r="V189" t="s">
@@ -13142,7 +13163,7 @@
       <c r="O190" s="10">
         <v>824</v>
       </c>
-      <c r="P190">
+      <c r="P190" s="10">
         <v>1813</v>
       </c>
       <c r="V190" t="s">
@@ -13165,7 +13186,7 @@
       <c r="O191" s="10">
         <v>824</v>
       </c>
-      <c r="P191">
+      <c r="P191" s="10">
         <v>1815</v>
       </c>
       <c r="V191" t="s">
@@ -13191,7 +13212,7 @@
       <c r="O192" s="10">
         <v>828</v>
       </c>
-      <c r="P192">
+      <c r="P192" s="10">
         <v>1817</v>
       </c>
       <c r="V192" t="s">
@@ -13217,7 +13238,7 @@
       <c r="O193" s="10">
         <v>830</v>
       </c>
-      <c r="P193">
+      <c r="P193" s="10">
         <v>1821</v>
       </c>
       <c r="V193" t="s">
@@ -13243,7 +13264,7 @@
       <c r="O194" s="10">
         <v>832</v>
       </c>
-      <c r="P194">
+      <c r="P194" s="10">
         <v>1821</v>
       </c>
     </row>
@@ -13266,7 +13287,7 @@
       <c r="O195" s="10">
         <v>832</v>
       </c>
-      <c r="P195">
+      <c r="P195" s="10">
         <v>1823</v>
       </c>
       <c r="V195" t="s">
@@ -13292,7 +13313,7 @@
       <c r="O196" s="10">
         <v>838</v>
       </c>
-      <c r="P196">
+      <c r="P196" s="10">
         <v>1825</v>
       </c>
     </row>
@@ -13315,7 +13336,7 @@
       <c r="O197" s="10">
         <v>840</v>
       </c>
-      <c r="P197">
+      <c r="P197" s="10">
         <v>1825</v>
       </c>
     </row>
@@ -13335,7 +13356,7 @@
       <c r="O198" s="10">
         <v>843</v>
       </c>
-      <c r="P198">
+      <c r="P198" s="10">
         <v>1826</v>
       </c>
       <c r="V198" t="s">
@@ -13361,7 +13382,7 @@
       <c r="O199" s="10">
         <v>846</v>
       </c>
-      <c r="P199">
+      <c r="P199" s="10">
         <v>1828</v>
       </c>
       <c r="V199" t="s">
@@ -13384,7 +13405,7 @@
       <c r="O200" s="10">
         <v>847</v>
       </c>
-      <c r="P200">
+      <c r="P200" s="10">
         <v>1827</v>
       </c>
     </row>
@@ -13407,7 +13428,7 @@
       <c r="O201" s="10">
         <v>850</v>
       </c>
-      <c r="P201">
+      <c r="P201" s="10">
         <v>1827</v>
       </c>
     </row>
@@ -13430,7 +13451,7 @@
       <c r="O202" s="10">
         <v>855</v>
       </c>
-      <c r="P202">
+      <c r="P202" s="10">
         <v>1827</v>
       </c>
     </row>
@@ -13450,7 +13471,7 @@
       <c r="O203" s="10">
         <v>855</v>
       </c>
-      <c r="P203">
+      <c r="P203" s="10">
         <v>1828</v>
       </c>
     </row>
@@ -13473,7 +13494,7 @@
       <c r="O204" s="10">
         <v>862</v>
       </c>
-      <c r="P204">
+      <c r="P204" s="10">
         <v>1831</v>
       </c>
     </row>
@@ -13493,7 +13514,7 @@
       <c r="O205" s="10">
         <v>864</v>
       </c>
-      <c r="P205">
+      <c r="P205" s="10">
         <v>1833</v>
       </c>
       <c r="V205" t="s">
@@ -13519,7 +13540,7 @@
       <c r="O206" s="10">
         <v>866</v>
       </c>
-      <c r="P206">
+      <c r="P206" s="10">
         <v>1834</v>
       </c>
       <c r="V206" t="s">
@@ -13545,7 +13566,7 @@
       <c r="O207" s="10">
         <v>866</v>
       </c>
-      <c r="P207">
+      <c r="P207" s="10">
         <v>1834</v>
       </c>
       <c r="V207" t="s">
@@ -13571,7 +13592,7 @@
       <c r="O208" s="10">
         <v>869</v>
       </c>
-      <c r="P208">
+      <c r="P208" s="10">
         <v>1837</v>
       </c>
     </row>
@@ -13594,7 +13615,7 @@
       <c r="O209" s="10">
         <v>874</v>
       </c>
-      <c r="P209">
+      <c r="P209" s="10">
         <v>1840</v>
       </c>
       <c r="V209" t="s">
@@ -13620,7 +13641,7 @@
       <c r="O210" s="10">
         <v>875</v>
       </c>
-      <c r="P210">
+      <c r="P210" s="10">
         <v>1839</v>
       </c>
       <c r="V210" t="s">
@@ -13646,7 +13667,7 @@
       <c r="O211" s="10">
         <v>876</v>
       </c>
-      <c r="P211">
+      <c r="P211" s="10">
         <v>1841</v>
       </c>
       <c r="V211" s="2" t="s">
@@ -13672,7 +13693,7 @@
       <c r="O212" s="10">
         <v>901</v>
       </c>
-      <c r="P212">
+      <c r="P212" s="10">
         <v>1853</v>
       </c>
       <c r="V212" t="s">
@@ -13695,7 +13716,7 @@
       <c r="O213" s="10">
         <v>906</v>
       </c>
-      <c r="P213">
+      <c r="P213" s="10">
         <v>1856</v>
       </c>
     </row>
@@ -13718,7 +13739,7 @@
       <c r="O214" s="10">
         <v>914</v>
       </c>
-      <c r="P214">
+      <c r="P214" s="10">
         <v>1857</v>
       </c>
       <c r="V214" t="s">
@@ -13744,7 +13765,7 @@
       <c r="O215" s="10">
         <v>921</v>
       </c>
-      <c r="P215">
+      <c r="P215" s="10">
         <v>1861</v>
       </c>
       <c r="V215" t="s">
@@ -13770,7 +13791,7 @@
       <c r="O216" s="10">
         <v>929</v>
       </c>
-      <c r="P216">
+      <c r="P216" s="10">
         <v>1862</v>
       </c>
     </row>
@@ -13793,7 +13814,7 @@
       <c r="O217" s="10">
         <v>935</v>
       </c>
-      <c r="P217">
+      <c r="P217" s="10">
         <v>1865</v>
       </c>
     </row>
@@ -13816,7 +13837,7 @@
       <c r="O218" s="10">
         <v>945</v>
       </c>
-      <c r="P218">
+      <c r="P218" s="10">
         <v>1870</v>
       </c>
       <c r="V218" t="s">
@@ -13842,7 +13863,7 @@
       <c r="O219" s="10">
         <v>949</v>
       </c>
-      <c r="P219">
+      <c r="P219" s="10">
         <v>1873</v>
       </c>
     </row>
@@ -13931,7 +13952,7 @@
       <c r="O229" s="10">
         <v>1378</v>
       </c>
-      <c r="P229">
+      <c r="P229" s="10">
         <v>1899</v>
       </c>
       <c r="V229" t="s">
@@ -13948,7 +13969,7 @@
       <c r="O230" s="10">
         <v>1379</v>
       </c>
-      <c r="P230">
+      <c r="P230" s="10">
         <v>1905</v>
       </c>
       <c r="V230" t="s">
@@ -13976,7 +13997,7 @@
       <c r="O232" s="10">
         <v>1381</v>
       </c>
-      <c r="P232">
+      <c r="P232" s="10">
         <v>1994</v>
       </c>
       <c r="V232" t="s">
@@ -13993,7 +14014,7 @@
       <c r="O233" s="10">
         <v>1381</v>
       </c>
-      <c r="P233">
+      <c r="P233" s="10">
         <v>2024</v>
       </c>
       <c r="V233" t="s">
@@ -14010,7 +14031,7 @@
       <c r="O234" s="10">
         <v>1383</v>
       </c>
-      <c r="P234">
+      <c r="P234" s="10">
         <v>2040</v>
       </c>
       <c r="V234" t="s">
@@ -14043,7 +14064,7 @@
       <c r="O237" s="10">
         <v>1386</v>
       </c>
-      <c r="P237">
+      <c r="P237" s="10">
         <v>2085</v>
       </c>
       <c r="V237" t="s">
@@ -14060,7 +14081,7 @@
       <c r="O238" s="10">
         <v>1386</v>
       </c>
-      <c r="P238">
+      <c r="P238" s="10">
         <v>2107</v>
       </c>
       <c r="V238" t="s">
@@ -14077,7 +14098,7 @@
       <c r="O239" s="10">
         <v>1391</v>
       </c>
-      <c r="P239">
+      <c r="P239" s="10">
         <v>2122</v>
       </c>
       <c r="V239" s="2" t="s">
@@ -14100,7 +14121,7 @@
       <c r="O240" s="10">
         <v>1402</v>
       </c>
-      <c r="P240">
+      <c r="P240" s="10">
         <v>2122</v>
       </c>
       <c r="V240" t="s">
@@ -14126,7 +14147,7 @@
       <c r="O241" s="10">
         <v>1414</v>
       </c>
-      <c r="P241">
+      <c r="P241" s="10">
         <v>2126</v>
       </c>
       <c r="V241" t="s">
@@ -14143,7 +14164,7 @@
       <c r="O242" s="10">
         <v>1539</v>
       </c>
-      <c r="P242">
+      <c r="P242" s="10">
         <v>2126</v>
       </c>
       <c r="V242" t="s">
@@ -14160,7 +14181,7 @@
       <c r="O243" s="10">
         <v>1654</v>
       </c>
-      <c r="P243">
+      <c r="P243" s="10">
         <v>2127</v>
       </c>
       <c r="V243" t="s">
@@ -14177,7 +14198,7 @@
       <c r="O244" s="10">
         <v>1893</v>
       </c>
-      <c r="P244">
+      <c r="P244" s="10">
         <v>2132</v>
       </c>
       <c r="V244" t="s">
@@ -14194,7 +14215,7 @@
       <c r="O245" s="10">
         <v>2035</v>
       </c>
-      <c r="P245">
+      <c r="P245" s="10">
         <v>2129</v>
       </c>
       <c r="V245" t="s">
@@ -14211,7 +14232,7 @@
       <c r="O246" s="10">
         <v>2201</v>
       </c>
-      <c r="P246">
+      <c r="P246" s="10">
         <v>2130</v>
       </c>
       <c r="V246" s="2" t="s">
@@ -14228,7 +14249,7 @@
       <c r="O247" s="10">
         <v>2254</v>
       </c>
-      <c r="P247">
+      <c r="P247" s="10">
         <v>2130</v>
       </c>
       <c r="V247" t="s">
@@ -14253,7 +14274,7 @@
       <c r="O249" s="10">
         <v>2359</v>
       </c>
-      <c r="P249">
+      <c r="P249" s="10">
         <v>2130</v>
       </c>
       <c r="V249" t="s">
@@ -14270,7 +14291,7 @@
       <c r="O250" s="10">
         <v>2665</v>
       </c>
-      <c r="P250">
+      <c r="P250" s="10">
         <v>2128</v>
       </c>
       <c r="V250" t="s">
@@ -14287,7 +14308,7 @@
       <c r="O251" s="10">
         <v>2982</v>
       </c>
-      <c r="P251">
+      <c r="P251" s="10">
         <v>2135</v>
       </c>
       <c r="V251" t="s">
@@ -14315,7 +14336,7 @@
       <c r="O253" s="10">
         <v>2984</v>
       </c>
-      <c r="P253">
+      <c r="P253" s="10">
         <v>2152</v>
       </c>
       <c r="V253" t="s">
@@ -14332,7 +14353,7 @@
       <c r="O254" s="10">
         <v>2988</v>
       </c>
-      <c r="P254">
+      <c r="P254" s="10">
         <v>2219</v>
       </c>
       <c r="V254" t="s">
@@ -14349,7 +14370,7 @@
       <c r="O255" s="10">
         <v>2988</v>
       </c>
-      <c r="P255" s="2">
+      <c r="P255" s="36">
         <v>2056</v>
       </c>
       <c r="Q255" s="2"/>
@@ -14371,7 +14392,7 @@
       <c r="O256" s="10">
         <v>2989</v>
       </c>
-      <c r="P256">
+      <c r="P256" s="10">
         <v>2124</v>
       </c>
       <c r="V256" t="s">
@@ -14388,7 +14409,7 @@
       <c r="O257" s="10">
         <v>2989</v>
       </c>
-      <c r="P257">
+      <c r="P257" s="10">
         <v>2183</v>
       </c>
       <c r="V257" t="s">
@@ -14405,7 +14426,7 @@
       <c r="O258" s="10">
         <v>2989</v>
       </c>
-      <c r="P258">
+      <c r="P258" s="10">
         <v>2313</v>
       </c>
       <c r="V258" t="s">
@@ -14422,7 +14443,7 @@
       <c r="O259" s="10">
         <v>2989</v>
       </c>
-      <c r="P259">
+      <c r="P259" s="10">
         <v>2460</v>
       </c>
       <c r="V259" t="s">
@@ -14439,7 +14460,7 @@
       <c r="O260" s="10">
         <v>2989</v>
       </c>
-      <c r="P260">
+      <c r="P260" s="10">
         <v>2490</v>
       </c>
       <c r="V260" t="s">
@@ -14456,7 +14477,7 @@
       <c r="O261" s="10">
         <v>2989</v>
       </c>
-      <c r="P261">
+      <c r="P261" s="10">
         <v>2649</v>
       </c>
       <c r="V261" t="s">
@@ -14473,7 +14494,7 @@
       <c r="O262" s="10">
         <v>2990</v>
       </c>
-      <c r="P262">
+      <c r="P262" s="10">
         <v>2779</v>
       </c>
       <c r="V262" t="s">
@@ -14505,7 +14526,7 @@
       <c r="O264" s="10">
         <v>2992</v>
       </c>
-      <c r="P264">
+      <c r="P264" s="10">
         <v>2972</v>
       </c>
       <c r="V264" s="31" t="s">
@@ -14525,7 +14546,7 @@
       <c r="O265" s="10">
         <v>2996</v>
       </c>
-      <c r="P265">
+      <c r="P265" s="10">
         <v>2977</v>
       </c>
       <c r="Q265">
@@ -14552,7 +14573,7 @@
       <c r="O266" s="10">
         <v>3000</v>
       </c>
-      <c r="P266">
+      <c r="P266" s="10">
         <v>2980</v>
       </c>
       <c r="V266" t="s">
@@ -14578,7 +14599,7 @@
       <c r="O267" s="10">
         <v>3000</v>
       </c>
-      <c r="P267">
+      <c r="P267" s="10">
         <v>2982</v>
       </c>
       <c r="V267" t="s">
@@ -14604,7 +14625,7 @@
       <c r="O268" s="10">
         <v>3002</v>
       </c>
-      <c r="P268">
+      <c r="P268" s="10">
         <v>2982</v>
       </c>
       <c r="V268" t="s">
@@ -14627,7 +14648,7 @@
       <c r="O269" s="10">
         <v>3003</v>
       </c>
-      <c r="P269">
+      <c r="P269" s="10">
         <v>2984</v>
       </c>
       <c r="V269" t="s">
@@ -14653,7 +14674,7 @@
       <c r="O270" s="10">
         <v>3004</v>
       </c>
-      <c r="P270">
+      <c r="P270" s="10">
         <v>2988</v>
       </c>
       <c r="V270" t="s">
@@ -14676,7 +14697,7 @@
       <c r="O271" s="10">
         <v>3004</v>
       </c>
-      <c r="P271" s="42">
+      <c r="P271" s="36">
         <v>2990</v>
       </c>
       <c r="Q271" s="42"/>
@@ -14704,7 +14725,7 @@
       <c r="O272" s="10">
         <v>3004</v>
       </c>
-      <c r="P272">
+      <c r="P272" s="10">
         <v>2989</v>
       </c>
       <c r="V272" t="s">
@@ -14730,7 +14751,7 @@
       <c r="O273" s="10">
         <v>3006</v>
       </c>
-      <c r="P273">
+      <c r="P273" s="10">
         <v>2988</v>
       </c>
       <c r="V273" t="s">
@@ -14756,7 +14777,7 @@
       <c r="O274" s="10">
         <v>3012</v>
       </c>
-      <c r="P274">
+      <c r="P274" s="10">
         <v>2987</v>
       </c>
       <c r="V274" t="s">
@@ -14782,7 +14803,7 @@
       <c r="O275" s="10">
         <v>3014</v>
       </c>
-      <c r="P275">
+      <c r="P275" s="10">
         <v>2987</v>
       </c>
       <c r="V275" s="2" t="s">
@@ -14808,7 +14829,7 @@
       <c r="O276" s="10">
         <v>3017</v>
       </c>
-      <c r="P276">
+      <c r="P276" s="10">
         <v>2968</v>
       </c>
       <c r="V276" t="s">
@@ -14834,7 +14855,7 @@
       <c r="O277" s="10">
         <v>3017</v>
       </c>
-      <c r="P277">
+      <c r="P277" s="10">
         <v>2965</v>
       </c>
       <c r="V277" s="2" t="s">
@@ -14857,7 +14878,7 @@
       <c r="O278" s="10">
         <v>3021</v>
       </c>
-      <c r="P278">
+      <c r="P278" s="10">
         <v>2964</v>
       </c>
       <c r="V278" t="s">
@@ -14883,7 +14904,7 @@
       <c r="O279" s="10">
         <v>3022</v>
       </c>
-      <c r="P279">
+      <c r="P279" s="10">
         <v>2961</v>
       </c>
       <c r="V279" s="2" t="s">
@@ -14932,7 +14953,7 @@
       <c r="O281" s="10">
         <v>3027</v>
       </c>
-      <c r="P281">
+      <c r="P281" s="10">
         <v>2957</v>
       </c>
       <c r="V281" s="16" t="s">
@@ -14958,7 +14979,7 @@
       <c r="O282" s="10">
         <v>3028</v>
       </c>
-      <c r="P282">
+      <c r="P282" s="10">
         <v>2956</v>
       </c>
       <c r="V282" s="16" t="s">
@@ -14975,7 +14996,7 @@
       <c r="O283" s="10">
         <v>3028</v>
       </c>
-      <c r="P283">
+      <c r="P283" s="10">
         <v>2957</v>
       </c>
       <c r="V283" s="16" t="s">
@@ -14995,7 +15016,7 @@
       <c r="O284" s="10">
         <v>3028</v>
       </c>
-      <c r="P284">
+      <c r="P284" s="10">
         <v>2957</v>
       </c>
       <c r="V284" s="2" t="s">
@@ -15021,7 +15042,7 @@
       <c r="O285" s="10">
         <v>3028</v>
       </c>
-      <c r="P285">
+      <c r="P285" s="10">
         <v>2958</v>
       </c>
       <c r="V285" s="16" t="s">
@@ -15044,7 +15065,7 @@
       <c r="O286" s="10">
         <v>3032</v>
       </c>
-      <c r="P286">
+      <c r="P286" s="10">
         <v>2955</v>
       </c>
       <c r="V286" s="32" t="s">
@@ -15067,7 +15088,7 @@
       <c r="O287" s="10">
         <v>3032</v>
       </c>
-      <c r="P287">
+      <c r="P287" s="10">
         <v>2955</v>
       </c>
       <c r="V287" s="16" t="s">
@@ -15096,7 +15117,7 @@
       <c r="O288" s="10">
         <v>3032</v>
       </c>
-      <c r="P288">
+      <c r="P288" s="10">
         <v>2952</v>
       </c>
       <c r="V288" s="16" t="s">
@@ -15122,7 +15143,7 @@
       <c r="O289" s="10">
         <v>3032</v>
       </c>
-      <c r="P289">
+      <c r="P289" s="10">
         <v>2952</v>
       </c>
       <c r="V289" s="16" t="s">
@@ -15148,7 +15169,7 @@
       <c r="O290" s="10">
         <v>3032</v>
       </c>
-      <c r="P290">
+      <c r="P290" s="10">
         <v>2950</v>
       </c>
       <c r="V290" s="2" t="s">
@@ -15174,7 +15195,7 @@
       <c r="O291" s="10">
         <v>3033</v>
       </c>
-      <c r="P291">
+      <c r="P291" s="10">
         <v>2952</v>
       </c>
       <c r="V291" s="16" t="s">
@@ -15197,7 +15218,7 @@
       <c r="O292" s="10">
         <v>3033</v>
       </c>
-      <c r="P292">
+      <c r="P292" s="10">
         <v>2952</v>
       </c>
       <c r="V292" s="16" t="s">
@@ -15220,7 +15241,7 @@
       <c r="O293" s="10">
         <v>3033</v>
       </c>
-      <c r="P293">
+      <c r="P293" s="10">
         <v>2949</v>
       </c>
       <c r="V293" s="16" t="s">
@@ -15243,7 +15264,7 @@
       <c r="O294" s="10">
         <v>3033</v>
       </c>
-      <c r="P294">
+      <c r="P294" s="10">
         <v>2950</v>
       </c>
     </row>
@@ -15263,7 +15284,7 @@
       <c r="O295" s="10">
         <v>3033</v>
       </c>
-      <c r="P295">
+      <c r="P295" s="10">
         <v>2950</v>
       </c>
       <c r="V295" t="s">
@@ -15286,7 +15307,7 @@
       <c r="O296" s="10">
         <v>3033</v>
       </c>
-      <c r="P296">
+      <c r="P296" s="10">
         <v>2950</v>
       </c>
       <c r="V296" t="s">
@@ -15309,7 +15330,7 @@
       <c r="O297" s="10">
         <v>3033</v>
       </c>
-      <c r="P297">
+      <c r="P297" s="10">
         <v>2949</v>
       </c>
     </row>
@@ -15329,7 +15350,7 @@
       <c r="O298" s="10">
         <v>3035</v>
       </c>
-      <c r="P298">
+      <c r="P298" s="10">
         <v>2949</v>
       </c>
     </row>
@@ -15349,7 +15370,7 @@
       <c r="O299" s="10">
         <v>3037</v>
       </c>
-      <c r="P299">
+      <c r="P299" s="10">
         <v>2947</v>
       </c>
       <c r="V299" t="s">
@@ -15372,7 +15393,7 @@
       <c r="O300" s="10">
         <v>3038</v>
       </c>
-      <c r="P300">
+      <c r="P300" s="10">
         <v>2946</v>
       </c>
     </row>
@@ -15395,7 +15416,7 @@
       <c r="O301" s="10">
         <v>3039</v>
       </c>
-      <c r="P301">
+      <c r="P301" s="10">
         <v>2945</v>
       </c>
       <c r="V301" t="s">
@@ -15421,7 +15442,7 @@
       <c r="O302" s="10">
         <v>3039</v>
       </c>
-      <c r="P302">
+      <c r="P302" s="10">
         <v>2940</v>
       </c>
       <c r="V302" s="2" t="s">
@@ -15447,7 +15468,7 @@
       <c r="O303" s="10">
         <v>3041</v>
       </c>
-      <c r="P303">
+      <c r="P303" s="10">
         <v>2939</v>
       </c>
     </row>
@@ -15471,7 +15492,7 @@
       <c r="O304" s="10">
         <v>3041</v>
       </c>
-      <c r="P304">
+      <c r="P304" s="10">
         <v>2939</v>
       </c>
     </row>
@@ -15491,7 +15512,7 @@
       <c r="O305" s="10">
         <v>3042</v>
       </c>
-      <c r="P305">
+      <c r="P305" s="10">
         <v>2937</v>
       </c>
       <c r="V305" t="s">
@@ -15514,7 +15535,7 @@
       <c r="O306" s="10">
         <v>3043</v>
       </c>
-      <c r="P306">
+      <c r="P306" s="10">
         <v>2934</v>
       </c>
     </row>
@@ -15554,7 +15575,7 @@
       <c r="O308" s="10">
         <v>3045</v>
       </c>
-      <c r="P308">
+      <c r="P308" s="10">
         <v>2930</v>
       </c>
       <c r="T308" s="10">
@@ -15584,7 +15605,7 @@
       <c r="O309" s="10">
         <v>3046</v>
       </c>
-      <c r="P309">
+      <c r="P309" s="10">
         <v>2926</v>
       </c>
       <c r="V309" t="s">
@@ -15607,7 +15628,7 @@
       <c r="O310" s="10">
         <v>3047</v>
       </c>
-      <c r="P310">
+      <c r="P310" s="10">
         <v>2923</v>
       </c>
       <c r="V310" t="s">
@@ -15633,7 +15654,7 @@
       <c r="O311" s="10">
         <v>3048</v>
       </c>
-      <c r="P311">
+      <c r="P311" s="10">
         <v>2921</v>
       </c>
     </row>
@@ -15656,7 +15677,7 @@
       <c r="O312" s="10">
         <v>3048</v>
       </c>
-      <c r="P312">
+      <c r="P312" s="10">
         <v>2919</v>
       </c>
       <c r="V312" t="s">
@@ -15702,7 +15723,7 @@
       <c r="O314" s="10">
         <v>3051</v>
       </c>
-      <c r="P314">
+      <c r="P314" s="10">
         <v>2918</v>
       </c>
       <c r="V314" t="s">
@@ -15725,7 +15746,7 @@
       <c r="O315" s="10">
         <v>3051</v>
       </c>
-      <c r="P315">
+      <c r="P315" s="10">
         <v>2914</v>
       </c>
       <c r="T315" s="10">
@@ -15754,7 +15775,7 @@
       <c r="O316" s="10">
         <v>3053</v>
       </c>
-      <c r="P316">
+      <c r="P316" s="10">
         <v>2914</v>
       </c>
       <c r="V316" t="s">
@@ -15780,7 +15801,7 @@
       <c r="O317" s="10">
         <v>3057</v>
       </c>
-      <c r="P317">
+      <c r="P317" s="10">
         <v>2912</v>
       </c>
       <c r="V317" t="s">
@@ -15817,7 +15838,7 @@
       <c r="O319" s="10">
         <v>3057</v>
       </c>
-      <c r="P319">
+      <c r="P319" s="10">
         <v>2911</v>
       </c>
       <c r="V319" t="s">
@@ -15843,7 +15864,7 @@
       <c r="O320" s="10">
         <v>3057</v>
       </c>
-      <c r="P320">
+      <c r="P320" s="10">
         <v>2909</v>
       </c>
     </row>
@@ -15866,7 +15887,7 @@
       <c r="O321" s="10">
         <v>3057</v>
       </c>
-      <c r="P321">
+      <c r="P321" s="10">
         <v>2908</v>
       </c>
     </row>
@@ -15889,7 +15910,7 @@
       <c r="O322" s="10">
         <v>3063</v>
       </c>
-      <c r="P322">
+      <c r="P322" s="10">
         <v>2908</v>
       </c>
     </row>
@@ -15912,7 +15933,7 @@
       <c r="O323" s="10">
         <v>3065</v>
       </c>
-      <c r="P323">
+      <c r="P323" s="10">
         <v>2907</v>
       </c>
     </row>
@@ -15935,7 +15956,7 @@
       <c r="O324" s="10">
         <v>3066</v>
       </c>
-      <c r="P324">
+      <c r="P324" s="10">
         <v>2906</v>
       </c>
     </row>
@@ -15949,7 +15970,7 @@
       <c r="O325" s="10">
         <v>3068</v>
       </c>
-      <c r="P325">
+      <c r="P325" s="10">
         <v>2904</v>
       </c>
       <c r="V325" t="s">
@@ -15975,7 +15996,7 @@
       <c r="O326" s="10">
         <v>3068</v>
       </c>
-      <c r="P326">
+      <c r="P326" s="10">
         <v>2904</v>
       </c>
     </row>
@@ -15998,7 +16019,7 @@
       <c r="O327" s="10">
         <v>3069</v>
       </c>
-      <c r="P327">
+      <c r="P327" s="10">
         <v>2904</v>
       </c>
     </row>
@@ -16018,7 +16039,7 @@
       <c r="O328" s="10">
         <v>3069</v>
       </c>
-      <c r="P328">
+      <c r="P328" s="10">
         <v>2902</v>
       </c>
     </row>
@@ -16041,7 +16062,7 @@
       <c r="O329" s="10">
         <v>3069</v>
       </c>
-      <c r="P329">
+      <c r="P329" s="10">
         <v>2904</v>
       </c>
       <c r="V329" t="s">
@@ -16067,7 +16088,7 @@
       <c r="O330" s="10">
         <v>3069</v>
       </c>
-      <c r="P330">
+      <c r="P330" s="10">
         <v>2904</v>
       </c>
     </row>
@@ -16090,7 +16111,7 @@
       <c r="O331" s="10">
         <v>3071</v>
       </c>
-      <c r="P331">
+      <c r="P331" s="10">
         <v>2901</v>
       </c>
       <c r="V331" t="s">
@@ -16116,7 +16137,7 @@
       <c r="O332" s="10">
         <v>3073</v>
       </c>
-      <c r="P332">
+      <c r="P332" s="10">
         <v>2894</v>
       </c>
       <c r="V332" s="2" t="s">
@@ -16142,7 +16163,7 @@
       <c r="O333" s="10">
         <v>3073</v>
       </c>
-      <c r="P333">
+      <c r="P333" s="10">
         <v>2892</v>
       </c>
       <c r="V333" s="2" t="s">
@@ -16169,7 +16190,7 @@
       <c r="O334" s="10">
         <v>3073</v>
       </c>
-      <c r="P334">
+      <c r="P334" s="10">
         <v>2891</v>
       </c>
     </row>
@@ -16193,7 +16214,7 @@
       <c r="O335" s="10">
         <v>3074</v>
       </c>
-      <c r="P335">
+      <c r="P335" s="10">
         <v>2889</v>
       </c>
       <c r="V335" s="2" t="s">
@@ -16220,7 +16241,7 @@
       <c r="O336" s="10">
         <v>3075</v>
       </c>
-      <c r="P336">
+      <c r="P336" s="10">
         <v>2889</v>
       </c>
       <c r="V336" s="36" t="s">
@@ -16247,7 +16268,7 @@
       <c r="O337" s="10">
         <v>3075</v>
       </c>
-      <c r="P337">
+      <c r="P337" s="10">
         <v>2888</v>
       </c>
     </row>
@@ -16271,7 +16292,7 @@
       <c r="O338" s="10">
         <v>3075</v>
       </c>
-      <c r="P338">
+      <c r="P338" s="10">
         <v>2885</v>
       </c>
       <c r="T338" s="10">
@@ -16302,7 +16323,7 @@
       <c r="O339" s="10">
         <v>3075</v>
       </c>
-      <c r="P339">
+      <c r="P339" s="10">
         <v>2882</v>
       </c>
     </row>
@@ -16326,7 +16347,7 @@
       <c r="O340" s="10">
         <v>3075</v>
       </c>
-      <c r="P340">
+      <c r="P340" s="10">
         <v>2881</v>
       </c>
     </row>
@@ -16350,7 +16371,7 @@
       <c r="O341" s="10">
         <v>3075</v>
       </c>
-      <c r="P341">
+      <c r="P341" s="10">
         <v>2878</v>
       </c>
       <c r="V341" s="16" t="s">
@@ -16388,7 +16409,7 @@
       <c r="O343" s="10">
         <v>3078</v>
       </c>
-      <c r="P343">
+      <c r="P343" s="10">
         <v>2875</v>
       </c>
       <c r="V343" t="s">
@@ -16415,7 +16436,7 @@
       <c r="O344" s="10">
         <v>3078</v>
       </c>
-      <c r="P344">
+      <c r="P344" s="10">
         <v>2872</v>
       </c>
       <c r="V344" t="s">
@@ -16442,7 +16463,7 @@
       <c r="O345" s="10">
         <v>3079</v>
       </c>
-      <c r="P345">
+      <c r="P345" s="10">
         <v>2872</v>
       </c>
       <c r="V345" t="s">
@@ -16469,7 +16490,7 @@
       <c r="O346" s="10">
         <v>3080</v>
       </c>
-      <c r="P346">
+      <c r="P346" s="10">
         <v>2871</v>
       </c>
       <c r="V346" t="s">
@@ -16496,7 +16517,7 @@
       <c r="O347" s="10">
         <v>3081</v>
       </c>
-      <c r="P347">
+      <c r="P347" s="10">
         <v>2869</v>
       </c>
       <c r="V347" t="s">
@@ -16523,7 +16544,7 @@
       <c r="O348" s="10">
         <v>3083</v>
       </c>
-      <c r="P348">
+      <c r="P348" s="10">
         <v>2867</v>
       </c>
       <c r="V348" t="s">
@@ -16550,7 +16571,7 @@
       <c r="O349" s="10">
         <v>3083</v>
       </c>
-      <c r="P349">
+      <c r="P349" s="10">
         <v>2865</v>
       </c>
       <c r="V349" t="s">
@@ -16577,7 +16598,7 @@
       <c r="O350" s="10">
         <v>3083</v>
       </c>
-      <c r="P350">
+      <c r="P350" s="10">
         <v>2866</v>
       </c>
       <c r="V350" t="s">
@@ -16604,7 +16625,7 @@
       <c r="O351" s="10">
         <v>3083</v>
       </c>
-      <c r="P351">
+      <c r="P351" s="10">
         <v>2866</v>
       </c>
     </row>
@@ -16628,7 +16649,7 @@
       <c r="O352" s="10">
         <v>3083</v>
       </c>
-      <c r="P352">
+      <c r="P352" s="10">
         <v>2865</v>
       </c>
       <c r="V352" t="s">
@@ -16655,7 +16676,7 @@
       <c r="O353" s="10">
         <v>3084</v>
       </c>
-      <c r="P353">
+      <c r="P353" s="10">
         <v>2861</v>
       </c>
     </row>
@@ -16679,7 +16700,7 @@
       <c r="O354" s="10">
         <v>3084</v>
       </c>
-      <c r="P354">
+      <c r="P354" s="10">
         <v>2860</v>
       </c>
     </row>
@@ -16703,7 +16724,7 @@
       <c r="O355" s="10">
         <v>3084</v>
       </c>
-      <c r="P355">
+      <c r="P355" s="10">
         <v>2858</v>
       </c>
     </row>
@@ -16727,7 +16748,7 @@
       <c r="O356" s="10">
         <v>3085</v>
       </c>
-      <c r="P356">
+      <c r="P356" s="10">
         <v>2857</v>
       </c>
     </row>
@@ -16751,7 +16772,7 @@
       <c r="O357" s="10">
         <v>3088</v>
       </c>
-      <c r="P357">
+      <c r="P357" s="10">
         <v>2856</v>
       </c>
     </row>
@@ -16775,7 +16796,7 @@
       <c r="O358" s="10">
         <v>3088</v>
       </c>
-      <c r="P358">
+      <c r="P358" s="10">
         <v>2857</v>
       </c>
       <c r="V358" t="s">
@@ -16802,7 +16823,7 @@
       <c r="O359" s="10">
         <v>3089</v>
       </c>
-      <c r="P359">
+      <c r="P359" s="10">
         <v>2855</v>
       </c>
       <c r="V359" t="s">
@@ -16829,7 +16850,7 @@
       <c r="O360" s="10">
         <v>3092</v>
       </c>
-      <c r="P360">
+      <c r="P360" s="10">
         <v>2855</v>
       </c>
     </row>
@@ -16853,7 +16874,7 @@
       <c r="O361" s="10">
         <v>3093</v>
       </c>
-      <c r="P361">
+      <c r="P361" s="10">
         <v>2857</v>
       </c>
       <c r="V361" t="s">
@@ -16891,7 +16912,7 @@
       <c r="O363" s="10">
         <v>3094</v>
       </c>
-      <c r="P363">
+      <c r="P363" s="10">
         <v>2857</v>
       </c>
       <c r="V363" s="16" t="s">
@@ -16918,7 +16939,7 @@
       <c r="O364" s="10">
         <v>3095</v>
       </c>
-      <c r="P364">
+      <c r="P364" s="10">
         <v>2855</v>
       </c>
       <c r="V364" s="16" t="s">
@@ -16935,7 +16956,7 @@
       <c r="O365" s="10">
         <v>3095</v>
       </c>
-      <c r="P365">
+      <c r="P365" s="10">
         <v>2855</v>
       </c>
       <c r="V365" s="16" t="s">
@@ -16987,7 +17008,7 @@
       <c r="O367" s="10">
         <v>3100</v>
       </c>
-      <c r="P367">
+      <c r="P367" s="10">
         <v>2850</v>
       </c>
       <c r="T367" s="10">
@@ -17018,7 +17039,7 @@
       <c r="O368" s="10">
         <v>3100</v>
       </c>
-      <c r="P368">
+      <c r="P368" s="10">
         <v>2850</v>
       </c>
       <c r="V368" s="16" t="s">
@@ -17045,7 +17066,7 @@
       <c r="O369" s="10">
         <v>3104</v>
       </c>
-      <c r="P369">
+      <c r="P369" s="10">
         <v>2847</v>
       </c>
       <c r="V369" s="16" t="s">
@@ -17072,7 +17093,7 @@
       <c r="O370" s="10">
         <v>3105</v>
       </c>
-      <c r="P370">
+      <c r="P370" s="10">
         <v>2843</v>
       </c>
       <c r="T370" s="10">
@@ -17103,7 +17124,7 @@
       <c r="O371" s="10">
         <v>3104</v>
       </c>
-      <c r="P371">
+      <c r="P371" s="10">
         <v>2842</v>
       </c>
       <c r="V371" s="16" t="s">
@@ -17130,7 +17151,7 @@
       <c r="O372" s="10">
         <v>3104</v>
       </c>
-      <c r="P372">
+      <c r="P372" s="10">
         <v>2842</v>
       </c>
       <c r="V372" s="16" t="s">
@@ -17157,7 +17178,7 @@
       <c r="O373" s="10">
         <v>3104</v>
       </c>
-      <c r="P373">
+      <c r="P373" s="10">
         <v>2842</v>
       </c>
       <c r="V373" s="16" t="s">
@@ -17184,7 +17205,7 @@
       <c r="O374" s="10">
         <v>3104</v>
       </c>
-      <c r="P374">
+      <c r="P374" s="10">
         <v>2838</v>
       </c>
       <c r="V374" s="16" t="s">
@@ -17211,7 +17232,7 @@
       <c r="O375" s="10">
         <v>3107</v>
       </c>
-      <c r="P375">
+      <c r="P375" s="10">
         <v>2831</v>
       </c>
       <c r="V375" s="16" t="s">
@@ -17238,7 +17259,7 @@
       <c r="O376" s="10">
         <v>3111</v>
       </c>
-      <c r="P376">
+      <c r="P376" s="10">
         <v>2827</v>
       </c>
       <c r="V376" s="16" t="s">
@@ -17265,7 +17286,7 @@
       <c r="O377" s="10">
         <v>3111</v>
       </c>
-      <c r="P377">
+      <c r="P377" s="10">
         <v>2827</v>
       </c>
     </row>
@@ -17289,7 +17310,7 @@
       <c r="O378" s="10">
         <v>3113</v>
       </c>
-      <c r="P378">
+      <c r="P378" s="10">
         <v>2825</v>
       </c>
       <c r="V378" t="s">
@@ -17316,7 +17337,7 @@
       <c r="O379" s="10">
         <v>3113</v>
       </c>
-      <c r="P379">
+      <c r="P379" s="10">
         <v>2825</v>
       </c>
       <c r="V379" t="s">
@@ -17343,7 +17364,7 @@
       <c r="O380" s="10">
         <v>3114</v>
       </c>
-      <c r="P380">
+      <c r="P380" s="10">
         <v>2824</v>
       </c>
       <c r="V380" s="2" t="s">
@@ -17370,7 +17391,7 @@
       <c r="O381" s="10">
         <v>3114</v>
       </c>
-      <c r="P381">
+      <c r="P381" s="10">
         <v>2823</v>
       </c>
       <c r="T381" s="10">
@@ -17401,7 +17422,7 @@
       <c r="O382" s="10">
         <v>3116</v>
       </c>
-      <c r="P382">
+      <c r="P382" s="10">
         <v>2818</v>
       </c>
       <c r="V382" t="s">
@@ -17428,7 +17449,7 @@
       <c r="O383" s="10">
         <v>3120</v>
       </c>
-      <c r="P383" s="2">
+      <c r="P383" s="36">
         <v>2809</v>
       </c>
       <c r="Q383" s="2"/>
@@ -17463,7 +17484,7 @@
       <c r="O384" s="10">
         <v>3120</v>
       </c>
-      <c r="P384">
+      <c r="P384" s="10">
         <v>2809</v>
       </c>
       <c r="V384" t="s">
@@ -17490,7 +17511,7 @@
       <c r="O385" s="10">
         <v>3121</v>
       </c>
-      <c r="P385">
+      <c r="P385" s="10">
         <v>2809</v>
       </c>
       <c r="V385" t="s">
@@ -17517,7 +17538,7 @@
       <c r="O386" s="10">
         <v>3121</v>
       </c>
-      <c r="P386">
+      <c r="P386" s="10">
         <v>2809</v>
       </c>
       <c r="T386" s="10">
@@ -17548,7 +17569,7 @@
       <c r="O387" s="10">
         <v>3121</v>
       </c>
-      <c r="P387">
+      <c r="P387" s="10">
         <v>2811</v>
       </c>
       <c r="T387" s="10">
@@ -17579,7 +17600,7 @@
       <c r="O388" s="10">
         <v>3124</v>
       </c>
-      <c r="P388">
+      <c r="P388" s="10">
         <v>2810</v>
       </c>
       <c r="V388" t="s">
@@ -17606,7 +17627,7 @@
       <c r="O389" s="10">
         <v>3125</v>
       </c>
-      <c r="P389" s="16">
+      <c r="P389" s="45">
         <v>2809</v>
       </c>
       <c r="Q389" s="16"/>
@@ -17637,7 +17658,7 @@
       <c r="O390" s="10">
         <v>3125</v>
       </c>
-      <c r="P390" s="2">
+      <c r="P390" s="36">
         <v>2809</v>
       </c>
       <c r="Q390" s="2"/>
@@ -17669,7 +17690,7 @@
       <c r="O391" s="10">
         <v>3125</v>
       </c>
-      <c r="P391">
+      <c r="P391" s="10">
         <v>2810</v>
       </c>
       <c r="V391" t="s">
@@ -17696,7 +17717,7 @@
       <c r="O392" s="10">
         <v>3126</v>
       </c>
-      <c r="P392">
+      <c r="P392" s="10">
         <v>2812</v>
       </c>
       <c r="V392" t="s">
@@ -17723,7 +17744,7 @@
       <c r="O393" s="10">
         <v>3126</v>
       </c>
-      <c r="P393">
+      <c r="P393" s="10">
         <v>2812</v>
       </c>
       <c r="V393" t="s">
@@ -17750,7 +17771,7 @@
       <c r="O394" s="10">
         <v>3126</v>
       </c>
-      <c r="P394">
+      <c r="P394" s="10">
         <v>2812</v>
       </c>
     </row>
@@ -17774,7 +17795,7 @@
       <c r="O395" s="10">
         <v>3126</v>
       </c>
-      <c r="P395">
+      <c r="P395" s="10">
         <v>2812</v>
       </c>
       <c r="V395" t="s">
@@ -17800,7 +17821,7 @@
       <c r="O396" s="10">
         <v>3126</v>
       </c>
-      <c r="P396">
+      <c r="P396" s="10">
         <v>2813</v>
       </c>
       <c r="V396" t="s">
@@ -17827,7 +17848,7 @@
       <c r="O397" s="10">
         <v>3126</v>
       </c>
-      <c r="P397">
+      <c r="P397" s="10">
         <v>2813</v>
       </c>
       <c r="V397" t="s">
@@ -17854,7 +17875,7 @@
       <c r="O398" s="10">
         <v>3126</v>
       </c>
-      <c r="P398">
+      <c r="P398" s="10">
         <v>2813</v>
       </c>
       <c r="T398" s="10">
@@ -17884,7 +17905,7 @@
       <c r="O399" s="10">
         <v>3127</v>
       </c>
-      <c r="P399">
+      <c r="P399" s="10">
         <v>2814</v>
       </c>
       <c r="V399" t="s">
@@ -17911,7 +17932,7 @@
       <c r="O400" s="10">
         <v>3128</v>
       </c>
-      <c r="P400">
+      <c r="P400" s="10">
         <v>2812</v>
       </c>
       <c r="V400" t="s">
@@ -17938,7 +17959,7 @@
       <c r="O401" s="10">
         <v>3128</v>
       </c>
-      <c r="P401">
+      <c r="P401" s="10">
         <v>2812</v>
       </c>
       <c r="T401" s="10">
@@ -17969,7 +17990,7 @@
       <c r="O402" s="10">
         <v>3128</v>
       </c>
-      <c r="P402">
+      <c r="P402" s="10">
         <v>2812</v>
       </c>
       <c r="V402" t="s">
@@ -17996,7 +18017,7 @@
       <c r="O403" s="10">
         <v>3128</v>
       </c>
-      <c r="P403">
+      <c r="P403" s="10">
         <v>2812</v>
       </c>
       <c r="V403" t="s">
@@ -18023,7 +18044,7 @@
       <c r="O404" s="10">
         <v>3129</v>
       </c>
-      <c r="P404">
+      <c r="P404" s="10">
         <v>2812</v>
       </c>
       <c r="V404" t="s">
@@ -18050,7 +18071,7 @@
       <c r="O405" s="10">
         <v>3130</v>
       </c>
-      <c r="P405">
+      <c r="P405" s="10">
         <v>2812</v>
       </c>
     </row>
@@ -18085,7 +18106,7 @@
       <c r="O407" s="10">
         <v>3130</v>
       </c>
-      <c r="P407">
+      <c r="P407" s="10">
         <v>2812</v>
       </c>
       <c r="T407" s="10">
@@ -18116,7 +18137,7 @@
       <c r="O408" s="10">
         <v>3130</v>
       </c>
-      <c r="P408">
+      <c r="P408" s="10">
         <v>2812</v>
       </c>
       <c r="V408" t="s">
@@ -18143,7 +18164,7 @@
       <c r="O409" s="10">
         <v>3132</v>
       </c>
-      <c r="P409">
+      <c r="P409" s="10">
         <v>2814</v>
       </c>
       <c r="V409" t="s">
@@ -18170,7 +18191,7 @@
       <c r="O410" s="10">
         <v>3133</v>
       </c>
-      <c r="P410">
+      <c r="P410" s="10">
         <v>2812</v>
       </c>
     </row>
@@ -18194,7 +18215,7 @@
       <c r="O411" s="10">
         <v>3133</v>
       </c>
-      <c r="P411">
+      <c r="P411" s="10">
         <v>2812</v>
       </c>
       <c r="V411" t="s">
@@ -18221,7 +18242,7 @@
       <c r="O412" s="10">
         <v>3133</v>
       </c>
-      <c r="P412">
+      <c r="P412" s="10">
         <v>2812</v>
       </c>
     </row>
@@ -18245,7 +18266,7 @@
       <c r="O413" s="10">
         <v>3133</v>
       </c>
-      <c r="P413">
+      <c r="P413" s="10">
         <v>2813</v>
       </c>
       <c r="V413" t="s">
@@ -18272,7 +18293,7 @@
       <c r="O414" s="10">
         <v>3134</v>
       </c>
-      <c r="P414">
+      <c r="P414" s="10">
         <v>2812</v>
       </c>
       <c r="V414" t="s">
@@ -18299,7 +18320,7 @@
       <c r="O415" s="10">
         <v>3134</v>
       </c>
-      <c r="P415">
+      <c r="P415" s="10">
         <v>2811</v>
       </c>
       <c r="V415" t="s">
@@ -18341,7 +18362,7 @@
       <c r="O417" s="10">
         <v>3138</v>
       </c>
-      <c r="P417">
+      <c r="P417" s="10">
         <v>2811</v>
       </c>
       <c r="V417" s="37" t="s">
@@ -18368,7 +18389,7 @@
       <c r="O418" s="10">
         <v>3138</v>
       </c>
-      <c r="P418">
+      <c r="P418" s="10">
         <v>2811</v>
       </c>
       <c r="V418" t="s">
@@ -18395,7 +18416,7 @@
       <c r="O419" s="10">
         <v>3139</v>
       </c>
-      <c r="P419">
+      <c r="P419" s="10">
         <v>2812</v>
       </c>
       <c r="V419" t="s">
@@ -18443,7 +18464,7 @@
       <c r="O421" s="10">
         <v>3140</v>
       </c>
-      <c r="P421">
+      <c r="P421" s="10">
         <v>2813</v>
       </c>
       <c r="V421" s="37" t="s">
@@ -18470,7 +18491,7 @@
       <c r="O422" s="10">
         <v>3141</v>
       </c>
-      <c r="P422">
+      <c r="P422" s="10">
         <v>2814</v>
       </c>
       <c r="V422" t="s">
@@ -18497,7 +18518,7 @@
       <c r="O423" s="10">
         <v>3142</v>
       </c>
-      <c r="P423">
+      <c r="P423" s="10">
         <v>2814</v>
       </c>
       <c r="T423" s="10">
@@ -18527,7 +18548,7 @@
       <c r="O424" s="10">
         <v>3142</v>
       </c>
-      <c r="P424">
+      <c r="P424" s="10">
         <v>2817</v>
       </c>
       <c r="V424" t="s">
@@ -18554,7 +18575,7 @@
       <c r="O425" s="10">
         <v>3142</v>
       </c>
-      <c r="P425">
+      <c r="P425" s="10">
         <v>2818</v>
       </c>
       <c r="V425" t="s">
@@ -18581,7 +18602,7 @@
       <c r="O426" s="10">
         <v>3143</v>
       </c>
-      <c r="P426">
+      <c r="P426" s="10">
         <v>2816</v>
       </c>
     </row>
@@ -18605,7 +18626,7 @@
       <c r="O427" s="10">
         <v>3143</v>
       </c>
-      <c r="P427">
+      <c r="P427" s="10">
         <v>2816</v>
       </c>
       <c r="V427" t="s">
@@ -18632,7 +18653,7 @@
       <c r="O428" s="10">
         <v>3144</v>
       </c>
-      <c r="P428">
+      <c r="P428" s="10">
         <v>2817</v>
       </c>
     </row>
@@ -18656,7 +18677,7 @@
       <c r="O429" s="10">
         <v>3144</v>
       </c>
-      <c r="P429">
+      <c r="P429" s="10">
         <v>2816</v>
       </c>
       <c r="V429" t="s">
@@ -18683,7 +18704,7 @@
       <c r="O430" s="10">
         <v>3144</v>
       </c>
-      <c r="P430">
+      <c r="P430" s="10">
         <v>2816</v>
       </c>
       <c r="T430" s="10">
@@ -18713,7 +18734,7 @@
       <c r="O431" s="10">
         <v>3148</v>
       </c>
-      <c r="P431">
+      <c r="P431" s="10">
         <v>2817</v>
       </c>
       <c r="T431" s="10">
@@ -18743,7 +18764,7 @@
       <c r="O432" s="10">
         <v>3149</v>
       </c>
-      <c r="P432">
+      <c r="P432" s="10">
         <v>2817</v>
       </c>
       <c r="T432" s="10">
@@ -18773,7 +18794,7 @@
       <c r="O433" s="10">
         <v>3149</v>
       </c>
-      <c r="P433">
+      <c r="P433" s="10">
         <v>2816</v>
       </c>
       <c r="V433" t="s">
@@ -18800,7 +18821,7 @@
       <c r="O434" s="10">
         <v>3149</v>
       </c>
-      <c r="P434">
+      <c r="P434" s="10">
         <v>2816</v>
       </c>
     </row>
@@ -18824,7 +18845,7 @@
       <c r="O435" s="10">
         <v>3148</v>
       </c>
-      <c r="P435">
+      <c r="P435" s="10">
         <v>2814</v>
       </c>
       <c r="V435" t="s">
@@ -18851,7 +18872,7 @@
       <c r="O436" s="10">
         <v>3148</v>
       </c>
-      <c r="P436">
+      <c r="P436" s="10">
         <v>2813</v>
       </c>
       <c r="T436" s="10">
@@ -18881,7 +18902,7 @@
       <c r="O437" s="10">
         <v>3148</v>
       </c>
-      <c r="P437">
+      <c r="P437" s="10">
         <v>2812</v>
       </c>
       <c r="V437" t="s">
@@ -18908,7 +18929,7 @@
       <c r="O438" s="10">
         <v>3148</v>
       </c>
-      <c r="P438">
+      <c r="P438" s="10">
         <v>2811</v>
       </c>
       <c r="V438" t="s">
@@ -18935,7 +18956,7 @@
       <c r="O439" s="10">
         <v>3148</v>
       </c>
-      <c r="P439">
+      <c r="P439" s="10">
         <v>2810</v>
       </c>
       <c r="T439" s="10">
@@ -18965,7 +18986,7 @@
       <c r="O440" s="10">
         <v>3148</v>
       </c>
-      <c r="P440">
+      <c r="P440" s="10">
         <v>2810</v>
       </c>
       <c r="V440" s="16" t="s">
@@ -18992,7 +19013,7 @@
       <c r="O441" s="10">
         <v>3148</v>
       </c>
-      <c r="P441">
+      <c r="P441" s="10">
         <v>2810</v>
       </c>
       <c r="T441" s="10">
@@ -19022,7 +19043,7 @@
       <c r="O442" s="10">
         <v>3149</v>
       </c>
-      <c r="P442">
+      <c r="P442" s="10">
         <v>2810</v>
       </c>
       <c r="T442" s="10">
@@ -19052,7 +19073,7 @@
       <c r="O443" s="10">
         <v>3149</v>
       </c>
-      <c r="P443" s="16">
+      <c r="P443" s="45">
         <v>2809</v>
       </c>
       <c r="Q443" s="2"/>
@@ -19086,7 +19107,7 @@
       <c r="O444" s="10">
         <v>3152</v>
       </c>
-      <c r="P444" s="16">
+      <c r="P444" s="45">
         <v>2808</v>
       </c>
       <c r="Q444" s="2"/>
@@ -19120,7 +19141,7 @@
       <c r="O445" s="10">
         <v>3152</v>
       </c>
-      <c r="P445" s="16">
+      <c r="P445" s="45">
         <v>2808</v>
       </c>
       <c r="T445" s="10">
@@ -19150,7 +19171,7 @@
       <c r="O446" s="10">
         <v>3152</v>
       </c>
-      <c r="P446" s="16">
+      <c r="P446" s="45">
         <v>2808</v>
       </c>
       <c r="T446" s="10">
@@ -19180,7 +19201,7 @@
       <c r="O447" s="10">
         <v>3152</v>
       </c>
-      <c r="P447" s="16">
+      <c r="P447" s="45">
         <v>2807</v>
       </c>
       <c r="Q447" s="2"/>
@@ -19214,7 +19235,7 @@
       <c r="O448" s="10">
         <v>3153</v>
       </c>
-      <c r="P448" s="16">
+      <c r="P448" s="45">
         <v>2807</v>
       </c>
       <c r="V448" s="16" t="s">
@@ -19241,7 +19262,7 @@
       <c r="O449" s="10">
         <v>3154</v>
       </c>
-      <c r="P449">
+      <c r="P449" s="10">
         <v>2808</v>
       </c>
       <c r="T449" s="10">
@@ -19271,7 +19292,7 @@
       <c r="O450" s="10">
         <v>3155</v>
       </c>
-      <c r="P450">
+      <c r="P450" s="10">
         <v>2807</v>
       </c>
       <c r="V450" s="31" t="s">
@@ -19298,7 +19319,7 @@
       <c r="O451" s="10">
         <v>3155</v>
       </c>
-      <c r="P451">
+      <c r="P451" s="10">
         <v>2809</v>
       </c>
       <c r="V451" s="16" t="s">
@@ -19325,7 +19346,7 @@
       <c r="O452" s="10">
         <v>3154</v>
       </c>
-      <c r="P452">
+      <c r="P452" s="10">
         <v>2809</v>
       </c>
     </row>
@@ -19349,7 +19370,7 @@
       <c r="O453" s="10">
         <v>3154</v>
       </c>
-      <c r="P453">
+      <c r="P453" s="10">
         <v>2808</v>
       </c>
       <c r="T453" s="10">
@@ -19379,7 +19400,7 @@
       <c r="O454" s="10">
         <v>3153</v>
       </c>
-      <c r="P454">
+      <c r="P454" s="10">
         <v>2809</v>
       </c>
       <c r="V454" t="s">
@@ -19406,7 +19427,7 @@
       <c r="O455" s="10">
         <v>3153</v>
       </c>
-      <c r="P455">
+      <c r="P455" s="10">
         <v>2809</v>
       </c>
       <c r="T455" s="10">
@@ -19436,7 +19457,7 @@
       <c r="O456" s="10">
         <v>3153</v>
       </c>
-      <c r="P456">
+      <c r="P456" s="10">
         <v>2808</v>
       </c>
       <c r="T456" s="36">
@@ -19467,7 +19488,7 @@
       <c r="O457" s="10">
         <v>3153</v>
       </c>
-      <c r="P457">
+      <c r="P457" s="10">
         <v>2808</v>
       </c>
       <c r="T457" s="10">
@@ -19497,7 +19518,7 @@
       <c r="O458" s="10">
         <v>3155</v>
       </c>
-      <c r="P458">
+      <c r="P458" s="10">
         <v>2808</v>
       </c>
       <c r="Q458">
@@ -19530,7 +19551,7 @@
       <c r="O459" s="10">
         <v>3157</v>
       </c>
-      <c r="P459">
+      <c r="P459" s="10">
         <v>2807</v>
       </c>
       <c r="Q459">
@@ -19553,7 +19574,7 @@
       <c r="O460" s="10">
         <v>3159</v>
       </c>
-      <c r="P460">
+      <c r="P460" s="10">
         <v>2804</v>
       </c>
       <c r="Q460">
@@ -19576,7 +19597,7 @@
       <c r="O461" s="10">
         <v>3160</v>
       </c>
-      <c r="P461" s="2">
+      <c r="P461" s="36">
         <v>2802</v>
       </c>
       <c r="Q461">
@@ -19596,7 +19617,7 @@
       <c r="O462" s="10">
         <v>3161</v>
       </c>
-      <c r="P462" s="2">
+      <c r="P462" s="36">
         <v>2800</v>
       </c>
       <c r="Q462">
@@ -19629,7 +19650,7 @@
       <c r="O463" s="10">
         <v>3160</v>
       </c>
-      <c r="P463">
+      <c r="P463" s="10">
         <v>2802</v>
       </c>
       <c r="Q463">
@@ -19659,7 +19680,7 @@
       <c r="O464" s="10">
         <v>3160</v>
       </c>
-      <c r="P464">
+      <c r="P464" s="10">
         <v>2802</v>
       </c>
       <c r="Q464">
@@ -19689,7 +19710,7 @@
       <c r="O465" s="10">
         <v>3160</v>
       </c>
-      <c r="P465">
+      <c r="P465" s="10">
         <v>2802</v>
       </c>
       <c r="Q465">
@@ -19722,7 +19743,7 @@
       <c r="O466" s="10">
         <v>3160</v>
       </c>
-      <c r="P466">
+      <c r="P466" s="10">
         <v>2802</v>
       </c>
       <c r="Q466">
@@ -19755,7 +19776,7 @@
       <c r="O467" s="10">
         <v>3161</v>
       </c>
-      <c r="P467">
+      <c r="P467" s="10">
         <v>2803</v>
       </c>
       <c r="Q467">
@@ -19785,7 +19806,7 @@
       <c r="O468" s="10">
         <v>3165</v>
       </c>
-      <c r="P468">
+      <c r="P468" s="10">
         <v>2805</v>
       </c>
       <c r="Q468">
@@ -19818,7 +19839,7 @@
       <c r="O469" s="10">
         <v>3165</v>
       </c>
-      <c r="P469">
+      <c r="P469" s="10">
         <v>2804</v>
       </c>
       <c r="Q469">
@@ -19851,7 +19872,7 @@
       <c r="O470" s="10">
         <v>3165</v>
       </c>
-      <c r="P470">
+      <c r="P470" s="10">
         <v>2802</v>
       </c>
       <c r="Q470">
@@ -19881,7 +19902,7 @@
       <c r="O471" s="10">
         <v>3165</v>
       </c>
-      <c r="P471">
+      <c r="P471" s="10">
         <v>2803</v>
       </c>
       <c r="Q471">
@@ -19914,7 +19935,7 @@
       <c r="O472" s="10">
         <v>3167</v>
       </c>
-      <c r="P472">
+      <c r="P472" s="10">
         <v>2802</v>
       </c>
       <c r="Q472">
@@ -19947,7 +19968,7 @@
       <c r="O473" s="10">
         <v>3167</v>
       </c>
-      <c r="P473">
+      <c r="P473" s="10">
         <v>2803</v>
       </c>
       <c r="Q473">
@@ -19980,7 +20001,7 @@
       <c r="O474" s="10">
         <v>3167</v>
       </c>
-      <c r="P474">
+      <c r="P474" s="10">
         <v>2803</v>
       </c>
       <c r="Q474">
@@ -20013,7 +20034,7 @@
       <c r="O475" s="10">
         <v>3167</v>
       </c>
-      <c r="P475">
+      <c r="P475" s="10">
         <v>2802</v>
       </c>
       <c r="Q475">
@@ -20046,7 +20067,7 @@
       <c r="O476" s="10">
         <v>3167</v>
       </c>
-      <c r="P476">
+      <c r="P476" s="10">
         <v>2802</v>
       </c>
       <c r="Q476">
@@ -20079,7 +20100,7 @@
       <c r="O477" s="10">
         <v>3169</v>
       </c>
-      <c r="P477">
+      <c r="P477" s="10">
         <v>2803</v>
       </c>
       <c r="Q477">
@@ -20112,7 +20133,7 @@
       <c r="O478" s="10">
         <v>3169</v>
       </c>
-      <c r="P478">
+      <c r="P478" s="10">
         <v>2803</v>
       </c>
       <c r="Q478">
@@ -20145,7 +20166,7 @@
       <c r="O479" s="10">
         <v>3171</v>
       </c>
-      <c r="P479">
+      <c r="P479" s="10">
         <v>2803</v>
       </c>
       <c r="Q479">
@@ -20178,7 +20199,7 @@
       <c r="O480" s="10">
         <v>3171</v>
       </c>
-      <c r="P480">
+      <c r="P480" s="10">
         <v>2803</v>
       </c>
       <c r="Q480">
@@ -20211,7 +20232,7 @@
       <c r="O481" s="10">
         <v>3171</v>
       </c>
-      <c r="P481">
+      <c r="P481" s="10">
         <v>2803</v>
       </c>
       <c r="Q481">
@@ -20244,7 +20265,7 @@
       <c r="O482" s="10">
         <v>3171</v>
       </c>
-      <c r="P482">
+      <c r="P482" s="10">
         <v>2803</v>
       </c>
       <c r="Q482">
@@ -20277,7 +20298,7 @@
       <c r="O483" s="10">
         <v>3171</v>
       </c>
-      <c r="P483">
+      <c r="P483" s="10">
         <v>2803</v>
       </c>
       <c r="Q483">
@@ -20310,7 +20331,7 @@
       <c r="O484" s="10">
         <v>3171</v>
       </c>
-      <c r="P484">
+      <c r="P484" s="10">
         <v>2803</v>
       </c>
       <c r="Q484">
@@ -20343,7 +20364,7 @@
       <c r="O485" s="10">
         <v>3171</v>
       </c>
-      <c r="P485">
+      <c r="P485" s="10">
         <v>2803</v>
       </c>
       <c r="Q485">
@@ -20376,7 +20397,7 @@
       <c r="O486" s="10">
         <v>3171</v>
       </c>
-      <c r="P486">
+      <c r="P486" s="10">
         <v>2805</v>
       </c>
       <c r="Q486">
@@ -20409,7 +20430,7 @@
       <c r="O487" s="10">
         <v>3172</v>
       </c>
-      <c r="P487">
+      <c r="P487" s="10">
         <v>2805</v>
       </c>
       <c r="Q487">
@@ -20443,7 +20464,7 @@
       <c r="O488" s="10">
         <v>3172</v>
       </c>
-      <c r="P488">
+      <c r="P488" s="10">
         <v>2806</v>
       </c>
       <c r="Q488">
@@ -20476,7 +20497,7 @@
       <c r="O489" s="10">
         <v>3172</v>
       </c>
-      <c r="P489">
+      <c r="P489" s="10">
         <v>2806</v>
       </c>
       <c r="Q489">
@@ -20509,7 +20530,7 @@
       <c r="O490" s="10">
         <v>3175</v>
       </c>
-      <c r="P490">
+      <c r="P490" s="10">
         <v>2805</v>
       </c>
       <c r="Q490">
@@ -20542,7 +20563,7 @@
       <c r="O491" s="10">
         <v>3176</v>
       </c>
-      <c r="P491">
+      <c r="P491" s="10">
         <v>2805</v>
       </c>
       <c r="Q491">
@@ -20575,7 +20596,7 @@
       <c r="O492" s="10">
         <v>3178</v>
       </c>
-      <c r="P492">
+      <c r="P492" s="10">
         <v>2805</v>
       </c>
       <c r="Q492">
@@ -20608,7 +20629,7 @@
       <c r="O493" s="10">
         <v>3178</v>
       </c>
-      <c r="P493">
+      <c r="P493" s="10">
         <v>2805</v>
       </c>
       <c r="Q493">
@@ -20642,7 +20663,7 @@
       <c r="O494" s="10">
         <v>3178</v>
       </c>
-      <c r="P494">
+      <c r="P494" s="10">
         <v>2805</v>
       </c>
       <c r="Q494">
@@ -20675,7 +20696,7 @@
       <c r="O495" s="10">
         <v>3178</v>
       </c>
-      <c r="P495">
+      <c r="P495" s="10">
         <v>2806</v>
       </c>
       <c r="Q495">
@@ -20708,7 +20729,7 @@
       <c r="O496" s="10">
         <v>3178</v>
       </c>
-      <c r="P496">
+      <c r="P496" s="10">
         <v>2803</v>
       </c>
       <c r="Q496">
@@ -20741,7 +20762,7 @@
       <c r="O497" s="10">
         <v>3178</v>
       </c>
-      <c r="P497">
+      <c r="P497" s="10">
         <v>2804</v>
       </c>
       <c r="Q497">
@@ -20775,7 +20796,7 @@
       <c r="O498" s="10">
         <v>3178</v>
       </c>
-      <c r="P498">
+      <c r="P498" s="10">
         <v>2804</v>
       </c>
       <c r="Q498">
@@ -20808,7 +20829,7 @@
       <c r="O499" s="10">
         <v>3179</v>
       </c>
-      <c r="P499">
+      <c r="P499" s="10">
         <v>2804</v>
       </c>
       <c r="Q499">
@@ -20843,7 +20864,7 @@
       <c r="O500" s="10">
         <v>3179</v>
       </c>
-      <c r="P500">
+      <c r="P500" s="10">
         <v>2804</v>
       </c>
       <c r="Q500">
@@ -20877,7 +20898,7 @@
       <c r="O501" s="10">
         <v>3179</v>
       </c>
-      <c r="P501">
+      <c r="P501" s="10">
         <v>2803</v>
       </c>
       <c r="Q501">
@@ -20912,7 +20933,7 @@
       <c r="O502" s="10">
         <v>3181</v>
       </c>
-      <c r="P502">
+      <c r="P502" s="10">
         <v>2802</v>
       </c>
       <c r="Q502">
@@ -20947,7 +20968,7 @@
       <c r="O503" s="10">
         <v>3182</v>
       </c>
-      <c r="P503">
+      <c r="P503" s="10">
         <v>2802</v>
       </c>
       <c r="Q503">
@@ -20982,7 +21003,7 @@
       <c r="O504" s="10">
         <v>3182</v>
       </c>
-      <c r="P504">
+      <c r="P504" s="10">
         <v>2802</v>
       </c>
       <c r="Q504">
@@ -21017,7 +21038,7 @@
       <c r="O505" s="10">
         <v>3182</v>
       </c>
-      <c r="P505">
+      <c r="P505" s="10">
         <v>2802</v>
       </c>
       <c r="Q505">
@@ -21051,7 +21072,7 @@
       <c r="O506" s="10">
         <v>3182</v>
       </c>
-      <c r="P506">
+      <c r="P506" s="10">
         <v>2802</v>
       </c>
       <c r="Q506">
@@ -21086,7 +21107,7 @@
       <c r="O507" s="10">
         <v>3182</v>
       </c>
-      <c r="P507">
+      <c r="P507" s="10">
         <v>2802</v>
       </c>
       <c r="Q507">
@@ -21121,7 +21142,7 @@
       <c r="O508" s="10">
         <v>3182</v>
       </c>
-      <c r="P508">
+      <c r="P508" s="10">
         <v>2803</v>
       </c>
       <c r="Q508">
@@ -21157,7 +21178,7 @@
       <c r="O509" s="10">
         <v>3182</v>
       </c>
-      <c r="P509">
+      <c r="P509" s="10">
         <v>2802</v>
       </c>
       <c r="Q509">
@@ -21194,7 +21215,7 @@
       <c r="O510" s="10">
         <v>3184</v>
       </c>
-      <c r="P510">
+      <c r="P510" s="10">
         <v>2802</v>
       </c>
       <c r="Q510">
@@ -21233,7 +21254,7 @@
       <c r="O511" s="10">
         <v>3184</v>
       </c>
-      <c r="P511">
+      <c r="P511" s="10">
         <v>2802</v>
       </c>
       <c r="Q511">
@@ -21272,7 +21293,7 @@
       <c r="O512" s="10">
         <v>3184</v>
       </c>
-      <c r="P512">
+      <c r="P512" s="10">
         <v>2802</v>
       </c>
       <c r="Q512">
@@ -21310,7 +21331,7 @@
       <c r="O513" s="10">
         <v>3184</v>
       </c>
-      <c r="P513">
+      <c r="P513" s="10">
         <v>2802</v>
       </c>
       <c r="Q513">
@@ -21349,7 +21370,7 @@
       <c r="O514" s="10">
         <v>3184</v>
       </c>
-      <c r="P514">
+      <c r="P514" s="10">
         <v>2802</v>
       </c>
       <c r="Q514">
@@ -21384,7 +21405,7 @@
       <c r="O515" s="10">
         <v>3184</v>
       </c>
-      <c r="P515">
+      <c r="P515" s="10">
         <v>2802</v>
       </c>
       <c r="Q515">
@@ -21482,7 +21503,7 @@
       <c r="O519" s="10">
         <v>3186</v>
       </c>
-      <c r="P519" s="2">
+      <c r="P519" s="36">
         <v>2799</v>
       </c>
       <c r="Q519">
@@ -21511,7 +21532,7 @@
       <c r="O520" s="10">
         <v>3187</v>
       </c>
-      <c r="P520" s="16">
+      <c r="P520" s="45">
         <v>2798</v>
       </c>
       <c r="V520" s="10" t="s">
@@ -21543,7 +21564,7 @@
       <c r="O521" s="10">
         <v>3188</v>
       </c>
-      <c r="P521">
+      <c r="P521" s="10">
         <v>2798</v>
       </c>
       <c r="Q521">
@@ -21584,7 +21605,7 @@
       <c r="O522" s="10">
         <v>3188</v>
       </c>
-      <c r="P522">
+      <c r="P522" s="10">
         <v>2798</v>
       </c>
       <c r="Q522">
@@ -21622,7 +21643,7 @@
       <c r="O523" s="10">
         <v>3188</v>
       </c>
-      <c r="P523">
+      <c r="P523" s="10">
         <v>2798</v>
       </c>
       <c r="Q523">
@@ -21660,7 +21681,7 @@
       <c r="O524" s="10">
         <v>3188</v>
       </c>
-      <c r="P524">
+      <c r="P524" s="10">
         <v>2798</v>
       </c>
       <c r="Q524">
@@ -21701,7 +21722,7 @@
       <c r="O525" s="10">
         <v>3188</v>
       </c>
-      <c r="P525">
+      <c r="P525" s="10">
         <v>2798</v>
       </c>
       <c r="Q525">
@@ -21742,7 +21763,7 @@
       <c r="O526" s="10">
         <v>3188</v>
       </c>
-      <c r="P526">
+      <c r="P526" s="10">
         <v>2798</v>
       </c>
       <c r="Q526">
@@ -21778,7 +21799,7 @@
       <c r="O527" s="10">
         <v>3189</v>
       </c>
-      <c r="P527">
+      <c r="P527" s="10">
         <v>2799</v>
       </c>
       <c r="Q527">
@@ -21805,7 +21826,7 @@
       <c r="O528" s="10">
         <v>3192</v>
       </c>
-      <c r="P528">
+      <c r="P528" s="10">
         <v>2770</v>
       </c>
       <c r="R528" s="2">
@@ -21841,7 +21862,7 @@
       <c r="O530" s="10">
         <v>3168</v>
       </c>
-      <c r="P530">
+      <c r="P530" s="10">
         <v>2567</v>
       </c>
       <c r="R530" s="2">
@@ -21877,7 +21898,7 @@
       <c r="O532" s="10">
         <v>3136</v>
       </c>
-      <c r="P532">
+      <c r="P532" s="10">
         <v>2431</v>
       </c>
       <c r="R532" s="2">
@@ -21991,7 +22012,7 @@
       <c r="O539" s="10">
         <v>3213</v>
       </c>
-      <c r="P539">
+      <c r="P539" s="10">
         <v>1726</v>
       </c>
       <c r="R539" s="2">
@@ -22027,7 +22048,7 @@
       <c r="O541" s="10">
         <v>3254</v>
       </c>
-      <c r="P541">
+      <c r="P541" s="10">
         <v>1603</v>
       </c>
       <c r="R541" s="2">
@@ -22050,7 +22071,7 @@
       <c r="O542" s="10">
         <v>3254</v>
       </c>
-      <c r="P542">
+      <c r="P542" s="10">
         <v>1601</v>
       </c>
       <c r="S542" s="52">
@@ -22073,7 +22094,7 @@
       <c r="O543" s="10">
         <v>3258</v>
       </c>
-      <c r="P543">
+      <c r="P543" s="10">
         <v>1620</v>
       </c>
       <c r="S543" s="52">
@@ -22102,7 +22123,7 @@
       <c r="O544" s="10">
         <v>3258</v>
       </c>
-      <c r="P544">
+      <c r="P544" s="10">
         <v>1707</v>
       </c>
       <c r="S544" s="52">
@@ -22134,7 +22155,7 @@
       <c r="O545" s="10">
         <v>3258</v>
       </c>
-      <c r="P545">
+      <c r="P545" s="10">
         <v>1757</v>
       </c>
       <c r="S545" s="52">
@@ -22163,7 +22184,7 @@
       <c r="O546" s="10">
         <v>3260</v>
       </c>
-      <c r="P546">
+      <c r="P546" s="10">
         <v>1851</v>
       </c>
       <c r="S546" s="52">
@@ -22195,7 +22216,7 @@
       <c r="O547" s="10">
         <v>3260</v>
       </c>
-      <c r="P547">
+      <c r="P547" s="10">
         <v>1905</v>
       </c>
       <c r="S547" s="52">
@@ -22227,7 +22248,7 @@
       <c r="O548" s="10">
         <v>3261</v>
       </c>
-      <c r="P548">
+      <c r="P548" s="10">
         <v>1973</v>
       </c>
       <c r="S548" s="52">
@@ -22256,7 +22277,7 @@
       <c r="O549" s="10">
         <v>3260</v>
       </c>
-      <c r="P549">
+      <c r="P549" s="10">
         <v>2067</v>
       </c>
       <c r="S549" s="52">
@@ -22285,7 +22306,7 @@
       <c r="O550" s="10">
         <v>3262</v>
       </c>
-      <c r="P550">
+      <c r="P550" s="10">
         <v>2123</v>
       </c>
       <c r="S550" s="52">
@@ -22317,7 +22338,7 @@
       <c r="O551" s="10">
         <v>3263</v>
       </c>
-      <c r="P551">
+      <c r="P551" s="10">
         <v>2217</v>
       </c>
       <c r="S551" s="52">
@@ -22349,7 +22370,7 @@
       <c r="O552" s="10">
         <v>3262</v>
       </c>
-      <c r="P552">
+      <c r="P552" s="10">
         <v>2282</v>
       </c>
       <c r="S552" s="52">
@@ -22379,7 +22400,7 @@
       <c r="O553" s="10">
         <v>3265</v>
       </c>
-      <c r="P553">
+      <c r="P553" s="10">
         <v>2348</v>
       </c>
       <c r="S553" s="52">
@@ -22400,7 +22421,7 @@
       <c r="O554" s="10">
         <v>3267</v>
       </c>
-      <c r="P554">
+      <c r="P554" s="10">
         <v>2367</v>
       </c>
       <c r="S554" s="52">
@@ -22427,7 +22448,7 @@
       <c r="O555" s="10">
         <v>3267</v>
       </c>
-      <c r="P555">
+      <c r="P555" s="10">
         <v>2409</v>
       </c>
       <c r="S555" s="52">
@@ -22459,7 +22480,7 @@
       <c r="O556" s="10">
         <v>3268</v>
       </c>
-      <c r="P556">
+      <c r="P556" s="10">
         <v>2490</v>
       </c>
       <c r="S556" s="52">
@@ -22491,7 +22512,7 @@
       <c r="O557" s="10">
         <v>3268</v>
       </c>
-      <c r="P557">
+      <c r="P557" s="10">
         <v>2550</v>
       </c>
       <c r="S557" s="52">
@@ -22523,7 +22544,7 @@
       <c r="O558" s="10">
         <v>3268</v>
       </c>
-      <c r="P558">
+      <c r="P558" s="10">
         <v>2587</v>
       </c>
       <c r="S558" s="52">
@@ -22553,7 +22574,7 @@
       <c r="O559" s="10">
         <v>3267</v>
       </c>
-      <c r="P559">
+      <c r="P559" s="10">
         <v>2680</v>
       </c>
       <c r="S559" s="52">
@@ -22585,7 +22606,7 @@
       <c r="O560" s="10">
         <v>3270</v>
       </c>
-      <c r="P560">
+      <c r="P560" s="10">
         <v>2813</v>
       </c>
       <c r="S560" s="53">
@@ -22620,7 +22641,7 @@
       <c r="O561" s="10">
         <v>3271</v>
       </c>
-      <c r="P561">
+      <c r="P561" s="10">
         <v>2815</v>
       </c>
       <c r="S561" s="52" t="s">
@@ -22650,7 +22671,7 @@
       <c r="O562" s="10">
         <v>3273</v>
       </c>
-      <c r="P562">
+      <c r="P562" s="10">
         <v>2817</v>
       </c>
       <c r="S562" s="52">
@@ -22682,7 +22703,7 @@
       <c r="O563" s="10">
         <v>3275</v>
       </c>
-      <c r="P563">
+      <c r="P563" s="10">
         <v>2819</v>
       </c>
       <c r="S563" s="52">
@@ -22711,7 +22732,7 @@
       <c r="O564" s="10">
         <v>3275</v>
       </c>
-      <c r="P564">
+      <c r="P564" s="10">
         <v>2819</v>
       </c>
       <c r="S564" s="52">
@@ -22743,7 +22764,7 @@
       <c r="O565" s="10">
         <v>3275</v>
       </c>
-      <c r="P565">
+      <c r="P565" s="10">
         <v>2819</v>
       </c>
       <c r="S565" s="52">
@@ -22775,7 +22796,7 @@
       <c r="O566" s="10">
         <v>3276</v>
       </c>
-      <c r="P566">
+      <c r="P566" s="10">
         <v>2818</v>
       </c>
       <c r="S566" s="52">
@@ -22807,7 +22828,7 @@
       <c r="O567" s="10">
         <v>3276</v>
       </c>
-      <c r="P567">
+      <c r="P567" s="10">
         <v>2816</v>
       </c>
       <c r="S567" s="52">
@@ -22839,7 +22860,7 @@
       <c r="O568" s="10">
         <v>3276</v>
       </c>
-      <c r="P568">
+      <c r="P568" s="10">
         <v>2816</v>
       </c>
       <c r="S568" s="52">
@@ -22860,7 +22881,7 @@
       <c r="O569" s="10">
         <v>3277</v>
       </c>
-      <c r="P569" s="2">
+      <c r="P569" s="36">
         <v>2819</v>
       </c>
       <c r="S569" s="53">
@@ -22928,7 +22949,7 @@
       <c r="O574" s="10">
         <v>3277</v>
       </c>
-      <c r="P574">
+      <c r="P574" s="10">
         <v>2819</v>
       </c>
       <c r="T574" s="10">
@@ -22957,7 +22978,7 @@
       <c r="O575" s="10">
         <v>3278</v>
       </c>
-      <c r="P575">
+      <c r="P575" s="10">
         <v>2819</v>
       </c>
       <c r="T575" s="10">
@@ -23016,7 +23037,7 @@
       <c r="O577" s="36">
         <v>3280</v>
       </c>
-      <c r="P577" s="2">
+      <c r="P577" s="36">
         <v>2818</v>
       </c>
       <c r="Q577" s="2"/>
@@ -23049,7 +23070,7 @@
       <c r="O578" s="10">
         <v>3280</v>
       </c>
-      <c r="P578">
+      <c r="P578" s="10">
         <v>2818</v>
       </c>
       <c r="T578" s="10">
@@ -23078,7 +23099,7 @@
       <c r="O579" s="10">
         <v>3281</v>
       </c>
-      <c r="P579">
+      <c r="P579" s="10">
         <v>2818</v>
       </c>
       <c r="T579" s="10">
@@ -23107,7 +23128,7 @@
       <c r="O580" s="10">
         <v>3281</v>
       </c>
-      <c r="P580">
+      <c r="P580" s="10">
         <v>2818</v>
       </c>
       <c r="T580" s="10">
@@ -23136,7 +23157,7 @@
       <c r="O581" s="10">
         <v>3281</v>
       </c>
-      <c r="P581">
+      <c r="P581" s="10">
         <v>2818</v>
       </c>
       <c r="T581" s="10">
@@ -23165,7 +23186,7 @@
       <c r="O582" s="10">
         <v>3281</v>
       </c>
-      <c r="P582">
+      <c r="P582" s="10">
         <v>2818</v>
       </c>
       <c r="T582" s="10">
@@ -23194,7 +23215,7 @@
       <c r="O583" s="10">
         <v>3284</v>
       </c>
-      <c r="P583">
+      <c r="P583" s="10">
         <v>2818</v>
       </c>
       <c r="T583" s="10">
@@ -23223,7 +23244,7 @@
       <c r="O584" s="10">
         <v>3284</v>
       </c>
-      <c r="P584">
+      <c r="P584" s="10">
         <v>2819</v>
       </c>
       <c r="T584" s="10">
@@ -23252,7 +23273,7 @@
       <c r="O585" s="10">
         <v>3284</v>
       </c>
-      <c r="P585">
+      <c r="P585" s="10">
         <v>2819</v>
       </c>
       <c r="T585" s="10">
@@ -23281,7 +23302,7 @@
       <c r="O586" s="10">
         <v>3284</v>
       </c>
-      <c r="P586">
+      <c r="P586" s="10">
         <v>2820</v>
       </c>
       <c r="T586" s="10">
@@ -23310,7 +23331,7 @@
       <c r="O587" s="10">
         <v>3284</v>
       </c>
-      <c r="P587">
+      <c r="P587" s="10">
         <v>2820</v>
       </c>
       <c r="T587" s="10">
@@ -23339,7 +23360,7 @@
       <c r="O588" s="10">
         <v>3284</v>
       </c>
-      <c r="P588">
+      <c r="P588" s="10">
         <v>2820</v>
       </c>
       <c r="T588" s="10">
@@ -23368,7 +23389,7 @@
       <c r="O589" s="10">
         <v>3284</v>
       </c>
-      <c r="P589">
+      <c r="P589" s="10">
         <v>2820</v>
       </c>
       <c r="T589" s="10">
@@ -23397,7 +23418,7 @@
       <c r="O590" s="10">
         <v>3284</v>
       </c>
-      <c r="P590">
+      <c r="P590" s="10">
         <v>2821</v>
       </c>
       <c r="T590" s="10">
@@ -23426,7 +23447,7 @@
       <c r="O591" s="10">
         <v>3284</v>
       </c>
-      <c r="P591">
+      <c r="P591" s="10">
         <v>2825</v>
       </c>
       <c r="T591" s="45">
@@ -23455,7 +23476,7 @@
       <c r="O592" s="10">
         <v>3285</v>
       </c>
-      <c r="P592">
+      <c r="P592" s="10">
         <v>2825</v>
       </c>
       <c r="T592" s="10">
@@ -23484,7 +23505,7 @@
       <c r="O593" s="10">
         <v>3286</v>
       </c>
-      <c r="P593">
+      <c r="P593" s="10">
         <v>2824</v>
       </c>
       <c r="T593" s="10">
@@ -23513,7 +23534,7 @@
       <c r="O594" s="10">
         <v>3285</v>
       </c>
-      <c r="P594">
+      <c r="P594" s="10">
         <v>2824</v>
       </c>
       <c r="T594" s="10">
@@ -23542,7 +23563,7 @@
       <c r="O595" s="10">
         <v>3286</v>
       </c>
-      <c r="P595">
+      <c r="P595" s="10">
         <v>2825</v>
       </c>
       <c r="T595" s="10">
@@ -23571,7 +23592,7 @@
       <c r="O596" s="10">
         <v>3287</v>
       </c>
-      <c r="P596">
+      <c r="P596" s="10">
         <v>2822</v>
       </c>
       <c r="T596" s="10">
@@ -23600,7 +23621,7 @@
       <c r="O597" s="10">
         <v>3289</v>
       </c>
-      <c r="P597">
+      <c r="P597" s="10">
         <v>2823</v>
       </c>
       <c r="T597" s="10">
@@ -23629,7 +23650,7 @@
       <c r="O598" s="10">
         <v>3289</v>
       </c>
-      <c r="P598">
+      <c r="P598" s="10">
         <v>2824</v>
       </c>
       <c r="T598" s="10">
@@ -23661,7 +23682,7 @@
       <c r="O599" s="10">
         <v>3289</v>
       </c>
-      <c r="P599">
+      <c r="P599" s="10">
         <v>2824</v>
       </c>
       <c r="T599" s="10">
@@ -23702,7 +23723,7 @@
       <c r="O600" s="10">
         <v>3291</v>
       </c>
-      <c r="P600">
+      <c r="P600" s="10">
         <v>2824</v>
       </c>
       <c r="T600" s="10">
@@ -23743,7 +23764,7 @@
       <c r="O601" s="10">
         <v>3291</v>
       </c>
-      <c r="P601">
+      <c r="P601" s="10">
         <v>2824</v>
       </c>
       <c r="T601" s="10">
@@ -23775,7 +23796,7 @@
       <c r="O602" s="10">
         <v>3293</v>
       </c>
-      <c r="P602">
+      <c r="P602" s="10">
         <v>2822</v>
       </c>
       <c r="T602" s="10">
@@ -23823,6 +23844,35 @@
       </c>
       <c r="V604" s="2" t="s">
         <v>592</v>
+      </c>
+    </row>
+    <row r="605" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A605" s="4">
+        <v>43879</v>
+      </c>
+      <c r="B605" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="C605" s="10">
+        <v>549</v>
+      </c>
+      <c r="F605" s="10">
+        <v>84.3</v>
+      </c>
+      <c r="M605" s="10">
+        <v>3200</v>
+      </c>
+      <c r="O605" s="10">
+        <v>3295</v>
+      </c>
+      <c r="P605" s="10">
+        <v>2823</v>
+      </c>
+      <c r="T605" s="10">
+        <v>1168</v>
+      </c>
+      <c r="V605" s="16" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="595">
   <si>
     <t>Date</t>
   </si>
@@ -3856,6 +3856,9 @@
   </si>
   <si>
     <t>Back to reviewing the single-word deck. I don't think I made any changes to the single-word deck today.</t>
+  </si>
+  <si>
+    <t>Made two changes to single-word deck outlines</t>
   </si>
 </sst>
 </file>
@@ -5449,11 +5452,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="357189168"/>
-        <c:axId val="357190344"/>
+        <c:axId val="166901464"/>
+        <c:axId val="166908128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="357189168"/>
+        <c:axId val="166901464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5495,7 +5498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357190344"/>
+        <c:crossAx val="166908128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5503,7 +5506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357190344"/>
+        <c:axId val="166908128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5554,7 +5557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357189168"/>
+        <c:crossAx val="166901464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6124,11 +6127,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="357187600"/>
-        <c:axId val="357185640"/>
+        <c:axId val="166907736"/>
+        <c:axId val="166905776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="357187600"/>
+        <c:axId val="166907736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6170,7 +6173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357185640"/>
+        <c:crossAx val="166905776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6178,7 +6181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357185640"/>
+        <c:axId val="166905776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6229,7 +6232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357187600"/>
+        <c:crossAx val="166907736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6371,10 +6374,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$605</c:f>
+              <c:f>Sheet1!$M$576:$M$606</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6464,6 +6467,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6479,11 +6485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="357186816"/>
-        <c:axId val="357186424"/>
+        <c:axId val="166902640"/>
+        <c:axId val="166903032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="357186816"/>
+        <c:axId val="166902640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6525,7 +6531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357186424"/>
+        <c:crossAx val="166903032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6533,7 +6539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357186424"/>
+        <c:axId val="166903032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6586,7 +6592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357186816"/>
+        <c:crossAx val="166902640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6733,10 +6739,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$605</c:f>
+              <c:f>Sheet1!$T$577:$T$606</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6823,6 +6829,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1168</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6864,11 +6873,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="357189952"/>
-        <c:axId val="357182896"/>
+        <c:axId val="166908912"/>
+        <c:axId val="166899504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="357189952"/>
+        <c:axId val="166908912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6910,7 +6919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357182896"/>
+        <c:crossAx val="166899504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6918,7 +6927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357182896"/>
+        <c:axId val="166899504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6970,7 +6979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357189952"/>
+        <c:crossAx val="166908912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9700,11 +9709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF605"/>
+  <dimension ref="A1:AF606"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V606" sqref="V606"/>
+      <selection pane="bottomLeft" activeCell="V607" sqref="V607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9915,7 +9924,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000036)</f>
-        <v>1632.3799999999976</v>
+        <v>1633.7799999999977</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9941,7 +9950,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000035)</f>
-        <v>114980</v>
+        <v>115610</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -23873,6 +23882,35 @@
       </c>
       <c r="V605" s="16" t="s">
         <v>593</v>
+      </c>
+    </row>
+    <row r="606" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A606" s="4">
+        <v>43880</v>
+      </c>
+      <c r="B606" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="C606" s="10">
+        <v>630</v>
+      </c>
+      <c r="F606" s="10">
+        <v>77.3</v>
+      </c>
+      <c r="M606" s="36">
+        <v>4201</v>
+      </c>
+      <c r="O606" s="10">
+        <v>3295</v>
+      </c>
+      <c r="P606" s="10">
+        <v>2822</v>
+      </c>
+      <c r="T606" s="10">
+        <v>1086</v>
+      </c>
+      <c r="V606" s="16" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="596">
   <si>
     <t>Date</t>
   </si>
@@ -3859,6 +3859,9 @@
   </si>
   <si>
     <t>Made two changes to single-word deck outlines</t>
+  </si>
+  <si>
+    <t>Time is an estimate. Didn't make any changes to the outlines decks today.</t>
   </si>
 </sst>
 </file>
@@ -5452,11 +5455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166901464"/>
-        <c:axId val="166908128"/>
+        <c:axId val="398025584"/>
+        <c:axId val="398026760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166901464"/>
+        <c:axId val="398025584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5498,7 +5501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166908128"/>
+        <c:crossAx val="398026760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5506,7 +5509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166908128"/>
+        <c:axId val="398026760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5557,7 +5560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166901464"/>
+        <c:crossAx val="398025584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6127,11 +6130,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166907736"/>
-        <c:axId val="166905776"/>
+        <c:axId val="398023232"/>
+        <c:axId val="398023624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166907736"/>
+        <c:axId val="398023232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6173,7 +6176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166905776"/>
+        <c:crossAx val="398023624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6181,7 +6184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166905776"/>
+        <c:axId val="398023624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6232,7 +6235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166907736"/>
+        <c:crossAx val="398023232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6485,11 +6488,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166902640"/>
-        <c:axId val="166903032"/>
+        <c:axId val="398024800"/>
+        <c:axId val="398021664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166902640"/>
+        <c:axId val="398024800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6531,7 +6534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166903032"/>
+        <c:crossAx val="398021664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6539,7 +6542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166903032"/>
+        <c:axId val="398021664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6592,7 +6595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166902640"/>
+        <c:crossAx val="398024800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6873,11 +6876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="166908912"/>
-        <c:axId val="166899504"/>
+        <c:axId val="398025976"/>
+        <c:axId val="398026368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166908912"/>
+        <c:axId val="398025976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6919,7 +6922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166899504"/>
+        <c:crossAx val="398026368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6927,7 +6930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166899504"/>
+        <c:axId val="398026368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6979,7 +6982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166908912"/>
+        <c:crossAx val="398025976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9709,11 +9712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF606"/>
+  <dimension ref="A1:AF607"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V607" sqref="V607"/>
+      <pane ySplit="17" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A607" sqref="A607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9924,7 +9927,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000036)</f>
-        <v>1633.7799999999977</v>
+        <v>1634.8799999999976</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9950,7 +9953,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000035)</f>
-        <v>115610</v>
+        <v>116347</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -23885,7 +23888,7 @@
       </c>
     </row>
     <row r="606" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A606" s="4">
+      <c r="A606" s="18">
         <v>43880</v>
       </c>
       <c r="B606" s="5">
@@ -23911,6 +23914,35 @@
       </c>
       <c r="V606" s="16" t="s">
         <v>594</v>
+      </c>
+    </row>
+    <row r="607" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A607" s="4">
+        <v>43883</v>
+      </c>
+      <c r="B607" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C607" s="10">
+        <v>737</v>
+      </c>
+      <c r="F607" s="10">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="M607" s="36">
+        <v>4201</v>
+      </c>
+      <c r="O607" s="10">
+        <v>3295</v>
+      </c>
+      <c r="P607" s="10">
+        <v>2822</v>
+      </c>
+      <c r="T607" s="10">
+        <v>931</v>
+      </c>
+      <c r="V607" s="16" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="597">
   <si>
     <t>Date</t>
   </si>
@@ -3862,6 +3862,9 @@
   </si>
   <si>
     <t>Time is an estimate. Didn't make any changes to the outlines decks today.</t>
+  </si>
+  <si>
+    <t>Made one outline change today.</t>
   </si>
 </sst>
 </file>
@@ -4163,6 +4166,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5455,11 +5459,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="398025584"/>
-        <c:axId val="398026760"/>
+        <c:axId val="527099496"/>
+        <c:axId val="527106944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="398025584"/>
+        <c:axId val="527099496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5501,7 +5505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398026760"/>
+        <c:crossAx val="527106944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5509,7 +5513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398026760"/>
+        <c:axId val="527106944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5560,7 +5564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398025584"/>
+        <c:crossAx val="527099496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5654,6 +5658,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6130,11 +6135,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="398023232"/>
-        <c:axId val="398023624"/>
+        <c:axId val="527104200"/>
+        <c:axId val="527105768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="398023232"/>
+        <c:axId val="527104200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6176,7 +6181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398023624"/>
+        <c:crossAx val="527105768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6184,7 +6189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398023624"/>
+        <c:axId val="527105768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6235,7 +6240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398023232"/>
+        <c:crossAx val="527104200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6377,10 +6382,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$606</c:f>
+              <c:f>Sheet1!$M$576:$M$608</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6462,16 +6467,16 @@
                 <c:pt idx="26">
                   <c:v>4201</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="29">
                   <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
@@ -6488,11 +6493,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="398024800"/>
-        <c:axId val="398021664"/>
+        <c:axId val="527099888"/>
+        <c:axId val="527107728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="398024800"/>
+        <c:axId val="527099888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6534,7 +6539,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398021664"/>
+        <c:crossAx val="527107728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6542,7 +6547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398021664"/>
+        <c:axId val="527107728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6595,7 +6600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398024800"/>
+        <c:crossAx val="527099888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6742,10 +6747,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$606</c:f>
+              <c:f>Sheet1!$T$577:$T$608</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6835,6 +6840,12 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1086</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,11 +6887,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="398025976"/>
-        <c:axId val="398026368"/>
+        <c:axId val="527099104"/>
+        <c:axId val="527116744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="398025976"/>
+        <c:axId val="527099104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6922,7 +6933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398026368"/>
+        <c:crossAx val="527116744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6930,7 +6941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398026368"/>
+        <c:axId val="527116744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6982,7 +6993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398025976"/>
+        <c:crossAx val="527099104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9712,11 +9723,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF607"/>
+  <dimension ref="A1:AF608"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A607" sqref="A607"/>
+      <pane ySplit="17" topLeftCell="A565" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N607" sqref="N607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9927,7 +9938,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000036)</f>
-        <v>1634.8799999999976</v>
+        <v>1635.5799999999977</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9953,7 +9964,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000035)</f>
-        <v>116347</v>
+        <v>116673</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -23825,9 +23836,6 @@
       <c r="B603" s="5">
         <v>6.9</v>
       </c>
-      <c r="M603" s="10">
-        <v>0</v>
-      </c>
       <c r="T603" s="10">
         <v>1288</v>
       </c>
@@ -23842,9 +23850,6 @@
       <c r="B604" s="5">
         <v>7.4</v>
       </c>
-      <c r="M604" s="10">
-        <v>0</v>
-      </c>
       <c r="N604" s="46">
         <v>0</v>
       </c>
@@ -23943,6 +23948,35 @@
       </c>
       <c r="V607" s="16" t="s">
         <v>595</v>
+      </c>
+    </row>
+    <row r="608" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A608" s="4">
+        <v>43884</v>
+      </c>
+      <c r="B608" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C608" s="10">
+        <v>326</v>
+      </c>
+      <c r="F608" s="10">
+        <v>83.4</v>
+      </c>
+      <c r="M608" s="10">
+        <v>4201</v>
+      </c>
+      <c r="O608" s="10">
+        <v>3296</v>
+      </c>
+      <c r="P608" s="10">
+        <v>2822</v>
+      </c>
+      <c r="T608" s="10">
+        <v>893</v>
+      </c>
+      <c r="V608" s="16" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -23954,10 +23988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23976,7 +24010,7 @@
       </c>
       <c r="D2">
         <f>SUM(B6:B1001)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -24308,6 +24342,14 @@
       </c>
       <c r="D29" t="s">
         <v>566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="43">
+        <v>43884</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="598">
   <si>
     <t>Date</t>
   </si>
@@ -3864,7 +3864,10 @@
     <t>Time is an estimate. Didn't make any changes to the outlines decks today.</t>
   </si>
   <si>
-    <t>Made one outline change today.</t>
+    <t>Not bad for a Monday! Made for one outline change to the single-word deck today.</t>
+  </si>
+  <si>
+    <t>Made one outline change today. (Note: there are now 1080 cards in the phrase deck.)</t>
   </si>
 </sst>
 </file>
@@ -5459,11 +5462,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="527099496"/>
-        <c:axId val="527106944"/>
+        <c:axId val="794695256"/>
+        <c:axId val="794696040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527099496"/>
+        <c:axId val="794695256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5505,7 +5508,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527106944"/>
+        <c:crossAx val="794696040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5513,7 +5516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527106944"/>
+        <c:axId val="794696040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5564,7 +5567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527099496"/>
+        <c:crossAx val="794695256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6135,11 +6138,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="527104200"/>
-        <c:axId val="527105768"/>
+        <c:axId val="192233504"/>
+        <c:axId val="192235464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527104200"/>
+        <c:axId val="192233504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6181,7 +6184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527105768"/>
+        <c:crossAx val="192235464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6189,7 +6192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527105768"/>
+        <c:axId val="192235464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6240,7 +6243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527104200"/>
+        <c:crossAx val="192233504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6382,10 +6385,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$608</c:f>
+              <c:f>Sheet1!$M$576:$M$609</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6477,6 +6480,9 @@
                   <c:v>4201</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
@@ -6493,11 +6499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="527099888"/>
-        <c:axId val="527107728"/>
+        <c:axId val="192235856"/>
+        <c:axId val="192233896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527099888"/>
+        <c:axId val="192235856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6539,7 +6545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527107728"/>
+        <c:crossAx val="192233896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6547,7 +6553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527107728"/>
+        <c:axId val="192233896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6600,7 +6606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527099888"/>
+        <c:crossAx val="192235856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6688,7 +6694,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> non-mature cards  in single-word deck</a:t>
+              <a:t> non-mature cards in single-word deck</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6747,10 +6753,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$608</c:f>
+              <c:f>Sheet1!$T$577:$T$609</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6846,6 +6852,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6887,11 +6896,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="527099104"/>
-        <c:axId val="527116744"/>
+        <c:axId val="655663984"/>
+        <c:axId val="655667512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527099104"/>
+        <c:axId val="655663984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6933,7 +6942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527116744"/>
+        <c:crossAx val="655667512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6941,7 +6950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527116744"/>
+        <c:axId val="655667512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6993,7 +7002,559 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527099104"/>
+        <c:crossAx val="655663984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Least</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> frequent card studied in phrase deck</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$608:$N$609</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="448185752"/>
+        <c:axId val="448189672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448185752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448189672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448189672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448185752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of non-mature cards in phrase deck</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$608:$U$609</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="645427856"/>
+        <c:axId val="645429424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="645427856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645429424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="645429424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645427856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7163,6 +7724,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9266,6 +9907,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9330,16 +11003,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106580</xdr:colOff>
-      <xdr:row>609</xdr:row>
-      <xdr:rowOff>99116</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>280514</xdr:colOff>
+      <xdr:row>613</xdr:row>
+      <xdr:rowOff>74270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>122805</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>662609</xdr:colOff>
       <xdr:row>625</xdr:row>
-      <xdr:rowOff>161029</xdr:rowOff>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9360,16 +11033,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>741690</xdr:colOff>
-      <xdr:row>608</xdr:row>
-      <xdr:rowOff>145053</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244734</xdr:colOff>
+      <xdr:row>612</xdr:row>
+      <xdr:rowOff>62226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>602907</xdr:colOff>
-      <xdr:row>623</xdr:row>
-      <xdr:rowOff>30753</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>927652</xdr:colOff>
+      <xdr:row>624</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9455,6 +11128,66 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>626</xdr:row>
+      <xdr:rowOff>119269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>641</xdr:row>
+      <xdr:rowOff>4969</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>115957</xdr:colOff>
+      <xdr:row>626</xdr:row>
+      <xdr:rowOff>53009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>985631</xdr:colOff>
+      <xdr:row>640</xdr:row>
+      <xdr:rowOff>129209</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9723,11 +11456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF608"/>
+  <dimension ref="A1:AF609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A565" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N607" sqref="N607"/>
+      <pane ySplit="17" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E603" sqref="E603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9937,8 +11670,8 @@
       <c r="D15" s="47"/>
       <c r="E15" s="2"/>
       <c r="F15" s="60">
-        <f>SUM(B18:B1000036)</f>
-        <v>1635.5799999999977</v>
+        <f>SUM(B18:B1000046)</f>
+        <v>1640.7799999999977</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -9963,8 +11696,8 @@
         <v>212</v>
       </c>
       <c r="D16" s="59">
-        <f>SUM(C45:D1000035)</f>
-        <v>116673</v>
+        <f>SUM(C45:D1000045)</f>
+        <v>117992</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -23966,6 +25699,9 @@
       <c r="M608" s="10">
         <v>4201</v>
       </c>
+      <c r="N608" s="46">
+        <v>0</v>
+      </c>
       <c r="O608" s="10">
         <v>3296</v>
       </c>
@@ -23975,7 +25711,51 @@
       <c r="T608" s="10">
         <v>893</v>
       </c>
+      <c r="U608" s="61">
+        <v>1080</v>
+      </c>
       <c r="V608" s="16" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="609" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A609" s="4">
+        <v>43885</v>
+      </c>
+      <c r="B609" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C609" s="10">
+        <v>254</v>
+      </c>
+      <c r="D609" s="46">
+        <v>1065</v>
+      </c>
+      <c r="F609" s="10">
+        <v>88.6</v>
+      </c>
+      <c r="L609" s="46">
+        <v>51.4</v>
+      </c>
+      <c r="M609" s="10">
+        <v>4201</v>
+      </c>
+      <c r="N609" s="46">
+        <v>607</v>
+      </c>
+      <c r="O609" s="10">
+        <v>3296</v>
+      </c>
+      <c r="P609" s="10">
+        <v>2823</v>
+      </c>
+      <c r="T609" s="10">
+        <v>850</v>
+      </c>
+      <c r="U609" s="61">
+        <v>864</v>
+      </c>
+      <c r="V609" s="16" t="s">
         <v>596</v>
       </c>
     </row>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -5462,11 +5462,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="794695256"/>
-        <c:axId val="794696040"/>
+        <c:axId val="553351144"/>
+        <c:axId val="553356632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="794695256"/>
+        <c:axId val="553351144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5508,7 +5508,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794696040"/>
+        <c:crossAx val="553356632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5516,7 +5516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="794696040"/>
+        <c:axId val="553356632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5567,7 +5567,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794695256"/>
+        <c:crossAx val="553351144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6138,11 +6138,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="192233504"/>
-        <c:axId val="192235464"/>
+        <c:axId val="553351536"/>
+        <c:axId val="553354672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192233504"/>
+        <c:axId val="553351536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6184,7 +6184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192235464"/>
+        <c:crossAx val="553354672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6192,7 +6192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192235464"/>
+        <c:axId val="553354672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,7 +6243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192233504"/>
+        <c:crossAx val="553351536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6385,10 +6385,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$609</c:f>
+              <c:f>Sheet1!$M$576:$M$610</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6483,6 +6483,9 @@
                   <c:v>4201</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
@@ -6499,11 +6502,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="192235856"/>
-        <c:axId val="192233896"/>
+        <c:axId val="553351928"/>
+        <c:axId val="553350360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192235856"/>
+        <c:axId val="553351928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6545,7 +6548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192233896"/>
+        <c:crossAx val="553350360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6553,7 +6556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192233896"/>
+        <c:axId val="553350360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6606,7 +6609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192235856"/>
+        <c:crossAx val="553351928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6753,10 +6756,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$609</c:f>
+              <c:f>Sheet1!$T$577:$T$610</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6855,6 +6858,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6896,11 +6902,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="655663984"/>
-        <c:axId val="655667512"/>
+        <c:axId val="553350752"/>
+        <c:axId val="553352320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="655663984"/>
+        <c:axId val="553350752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6942,7 +6948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655667512"/>
+        <c:crossAx val="553352320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6950,7 +6956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="655667512"/>
+        <c:axId val="553352320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7002,7 +7008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655663984"/>
+        <c:crossAx val="553350752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7149,15 +7155,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$608:$N$609</c:f>
+              <c:f>Sheet1!$N$608:$N$610</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7173,11 +7182,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="448185752"/>
-        <c:axId val="448189672"/>
+        <c:axId val="553353104"/>
+        <c:axId val="553355064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="448185752"/>
+        <c:axId val="553353104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7219,7 +7228,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448189672"/>
+        <c:crossAx val="553355064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7227,7 +7236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448189672"/>
+        <c:axId val="553355064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7278,7 +7287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448185752"/>
+        <c:crossAx val="553353104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7425,14 +7434,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$608:$U$609</c:f>
+              <c:f>Sheet1!$U$608:$U$610</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>864</c:v>
                 </c:pt>
               </c:numCache>
@@ -7449,11 +7461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="645427856"/>
-        <c:axId val="645429424"/>
+        <c:axId val="553354280"/>
+        <c:axId val="126870240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="645427856"/>
+        <c:axId val="553354280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7495,7 +7507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="645429424"/>
+        <c:crossAx val="126870240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7503,7 +7515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="645429424"/>
+        <c:axId val="126870240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7554,7 +7566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="645427856"/>
+        <c:crossAx val="553354280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11456,11 +11468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF609"/>
+  <dimension ref="A1:AF610"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E603" sqref="E603"/>
+      <pane ySplit="17" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V621" sqref="V621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11671,7 +11683,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000046)</f>
-        <v>1640.7799999999977</v>
+        <v>1642.2799999999977</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -11697,7 +11709,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000045)</f>
-        <v>117992</v>
+        <v>118484</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -25757,6 +25769,44 @@
       </c>
       <c r="V609" s="16" t="s">
         <v>596</v>
+      </c>
+    </row>
+    <row r="610" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A610" s="4">
+        <v>43886</v>
+      </c>
+      <c r="B610" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C610" s="10">
+        <v>136</v>
+      </c>
+      <c r="D610" s="46">
+        <v>356</v>
+      </c>
+      <c r="F610" s="10">
+        <v>85.3</v>
+      </c>
+      <c r="L610" s="46">
+        <v>52.2</v>
+      </c>
+      <c r="M610" s="10">
+        <v>4201</v>
+      </c>
+      <c r="N610" s="46">
+        <v>515</v>
+      </c>
+      <c r="O610" s="10">
+        <v>3296</v>
+      </c>
+      <c r="P610" s="10">
+        <v>2823</v>
+      </c>
+      <c r="T610" s="10">
+        <v>803</v>
+      </c>
+      <c r="U610" s="61">
+        <v>864</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -4169,7 +4169,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5462,11 +5461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="553351144"/>
-        <c:axId val="553356632"/>
+        <c:axId val="426180144"/>
+        <c:axId val="426178184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="553351144"/>
+        <c:axId val="426180144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5508,7 +5507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553356632"/>
+        <c:crossAx val="426178184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5516,7 +5515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553356632"/>
+        <c:axId val="426178184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5567,7 +5566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553351144"/>
+        <c:crossAx val="426180144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5661,7 +5660,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6138,11 +6136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="553351536"/>
-        <c:axId val="553354672"/>
+        <c:axId val="426183672"/>
+        <c:axId val="426181712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="553351536"/>
+        <c:axId val="426183672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6184,7 +6182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553354672"/>
+        <c:crossAx val="426181712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6192,7 +6190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553354672"/>
+        <c:axId val="426181712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,7 +6241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553351536"/>
+        <c:crossAx val="426183672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6385,10 +6383,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$610</c:f>
+              <c:f>Sheet1!$M$576:$M$612</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6486,6 +6484,12 @@
                   <c:v>4201</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
@@ -6502,11 +6506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="553351928"/>
-        <c:axId val="553350360"/>
+        <c:axId val="426182888"/>
+        <c:axId val="426180928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="553351928"/>
+        <c:axId val="426182888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6548,7 +6552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553350360"/>
+        <c:crossAx val="426180928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6556,7 +6560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553350360"/>
+        <c:axId val="426180928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6609,7 +6613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553351928"/>
+        <c:crossAx val="426182888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6756,10 +6760,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$577:$T$610</c:f>
+              <c:f>Sheet1!$T$577:$T$612</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>4201</c:v>
                 </c:pt>
@@ -6861,6 +6865,12 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6902,11 +6912,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="553350752"/>
-        <c:axId val="553352320"/>
+        <c:axId val="426182104"/>
+        <c:axId val="426181320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="553350752"/>
+        <c:axId val="426182104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6948,7 +6958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553352320"/>
+        <c:crossAx val="426181320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6956,7 +6966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553352320"/>
+        <c:axId val="426181320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7008,7 +7018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553350752"/>
+        <c:crossAx val="426182104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7155,10 +7165,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$608:$N$610</c:f>
+              <c:f>Sheet1!$N$608:$N$612</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7167,6 +7177,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7182,11 +7195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="553353104"/>
-        <c:axId val="553355064"/>
+        <c:axId val="426177792"/>
+        <c:axId val="426183280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="553353104"/>
+        <c:axId val="426177792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7228,7 +7241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553355064"/>
+        <c:crossAx val="426183280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7236,7 +7249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553355064"/>
+        <c:axId val="426183280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7287,7 +7300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553353104"/>
+        <c:crossAx val="426177792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7434,10 +7447,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$608:$U$610</c:f>
+              <c:f>Sheet1!$U$608:$U$612</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1080</c:v>
                 </c:pt>
@@ -7446,6 +7459,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7461,11 +7480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="553354280"/>
-        <c:axId val="126870240"/>
+        <c:axId val="426184064"/>
+        <c:axId val="426179752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="553354280"/>
+        <c:axId val="426184064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7507,7 +7526,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126870240"/>
+        <c:crossAx val="426179752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7515,7 +7534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126870240"/>
+        <c:axId val="426179752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7566,7 +7585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553354280"/>
+        <c:crossAx val="426184064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11017,13 +11036,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>280514</xdr:colOff>
-      <xdr:row>613</xdr:row>
+      <xdr:row>622</xdr:row>
       <xdr:rowOff>74270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>662609</xdr:colOff>
-      <xdr:row>625</xdr:row>
+      <xdr:row>634</xdr:row>
       <xdr:rowOff>182218</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11047,13 +11066,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>244734</xdr:colOff>
-      <xdr:row>612</xdr:row>
+      <xdr:row>621</xdr:row>
       <xdr:rowOff>62226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>927652</xdr:colOff>
-      <xdr:row>624</xdr:row>
+      <xdr:row>633</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11146,13 +11165,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165653</xdr:colOff>
-      <xdr:row>626</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>119269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>641</xdr:row>
+      <xdr:row>650</xdr:row>
       <xdr:rowOff>4969</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11176,13 +11195,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>626</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>53009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>985631</xdr:colOff>
-      <xdr:row>640</xdr:row>
+      <xdr:row>649</xdr:row>
       <xdr:rowOff>129209</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11468,7 +11487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF610"/>
+  <dimension ref="A1:AF612"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
@@ -11682,8 +11701,8 @@
       <c r="D15" s="47"/>
       <c r="E15" s="2"/>
       <c r="F15" s="60">
-        <f>SUM(B18:B1000046)</f>
-        <v>1642.2799999999977</v>
+        <f>SUM(B18:B1000055)</f>
+        <v>1643.8799999999976</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -11708,8 +11727,8 @@
         <v>212</v>
       </c>
       <c r="D16" s="59">
-        <f>SUM(C45:D1000045)</f>
-        <v>118484</v>
+        <f>SUM(C45:D1000054)</f>
+        <v>119105</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -25807,6 +25826,79 @@
       </c>
       <c r="U610" s="61">
         <v>864</v>
+      </c>
+    </row>
+    <row r="611" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A611" s="4">
+        <v>43887</v>
+      </c>
+      <c r="B611" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C611" s="10">
+        <v>156</v>
+      </c>
+      <c r="D611" s="46">
+        <v>49</v>
+      </c>
+      <c r="F611" s="10">
+        <v>85.9</v>
+      </c>
+      <c r="L611" s="46">
+        <v>65.3</v>
+      </c>
+      <c r="M611" s="10">
+        <v>4201</v>
+      </c>
+      <c r="O611" s="10">
+        <v>3296</v>
+      </c>
+      <c r="P611" s="10">
+        <v>2823</v>
+      </c>
+      <c r="T611" s="10">
+        <v>756</v>
+      </c>
+      <c r="U611" s="61">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="612" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A612" s="4">
+        <v>43888</v>
+      </c>
+      <c r="B612" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C612" s="10">
+        <v>179</v>
+      </c>
+      <c r="D612" s="46">
+        <v>237</v>
+      </c>
+      <c r="F612" s="10">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="L612" s="46">
+        <v>47.7</v>
+      </c>
+      <c r="M612" s="10">
+        <v>4201</v>
+      </c>
+      <c r="N612" s="46">
+        <v>613</v>
+      </c>
+      <c r="O612" s="10">
+        <v>3296</v>
+      </c>
+      <c r="P612" s="10">
+        <v>2823</v>
+      </c>
+      <c r="T612" s="10">
+        <v>731</v>
+      </c>
+      <c r="U612" s="61">
+        <v>860</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="599">
   <si>
     <t>Date</t>
   </si>
@@ -3868,6 +3868,9 @@
   </si>
   <si>
     <t>Made one outline change today. (Note: there are now 1080 cards in the phrase deck.)</t>
+  </si>
+  <si>
+    <t>Lol at column L. Haven't made any changes to single-word deck outlines in a couple of days, I think</t>
   </si>
 </sst>
 </file>
@@ -4159,13 +4162,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>%</a:t>
+              <a:t>% of single-word deck card reviews that were correct</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Single-word deck card reviews correct</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4231,10 +4229,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$73:$F$601</c:f>
+              <c:f>Sheet1!$F$73:$F$613</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="529"/>
+                <c:ptCount val="541"/>
                 <c:pt idx="0">
                   <c:v>62.8</c:v>
                 </c:pt>
@@ -5446,6 +5444,36 @@
                 </c:pt>
                 <c:pt idx="528">
                   <c:v>82.3</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>84.9</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>84.3</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>85.3</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>89.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5461,11 +5489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="426180144"/>
-        <c:axId val="426178184"/>
+        <c:axId val="136418000"/>
+        <c:axId val="136417608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426180144"/>
+        <c:axId val="136418000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5507,7 +5535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426178184"/>
+        <c:crossAx val="136417608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5515,7 +5543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426178184"/>
+        <c:axId val="136417608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5566,7 +5594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426180144"/>
+        <c:crossAx val="136418000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5650,7 +5678,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Non-mature outlines left in</a:t>
+              <a:t>Non-mature cards left in</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -5660,6 +5688,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5722,10 +5751,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$423:$T$601</c:f>
+              <c:f>Sheet1!$T$423:$T$613</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="179"/>
+                <c:ptCount val="191"/>
                 <c:pt idx="0">
                   <c:v>285</c:v>
                 </c:pt>
@@ -6121,6 +6150,42 @@
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1287</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1288</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1168</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1086</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6136,11 +6201,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="426183672"/>
-        <c:axId val="426181712"/>
+        <c:axId val="432416416"/>
+        <c:axId val="432422688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426183672"/>
+        <c:axId val="432416416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6182,7 +6247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426181712"/>
+        <c:crossAx val="432422688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6190,7 +6255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426181712"/>
+        <c:axId val="432422688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6241,7 +6306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426183672"/>
+        <c:crossAx val="432416416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6383,10 +6448,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$612</c:f>
+              <c:f>Sheet1!$M$576:$M$613</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6490,6 +6555,9 @@
                   <c:v>4201</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
@@ -6506,11 +6574,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="426182888"/>
-        <c:axId val="426180928"/>
+        <c:axId val="432421512"/>
+        <c:axId val="432418376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426182888"/>
+        <c:axId val="432421512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6552,7 +6620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426180928"/>
+        <c:crossAx val="432418376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6560,7 +6628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426180928"/>
+        <c:axId val="432418376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6613,7 +6681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426182888"/>
+        <c:crossAx val="432421512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6663,411 +6731,6 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Number of</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> non-mature cards in single-word deck</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$577:$T$612</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>4201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4201</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4197</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4177</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3957</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3525</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3502</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3457</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3352</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3238</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3201</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3035</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2895</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2736</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2579</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2331</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2193</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1956</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1818</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1719</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1501</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1362</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1287</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1288</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1293</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1168</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1086</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>931</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>893</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>803</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>756</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>731</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$U$577:$U$597</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="426182104"/>
-        <c:axId val="426181320"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="426182104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="426181320"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="426181320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="426182104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7165,10 +6828,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$608:$N$612</c:f>
+              <c:f>Sheet1!$N$608:$N$613</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7180,6 +6843,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7195,11 +6861,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="426177792"/>
-        <c:axId val="426183280"/>
+        <c:axId val="432422296"/>
+        <c:axId val="432416024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426177792"/>
+        <c:axId val="432422296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7241,7 +6907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426183280"/>
+        <c:crossAx val="432416024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7249,7 +6915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426183280"/>
+        <c:axId val="432416024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7300,7 +6966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426177792"/>
+        <c:crossAx val="432422296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7349,7 +7015,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7447,10 +7113,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$608:$U$612</c:f>
+              <c:f>Sheet1!$U$608:$U$613</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1080</c:v>
                 </c:pt>
@@ -7465,6 +7131,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7480,11 +7149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="426184064"/>
-        <c:axId val="426179752"/>
+        <c:axId val="432421904"/>
+        <c:axId val="432419552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="426184064"/>
+        <c:axId val="432421904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7526,7 +7195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426179752"/>
+        <c:crossAx val="432419552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7534,7 +7203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426179752"/>
+        <c:axId val="432419552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7585,7 +7254,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426184064"/>
+        <c:crossAx val="432421904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7795,46 +7464,6 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10454,536 +10083,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>543069</xdr:colOff>
-      <xdr:row>493</xdr:row>
-      <xdr:rowOff>92172</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>244896</xdr:colOff>
+      <xdr:row>652</xdr:row>
+      <xdr:rowOff>9345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>498464</xdr:colOff>
-      <xdr:row>527</xdr:row>
-      <xdr:rowOff>130272</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2577400</xdr:colOff>
+      <xdr:row>686</xdr:row>
+      <xdr:rowOff>47445</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11004,16 +10117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>529</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520767</xdr:colOff>
+      <xdr:row>619</xdr:row>
+      <xdr:rowOff>121823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>539</xdr:row>
-      <xdr:rowOff>100543</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1316934</xdr:colOff>
+      <xdr:row>633</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11057,36 +10170,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>244734</xdr:colOff>
-      <xdr:row>621</xdr:row>
-      <xdr:rowOff>62226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>927652</xdr:colOff>
-      <xdr:row>633</xdr:row>
-      <xdr:rowOff>173935</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11185,7 +10268,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11215,7 +10298,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11487,11 +10570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF612"/>
+  <dimension ref="A1:AF613"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V621" sqref="V621"/>
+      <pane ySplit="17" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V614" sqref="V614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11702,7 +10785,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000055)</f>
-        <v>1643.8799999999976</v>
+        <v>1648.1799999999976</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -11728,7 +10811,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000054)</f>
-        <v>119105</v>
+        <v>120277</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -25899,6 +24982,47 @@
       </c>
       <c r="U612" s="61">
         <v>860</v>
+      </c>
+    </row>
+    <row r="613" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A613" s="4">
+        <v>43889</v>
+      </c>
+      <c r="B613" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="C613" s="10">
+        <v>185</v>
+      </c>
+      <c r="D613" s="46">
+        <v>987</v>
+      </c>
+      <c r="F613" s="10">
+        <v>89.2</v>
+      </c>
+      <c r="L613" s="47">
+        <v>35.9</v>
+      </c>
+      <c r="M613" s="10">
+        <v>4201</v>
+      </c>
+      <c r="N613" s="46">
+        <v>887</v>
+      </c>
+      <c r="O613" s="10">
+        <v>3296</v>
+      </c>
+      <c r="P613" s="10">
+        <v>2823</v>
+      </c>
+      <c r="T613" s="10">
+        <v>698</v>
+      </c>
+      <c r="U613" s="61">
+        <v>779</v>
+      </c>
+      <c r="V613" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="600">
   <si>
     <t>Date</t>
   </si>
@@ -3871,6 +3871,9 @@
   </si>
   <si>
     <t>Lol at column L. Haven't made any changes to single-word deck outlines in a couple of days, I think</t>
+  </si>
+  <si>
+    <t>I've now studied through all of both my single-word deck and my phrase deck! (I was able to accomplish this before February ended.)</t>
   </si>
 </sst>
 </file>
@@ -4167,6 +4170,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4229,10 +4233,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$73:$F$613</c:f>
+              <c:f>Sheet1!$F$73:$F$614</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="541"/>
+                <c:ptCount val="542"/>
                 <c:pt idx="0">
                   <c:v>62.8</c:v>
                 </c:pt>
@@ -5474,6 +5478,9 @@
                 </c:pt>
                 <c:pt idx="540">
                   <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>85.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5489,11 +5496,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="136418000"/>
-        <c:axId val="136417608"/>
+        <c:axId val="373101472"/>
+        <c:axId val="373103432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136418000"/>
+        <c:axId val="373101472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,7 +5542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136417608"/>
+        <c:crossAx val="373103432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5543,7 +5550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136417608"/>
+        <c:axId val="373103432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5594,7 +5601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136418000"/>
+        <c:crossAx val="373101472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5751,10 +5758,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$423:$T$613</c:f>
+              <c:f>Sheet1!$T$423:$T$614</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="191"/>
+                <c:ptCount val="192"/>
                 <c:pt idx="0">
                   <c:v>285</c:v>
                 </c:pt>
@@ -6186,6 +6193,9 @@
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6201,11 +6211,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="432416416"/>
-        <c:axId val="432422688"/>
+        <c:axId val="373101080"/>
+        <c:axId val="373101864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432416416"/>
+        <c:axId val="373101080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6247,7 +6257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432422688"/>
+        <c:crossAx val="373101864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6255,7 +6265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432422688"/>
+        <c:axId val="373101864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6306,7 +6316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432416416"/>
+        <c:crossAx val="373101080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6574,11 +6584,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="432421512"/>
-        <c:axId val="432418376"/>
+        <c:axId val="373103040"/>
+        <c:axId val="373106176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432421512"/>
+        <c:axId val="373103040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6620,7 +6630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432418376"/>
+        <c:crossAx val="373106176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6628,7 +6638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432418376"/>
+        <c:axId val="373106176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6681,7 +6691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432421512"/>
+        <c:crossAx val="373103040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6828,10 +6838,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$608:$N$613</c:f>
+              <c:f>Sheet1!$N$608:$N$614</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6846,6 +6856,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1080</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6861,11 +6874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="432422296"/>
-        <c:axId val="432416024"/>
+        <c:axId val="373104216"/>
+        <c:axId val="373104608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432422296"/>
+        <c:axId val="373104216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6907,7 +6920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432416024"/>
+        <c:crossAx val="373104608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6915,7 +6928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432416024"/>
+        <c:axId val="373104608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6966,7 +6979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432422296"/>
+        <c:crossAx val="373104216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7113,10 +7126,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$608:$U$613</c:f>
+              <c:f>Sheet1!$U$608:$U$614</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1080</c:v>
                 </c:pt>
@@ -7134,6 +7147,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7149,11 +7165,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="432421904"/>
-        <c:axId val="432419552"/>
+        <c:axId val="373099512"/>
+        <c:axId val="174062584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="432421904"/>
+        <c:axId val="373099512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7195,7 +7211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432419552"/>
+        <c:crossAx val="174062584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7203,7 +7219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432419552"/>
+        <c:axId val="174062584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7254,7 +7270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432421904"/>
+        <c:crossAx val="373099512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10570,11 +10586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF613"/>
+  <dimension ref="A1:AF614"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V614" sqref="V614"/>
+      <pane ySplit="17" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V620" sqref="V620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10785,7 +10801,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000055)</f>
-        <v>1648.1799999999976</v>
+        <v>1655.5799999999977</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -10811,7 +10827,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000054)</f>
-        <v>120277</v>
+        <v>121605</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -25023,6 +25039,47 @@
       </c>
       <c r="V613" t="s">
         <v>598</v>
+      </c>
+    </row>
+    <row r="614" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A614" s="4">
+        <v>43890</v>
+      </c>
+      <c r="B614" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="C614" s="10">
+        <v>148</v>
+      </c>
+      <c r="D614" s="46">
+        <v>1180</v>
+      </c>
+      <c r="F614" s="10">
+        <v>85.8</v>
+      </c>
+      <c r="L614" s="46">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="M614" s="10">
+        <v>4201</v>
+      </c>
+      <c r="N614" s="47">
+        <v>1080</v>
+      </c>
+      <c r="O614" s="10">
+        <v>3295</v>
+      </c>
+      <c r="P614" s="10">
+        <v>2822</v>
+      </c>
+      <c r="T614" s="10">
+        <v>659</v>
+      </c>
+      <c r="U614" s="61">
+        <v>735</v>
+      </c>
+      <c r="V614" s="2" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="601">
   <si>
     <t>Date</t>
   </si>
@@ -3874,6 +3874,9 @@
   </si>
   <si>
     <t>I've now studied through all of both my single-word deck and my phrase deck! (I was able to accomplish this before February ended.)</t>
+  </si>
+  <si>
+    <t>4 outline changes to single-word deck. The phrase deck cards are proving to be pretty hard, even with the stories. I think this is because phrases are much more abstract than words, which may make them harder to remember within stories.</t>
   </si>
 </sst>
 </file>
@@ -5496,11 +5499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="373101472"/>
-        <c:axId val="373103432"/>
+        <c:axId val="821696744"/>
+        <c:axId val="821699096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373101472"/>
+        <c:axId val="821696744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5542,7 +5545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373103432"/>
+        <c:crossAx val="821699096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5550,7 +5553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373103432"/>
+        <c:axId val="821699096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5601,7 +5604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373101472"/>
+        <c:crossAx val="821696744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5758,10 +5761,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$423:$T$614</c:f>
+              <c:f>Sheet1!$T$423:$T$615</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="192"/>
+                <c:ptCount val="193"/>
                 <c:pt idx="0">
                   <c:v>285</c:v>
                 </c:pt>
@@ -6196,6 +6199,9 @@
                 </c:pt>
                 <c:pt idx="191">
                   <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6211,11 +6217,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="373101080"/>
-        <c:axId val="373101864"/>
+        <c:axId val="821697136"/>
+        <c:axId val="821699488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373101080"/>
+        <c:axId val="821697136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6257,7 +6263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373101864"/>
+        <c:crossAx val="821699488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6265,7 +6271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373101864"/>
+        <c:axId val="821699488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6316,7 +6322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373101080"/>
+        <c:crossAx val="821697136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6458,10 +6464,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$613</c:f>
+              <c:f>Sheet1!$M$576:$M$615</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6568,6 +6574,12 @@
                   <c:v>4201</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
@@ -6584,11 +6596,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="373103040"/>
-        <c:axId val="373106176"/>
+        <c:axId val="821697920"/>
+        <c:axId val="821704584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373103040"/>
+        <c:axId val="821697920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6630,7 +6642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373106176"/>
+        <c:crossAx val="821704584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6638,7 +6650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373106176"/>
+        <c:axId val="821704584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6691,7 +6703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373103040"/>
+        <c:crossAx val="821697920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6838,10 +6850,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$608:$N$614</c:f>
+              <c:f>Sheet1!$N$608:$N$615</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6858,6 +6870,9 @@
                   <c:v>887</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1080</c:v>
                 </c:pt>
               </c:numCache>
@@ -6874,11 +6889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="373104216"/>
-        <c:axId val="373104608"/>
+        <c:axId val="821706936"/>
+        <c:axId val="821700272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373104216"/>
+        <c:axId val="821706936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6920,7 +6935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373104608"/>
+        <c:crossAx val="821700272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6928,7 +6943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373104608"/>
+        <c:axId val="821700272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6979,7 +6994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373104216"/>
+        <c:crossAx val="821706936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7126,10 +7141,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$608:$U$614</c:f>
+              <c:f>Sheet1!$U$608:$U$615</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1080</c:v>
                 </c:pt>
@@ -7149,6 +7164,9 @@
                   <c:v>779</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>735</c:v>
                 </c:pt>
               </c:numCache>
@@ -7165,11 +7183,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="373099512"/>
-        <c:axId val="174062584"/>
+        <c:axId val="821695176"/>
+        <c:axId val="821699880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373099512"/>
+        <c:axId val="821695176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7211,7 +7229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174062584"/>
+        <c:crossAx val="821699880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7219,7 +7237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174062584"/>
+        <c:axId val="821699880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7270,7 +7288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373099512"/>
+        <c:crossAx val="821695176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10586,11 +10604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF614"/>
+  <dimension ref="A1:AF615"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V620" sqref="V620"/>
+      <pane ySplit="17" topLeftCell="A575" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B583" sqref="B583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10801,7 +10819,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000055)</f>
-        <v>1655.5799999999977</v>
+        <v>1659.1799999999976</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -10827,7 +10845,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000054)</f>
-        <v>121605</v>
+        <v>122626</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -25080,6 +25098,47 @@
       </c>
       <c r="V614" s="2" t="s">
         <v>599</v>
+      </c>
+    </row>
+    <row r="615" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A615" s="4">
+        <v>43891</v>
+      </c>
+      <c r="B615" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="C615" s="10">
+        <v>137</v>
+      </c>
+      <c r="D615" s="46">
+        <v>884</v>
+      </c>
+      <c r="F615" s="10">
+        <v>81.8</v>
+      </c>
+      <c r="L615" s="46">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="M615" s="10">
+        <v>4201</v>
+      </c>
+      <c r="N615" s="47">
+        <v>1080</v>
+      </c>
+      <c r="O615" s="10">
+        <v>3296</v>
+      </c>
+      <c r="P615" s="10">
+        <v>2821</v>
+      </c>
+      <c r="T615" s="10">
+        <v>634</v>
+      </c>
+      <c r="U615" s="61">
+        <v>735</v>
+      </c>
+      <c r="V615" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="602">
   <si>
     <t>Date</t>
   </si>
@@ -3877,6 +3877,9 @@
   </si>
   <si>
     <t>4 outline changes to single-word deck. The phrase deck cards are proving to be pretty hard, even with the stories. I think this is because phrases are much more abstract than words, which may make them harder to remember within stories.</t>
+  </si>
+  <si>
+    <t>I feel as though I'm starting to get a hang of the phrase deck outlines, even though I still have a long ways to go to really master them.</t>
   </si>
 </sst>
 </file>
@@ -5499,11 +5502,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="821696744"/>
-        <c:axId val="821699096"/>
+        <c:axId val="537427712"/>
+        <c:axId val="537428104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="821696744"/>
+        <c:axId val="537427712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5545,7 +5548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821699096"/>
+        <c:crossAx val="537428104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5553,7 +5556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="821699096"/>
+        <c:axId val="537428104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5604,7 +5607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821696744"/>
+        <c:crossAx val="537427712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5761,10 +5764,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$423:$T$615</c:f>
+              <c:f>Sheet1!$T$423:$T$616</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="193"/>
+                <c:ptCount val="194"/>
                 <c:pt idx="0">
                   <c:v>285</c:v>
                 </c:pt>
@@ -6202,6 +6205,9 @@
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6217,11 +6223,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="821697136"/>
-        <c:axId val="821699488"/>
+        <c:axId val="537428496"/>
+        <c:axId val="579905728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="821697136"/>
+        <c:axId val="537428496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6263,7 +6269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821699488"/>
+        <c:crossAx val="579905728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6271,7 +6277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="821699488"/>
+        <c:axId val="579905728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6322,7 +6328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821697136"/>
+        <c:crossAx val="537428496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6464,10 +6470,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$615</c:f>
+              <c:f>Sheet1!$M$576:$M$616</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6580,6 +6586,9 @@
                   <c:v>4201</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
@@ -6596,11 +6605,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="821697920"/>
-        <c:axId val="821704584"/>
+        <c:axId val="377865672"/>
+        <c:axId val="377866064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="821697920"/>
+        <c:axId val="377865672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6642,7 +6651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821704584"/>
+        <c:crossAx val="377866064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6650,7 +6659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="821704584"/>
+        <c:axId val="377866064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6703,7 +6712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821697920"/>
+        <c:crossAx val="377865672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6850,10 +6859,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$608:$N$615</c:f>
+              <c:f>Sheet1!$N$608:$N$616</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6873,6 +6882,9 @@
                   <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1080</c:v>
                 </c:pt>
               </c:numCache>
@@ -6889,11 +6901,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="821706936"/>
-        <c:axId val="821700272"/>
+        <c:axId val="377866456"/>
+        <c:axId val="377867240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="821706936"/>
+        <c:axId val="377866456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6935,7 +6947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821700272"/>
+        <c:crossAx val="377867240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6943,7 +6955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="821700272"/>
+        <c:axId val="377867240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6994,7 +7006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821706936"/>
+        <c:crossAx val="377866456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7141,10 +7153,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$608:$U$615</c:f>
+              <c:f>Sheet1!$U$608:$U$616</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1080</c:v>
                 </c:pt>
@@ -7167,6 +7179,9 @@
                   <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>735</c:v>
                 </c:pt>
               </c:numCache>
@@ -7183,11 +7198,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="821695176"/>
-        <c:axId val="821699880"/>
+        <c:axId val="415190888"/>
+        <c:axId val="415191280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="821695176"/>
+        <c:axId val="415190888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7229,7 +7244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821699880"/>
+        <c:crossAx val="415191280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7237,7 +7252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="821699880"/>
+        <c:axId val="415191280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7288,7 +7303,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821695176"/>
+        <c:crossAx val="415190888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10604,11 +10619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF615"/>
+  <dimension ref="A1:AF616"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A575" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B583" sqref="B583"/>
+      <pane ySplit="17" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N618" sqref="N618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10819,7 +10834,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000055)</f>
-        <v>1659.1799999999976</v>
+        <v>1661.2799999999975</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -10845,7 +10860,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000054)</f>
-        <v>122626</v>
+        <v>123229</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -25139,6 +25154,47 @@
       </c>
       <c r="V615" t="s">
         <v>600</v>
+      </c>
+    </row>
+    <row r="616" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A616" s="4">
+        <v>43892</v>
+      </c>
+      <c r="B616" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="C616" s="10">
+        <v>154</v>
+      </c>
+      <c r="D616" s="46">
+        <v>449</v>
+      </c>
+      <c r="F616" s="10">
+        <v>85.7</v>
+      </c>
+      <c r="L616" s="47">
+        <v>57.2</v>
+      </c>
+      <c r="M616" s="10">
+        <v>4201</v>
+      </c>
+      <c r="N616" s="46">
+        <v>1080</v>
+      </c>
+      <c r="O616" s="10">
+        <v>3296</v>
+      </c>
+      <c r="P616" s="10">
+        <v>2821</v>
+      </c>
+      <c r="T616" s="10">
+        <v>585</v>
+      </c>
+      <c r="U616" s="61">
+        <v>735</v>
+      </c>
+      <c r="V616" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/Steno practice log.xlsx
+++ b/Steno practice log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Plover\Rope 3-0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7755"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Github Traffic Stats" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="603">
   <si>
     <t>Date</t>
   </si>
@@ -3880,6 +3875,9 @@
   </si>
   <si>
     <t>I feel as though I'm starting to get a hang of the phrase deck outlines, even though I still have a long ways to go to really master them.</t>
+  </si>
+  <si>
+    <t>Phrase deck reviews are definitely starting to go better.</t>
   </si>
 </sst>
 </file>
@@ -4185,26 +4183,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5501,12 +5479,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537427712"/>
-        <c:axId val="537428104"/>
+        <c:axId val="109564288"/>
+        <c:axId val="109565824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537427712"/>
+        <c:axId val="109564288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5548,7 +5527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537428104"/>
+        <c:crossAx val="109565824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5556,7 +5535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537428104"/>
+        <c:axId val="109565824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5607,7 +5586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537427712"/>
+        <c:crossAx val="109564288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5710,26 +5689,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5764,10 +5723,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$423:$T$616</c:f>
+              <c:f>Sheet1!$T$423:$T$617</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="194"/>
+                <c:ptCount val="195"/>
                 <c:pt idx="0">
                   <c:v>285</c:v>
                 </c:pt>
@@ -6208,6 +6167,9 @@
                 </c:pt>
                 <c:pt idx="193">
                   <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6222,12 +6184,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537428496"/>
-        <c:axId val="579905728"/>
+        <c:axId val="110773760"/>
+        <c:axId val="110775296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537428496"/>
+        <c:axId val="110773760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6269,7 +6232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579905728"/>
+        <c:crossAx val="110775296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6277,7 +6240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="579905728"/>
+        <c:axId val="110775296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6328,7 +6291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537428496"/>
+        <c:crossAx val="110773760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6426,26 +6389,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6470,10 +6413,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$576:$M$616</c:f>
+              <c:f>Sheet1!$M$576:$M$617</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6589,6 +6532,9 @@
                   <c:v>4201</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>4201</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>4201</c:v>
                 </c:pt>
               </c:numCache>
@@ -6604,12 +6550,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="377865672"/>
-        <c:axId val="377866064"/>
+        <c:axId val="110783488"/>
+        <c:axId val="110801664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="377865672"/>
+        <c:axId val="110783488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6651,7 +6598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377866064"/>
+        <c:crossAx val="110801664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6659,7 +6606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377866064"/>
+        <c:axId val="110801664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4500"/>
@@ -6712,7 +6659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377865672"/>
+        <c:crossAx val="110783488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6815,26 +6762,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6900,12 +6827,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="377866456"/>
-        <c:axId val="377867240"/>
+        <c:axId val="110708992"/>
+        <c:axId val="110714880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="377866456"/>
+        <c:axId val="110708992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6947,7 +6875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377867240"/>
+        <c:crossAx val="110714880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6955,7 +6883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377867240"/>
+        <c:axId val="110714880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7006,7 +6934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377866456"/>
+        <c:crossAx val="110708992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7109,26 +7037,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7197,12 +7105,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="415190888"/>
-        <c:axId val="415191280"/>
+        <c:axId val="110721280"/>
+        <c:axId val="110735360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="415190888"/>
+        <c:axId val="110721280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7244,7 +7153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415191280"/>
+        <c:crossAx val="110735360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7252,7 +7161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415191280"/>
+        <c:axId val="110735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7303,7 +7212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415190888"/>
+        <c:crossAx val="110721280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10611,7 +10520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10619,11 +10528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF616"/>
+  <dimension ref="A1:AF617"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N618" sqref="N618"/>
+      <pane ySplit="17" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D621" sqref="D621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10834,7 +10743,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="60">
         <f>SUM(B18:B1000055)</f>
-        <v>1661.2799999999975</v>
+        <v>1662.3799999999974</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -10860,7 +10769,7 @@
       </c>
       <c r="D16" s="59">
         <f>SUM(C45:D1000054)</f>
-        <v>123229</v>
+        <v>123613</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -25195,6 +25104,47 @@
       </c>
       <c r="V616" t="s">
         <v>601</v>
+      </c>
+    </row>
+    <row r="617" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A617" s="4">
+        <v>43893</v>
+      </c>
+      <c r="B617" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C617" s="10">
+        <v>117</v>
+      </c>
+      <c r="D617" s="46">
+        <v>267</v>
+      </c>
+      <c r="F617" s="10">
+        <v>82.9</v>
+      </c>
+      <c r="L617" s="47">
+        <v>74.2</v>
+      </c>
+      <c r="M617" s="10">
+        <v>4201</v>
+      </c>
+      <c r="N617" s="46">
+        <v>1080</v>
+      </c>
+      <c r="O617" s="10">
+        <v>3296</v>
+      </c>
+      <c r="P617" s="10">
+        <v>2821</v>
+      </c>
+      <c r="T617" s="10">
+        <v>556</v>
+      </c>
+      <c r="U617" s="61">
+        <v>735</v>
+      </c>
+      <c r="V617" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
